--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>638700</v>
+        <v>503000</v>
       </c>
       <c r="E8" s="3">
-        <v>595800</v>
+        <v>656100</v>
       </c>
       <c r="F8" s="3">
-        <v>534200</v>
+        <v>623000</v>
       </c>
       <c r="G8" s="3">
-        <v>1923800</v>
+        <v>581200</v>
       </c>
       <c r="H8" s="3">
-        <v>523400</v>
+        <v>521100</v>
       </c>
       <c r="I8" s="3">
+        <v>1876600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>510500</v>
+      </c>
+      <c r="K8" s="3">
         <v>452300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>396600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>379200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>939700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>46300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>265200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>246100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>316100</v>
+        <v>262700</v>
       </c>
       <c r="E9" s="3">
-        <v>296100</v>
+        <v>329100</v>
       </c>
       <c r="F9" s="3">
-        <v>268800</v>
+        <v>308400</v>
       </c>
       <c r="G9" s="3">
-        <v>1030600</v>
+        <v>288900</v>
       </c>
       <c r="H9" s="3">
-        <v>291500</v>
+        <v>262200</v>
       </c>
       <c r="I9" s="3">
+        <v>1005300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>284400</v>
+      </c>
+      <c r="K9" s="3">
         <v>246800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>191100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>196500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>452600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>22400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>120400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>110200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>322600</v>
+        <v>240300</v>
       </c>
       <c r="E10" s="3">
-        <v>299700</v>
+        <v>327000</v>
       </c>
       <c r="F10" s="3">
-        <v>265300</v>
+        <v>314700</v>
       </c>
       <c r="G10" s="3">
-        <v>893200</v>
+        <v>292300</v>
       </c>
       <c r="H10" s="3">
-        <v>231900</v>
+        <v>258800</v>
       </c>
       <c r="I10" s="3">
+        <v>871300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K10" s="3">
         <v>205500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>205600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>182700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>487100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>24000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>144800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>135900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>43300</v>
+        <v>36700</v>
       </c>
       <c r="E12" s="3">
-        <v>36100</v>
+        <v>40900</v>
       </c>
       <c r="F12" s="3">
-        <v>35800</v>
+        <v>42200</v>
       </c>
       <c r="G12" s="3">
-        <v>109100</v>
+        <v>35200</v>
       </c>
       <c r="H12" s="3">
-        <v>35200</v>
+        <v>34900</v>
       </c>
       <c r="I12" s="3">
+        <v>106500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>18400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>33000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>8600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,28 +1002,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -999,22 +1038,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>5500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>497800</v>
+        <v>420700</v>
       </c>
       <c r="E17" s="3">
-        <v>462700</v>
+        <v>481300</v>
       </c>
       <c r="F17" s="3">
-        <v>479700</v>
+        <v>485600</v>
       </c>
       <c r="G17" s="3">
-        <v>1461400</v>
+        <v>451400</v>
       </c>
       <c r="H17" s="3">
-        <v>431000</v>
+        <v>467900</v>
       </c>
       <c r="I17" s="3">
+        <v>1425500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>420400</v>
+      </c>
+      <c r="K17" s="3">
         <v>323800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>262200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>274100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>687900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>36000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>174200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>163200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>140900</v>
+        <v>82300</v>
       </c>
       <c r="E18" s="3">
-        <v>133100</v>
+        <v>174900</v>
       </c>
       <c r="F18" s="3">
-        <v>54500</v>
+        <v>137400</v>
       </c>
       <c r="G18" s="3">
-        <v>462400</v>
+        <v>129800</v>
       </c>
       <c r="H18" s="3">
-        <v>92400</v>
+        <v>53200</v>
       </c>
       <c r="I18" s="3">
+        <v>451100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K18" s="3">
         <v>128500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>134500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>105100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>251700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>91000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>82900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,131 +1243,145 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E20" s="3">
         <v>15100</v>
       </c>
-      <c r="E20" s="3">
-        <v>14400</v>
-      </c>
       <c r="F20" s="3">
-        <v>13500</v>
+        <v>14800</v>
       </c>
       <c r="G20" s="3">
-        <v>39200</v>
+        <v>14000</v>
       </c>
       <c r="H20" s="3">
-        <v>11900</v>
+        <v>13100</v>
       </c>
       <c r="I20" s="3">
+        <v>38200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>14500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>169000</v>
+        <v>113500</v>
       </c>
       <c r="E21" s="3">
-        <v>160000</v>
+        <v>202800</v>
       </c>
       <c r="F21" s="3">
-        <v>80400</v>
+        <v>164800</v>
       </c>
       <c r="G21" s="3">
-        <v>536200</v>
+        <v>156100</v>
       </c>
       <c r="H21" s="3">
-        <v>115500</v>
+        <v>78500</v>
       </c>
       <c r="I21" s="3">
+        <v>523100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>112700</v>
+      </c>
+      <c r="K21" s="3">
         <v>143000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>146000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>123400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>267500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>11400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>96900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>87800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
         <v>2800</v>
       </c>
       <c r="F22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
-        <v>8100</v>
-      </c>
       <c r="H22" s="3">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="I22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>153100</v>
+        <v>97800</v>
       </c>
       <c r="E23" s="3">
-        <v>144700</v>
+        <v>187200</v>
       </c>
       <c r="F23" s="3">
-        <v>65200</v>
+        <v>149400</v>
       </c>
       <c r="G23" s="3">
-        <v>493500</v>
+        <v>141200</v>
       </c>
       <c r="H23" s="3">
-        <v>100700</v>
+        <v>63600</v>
       </c>
       <c r="I23" s="3">
+        <v>481400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K23" s="3">
         <v>134300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>141300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>112200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>266200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>94800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>85600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26200</v>
+        <v>22800</v>
       </c>
       <c r="E24" s="3">
-        <v>40700</v>
+        <v>35500</v>
       </c>
       <c r="F24" s="3">
-        <v>23500</v>
+        <v>25600</v>
       </c>
       <c r="G24" s="3">
-        <v>100400</v>
+        <v>39700</v>
       </c>
       <c r="H24" s="3">
-        <v>21100</v>
+        <v>22900</v>
       </c>
       <c r="I24" s="3">
+        <v>97900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K24" s="3">
         <v>28500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>24500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>18700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>47300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>15800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>126900</v>
+        <v>75000</v>
       </c>
       <c r="E26" s="3">
-        <v>104000</v>
+        <v>151700</v>
       </c>
       <c r="F26" s="3">
-        <v>41800</v>
+        <v>123800</v>
       </c>
       <c r="G26" s="3">
-        <v>393100</v>
+        <v>101400</v>
       </c>
       <c r="H26" s="3">
-        <v>79700</v>
+        <v>40700</v>
       </c>
       <c r="I26" s="3">
+        <v>383500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K26" s="3">
         <v>105800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>116800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>93500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>218900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>79000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>82500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>128300</v>
+        <v>75400</v>
       </c>
       <c r="E27" s="3">
-        <v>105000</v>
+        <v>147800</v>
       </c>
       <c r="F27" s="3">
-        <v>41500</v>
+        <v>125100</v>
       </c>
       <c r="G27" s="3">
-        <v>404000</v>
+        <v>102400</v>
       </c>
       <c r="H27" s="3">
-        <v>83200</v>
+        <v>40500</v>
       </c>
       <c r="I27" s="3">
+        <v>394100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K27" s="3">
         <v>107600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>118400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>95700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>223100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>81200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>80600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-14400</v>
-      </c>
       <c r="F32" s="3">
-        <v>-13500</v>
+        <v>-14800</v>
       </c>
       <c r="G32" s="3">
-        <v>-39200</v>
+        <v>-14000</v>
       </c>
       <c r="H32" s="3">
-        <v>-11900</v>
+        <v>-13100</v>
       </c>
       <c r="I32" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-14500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>128300</v>
+        <v>75400</v>
       </c>
       <c r="E33" s="3">
-        <v>105000</v>
+        <v>147800</v>
       </c>
       <c r="F33" s="3">
-        <v>41500</v>
+        <v>125100</v>
       </c>
       <c r="G33" s="3">
-        <v>404000</v>
+        <v>102400</v>
       </c>
       <c r="H33" s="3">
-        <v>83200</v>
+        <v>40500</v>
       </c>
       <c r="I33" s="3">
+        <v>394100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K33" s="3">
         <v>107600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>118400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>95700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>223100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>81200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>80600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>128300</v>
+        <v>75400</v>
       </c>
       <c r="E35" s="3">
-        <v>105000</v>
+        <v>147800</v>
       </c>
       <c r="F35" s="3">
-        <v>41500</v>
+        <v>125100</v>
       </c>
       <c r="G35" s="3">
-        <v>404000</v>
+        <v>102400</v>
       </c>
       <c r="H35" s="3">
-        <v>83200</v>
+        <v>40500</v>
       </c>
       <c r="I35" s="3">
+        <v>394100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K35" s="3">
         <v>107600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>118400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>95700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>223100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>81200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>80600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>411900</v>
+        <v>391800</v>
       </c>
       <c r="E41" s="3">
-        <v>249000</v>
+        <v>365700</v>
       </c>
       <c r="F41" s="3">
-        <v>384300</v>
+        <v>401800</v>
       </c>
       <c r="G41" s="3">
-        <v>354100</v>
+        <v>242900</v>
       </c>
       <c r="H41" s="3">
-        <v>40900</v>
+        <v>374900</v>
       </c>
       <c r="I41" s="3">
+        <v>345400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K41" s="3">
         <v>43900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>46000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>662200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>76700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>65800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>388700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>257600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1549400</v>
+        <v>1773000</v>
       </c>
       <c r="E42" s="3">
-        <v>1543000</v>
+        <v>1723300</v>
       </c>
       <c r="F42" s="3">
-        <v>1339800</v>
+        <v>1511400</v>
       </c>
       <c r="G42" s="3">
-        <v>1266200</v>
+        <v>1505100</v>
       </c>
       <c r="H42" s="3">
-        <v>172100</v>
+        <v>1306900</v>
       </c>
       <c r="I42" s="3">
+        <v>1235100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K42" s="3">
         <v>59700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>83100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>362500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>64400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>59800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>351200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>393800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54100</v>
+        <v>41700</v>
       </c>
       <c r="E43" s="3">
-        <v>39500</v>
+        <v>37700</v>
       </c>
       <c r="F43" s="3">
-        <v>44500</v>
+        <v>52800</v>
       </c>
       <c r="G43" s="3">
-        <v>103200</v>
+        <v>38600</v>
       </c>
       <c r="H43" s="3">
-        <v>13300</v>
+        <v>43400</v>
       </c>
       <c r="I43" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>49100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>32900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>36200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2334,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>93200</v>
+        <v>83800</v>
       </c>
       <c r="E45" s="3">
-        <v>90000</v>
+        <v>83800</v>
       </c>
       <c r="F45" s="3">
-        <v>87500</v>
+        <v>90900</v>
       </c>
       <c r="G45" s="3">
-        <v>89100</v>
+        <v>87800</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>85400</v>
       </c>
       <c r="I45" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K45" s="3">
         <v>61200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>20800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>79900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>37400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>32700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2108700</v>
+        <v>2290200</v>
       </c>
       <c r="E46" s="3">
-        <v>1921500</v>
+        <v>2210500</v>
       </c>
       <c r="F46" s="3">
-        <v>1856100</v>
+        <v>2056900</v>
       </c>
       <c r="G46" s="3">
-        <v>1812600</v>
+        <v>1874400</v>
       </c>
       <c r="H46" s="3">
-        <v>240700</v>
+        <v>1810500</v>
       </c>
       <c r="I46" s="3">
+        <v>1768100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>234800</v>
+      </c>
+      <c r="K46" s="3">
         <v>169900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>155400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1147800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>154600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>138200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>810200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>720200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72600</v>
+        <v>69200</v>
       </c>
       <c r="E47" s="3">
-        <v>68400</v>
+        <v>69400</v>
       </c>
       <c r="F47" s="3">
-        <v>65800</v>
+        <v>70800</v>
       </c>
       <c r="G47" s="3">
+        <v>66700</v>
+      </c>
+      <c r="H47" s="3">
         <v>64200</v>
       </c>
-      <c r="H47" s="3">
-        <v>9700</v>
-      </c>
       <c r="I47" s="3">
+        <v>62600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K47" s="3">
         <v>8900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>42800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>35900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>31900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83700</v>
+        <v>70500</v>
       </c>
       <c r="E48" s="3">
-        <v>80700</v>
+        <v>75100</v>
       </c>
       <c r="F48" s="3">
-        <v>77200</v>
+        <v>81600</v>
       </c>
       <c r="G48" s="3">
-        <v>55600</v>
+        <v>78700</v>
       </c>
       <c r="H48" s="3">
-        <v>7000</v>
+        <v>75300</v>
       </c>
       <c r="I48" s="3">
+        <v>54200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>38400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>13900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>779100</v>
+        <v>741600</v>
       </c>
       <c r="E49" s="3">
-        <v>754300</v>
+        <v>734900</v>
       </c>
       <c r="F49" s="3">
-        <v>743100</v>
+        <v>760000</v>
       </c>
       <c r="G49" s="3">
-        <v>766700</v>
+        <v>735800</v>
       </c>
       <c r="H49" s="3">
-        <v>112300</v>
+        <v>724900</v>
       </c>
       <c r="I49" s="3">
+        <v>747900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>109600</v>
+      </c>
+      <c r="K49" s="3">
         <v>113200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7300</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10600</v>
+        <v>58200</v>
       </c>
       <c r="E52" s="3">
-        <v>11100</v>
+        <v>56800</v>
       </c>
       <c r="F52" s="3">
-        <v>14600</v>
+        <v>10400</v>
       </c>
       <c r="G52" s="3">
-        <v>22000</v>
+        <v>10800</v>
       </c>
       <c r="H52" s="3">
-        <v>2400</v>
+        <v>14200</v>
       </c>
       <c r="I52" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>36600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>17700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3054700</v>
+        <v>3229700</v>
       </c>
       <c r="E54" s="3">
-        <v>2836000</v>
+        <v>3146800</v>
       </c>
       <c r="F54" s="3">
-        <v>2756800</v>
+        <v>2979800</v>
       </c>
       <c r="G54" s="3">
-        <v>2721200</v>
+        <v>2766500</v>
       </c>
       <c r="H54" s="3">
-        <v>372100</v>
+        <v>2689100</v>
       </c>
       <c r="I54" s="3">
+        <v>2654400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>363000</v>
+      </c>
+      <c r="K54" s="3">
         <v>301800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>207300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1257200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>166700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>148400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>875600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>769700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>88700</v>
+        <v>89000</v>
       </c>
       <c r="E57" s="3">
-        <v>111700</v>
+        <v>100000</v>
       </c>
       <c r="F57" s="3">
-        <v>103400</v>
+        <v>86500</v>
       </c>
       <c r="G57" s="3">
-        <v>103100</v>
+        <v>109000</v>
       </c>
       <c r="H57" s="3">
-        <v>15000</v>
+        <v>100900</v>
       </c>
       <c r="I57" s="3">
+        <v>100500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K57" s="3">
         <v>12400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>72000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>47100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>40500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,123 +2974,141 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>254500</v>
+        <v>400700</v>
       </c>
       <c r="E59" s="3">
-        <v>206900</v>
+        <v>264900</v>
       </c>
       <c r="F59" s="3">
-        <v>334300</v>
+        <v>248300</v>
       </c>
       <c r="G59" s="3">
-        <v>283800</v>
+        <v>201800</v>
       </c>
       <c r="H59" s="3">
-        <v>35500</v>
+        <v>326100</v>
       </c>
       <c r="I59" s="3">
+        <v>276800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K59" s="3">
         <v>36600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>21400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>179100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>19800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>19500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>96400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>93200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>343200</v>
+        <v>489600</v>
       </c>
       <c r="E60" s="3">
-        <v>318600</v>
+        <v>364800</v>
       </c>
       <c r="F60" s="3">
-        <v>437700</v>
+        <v>334800</v>
       </c>
       <c r="G60" s="3">
-        <v>386900</v>
+        <v>310800</v>
       </c>
       <c r="H60" s="3">
-        <v>50500</v>
+        <v>427000</v>
       </c>
       <c r="I60" s="3">
+        <v>377400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K60" s="3">
         <v>49100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>33300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>251100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>30900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>27900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>143500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>133700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>729200</v>
+        <v>705800</v>
       </c>
       <c r="E61" s="3">
-        <v>699800</v>
+        <v>693400</v>
       </c>
       <c r="F61" s="3">
-        <v>683600</v>
+        <v>711300</v>
       </c>
       <c r="G61" s="3">
-        <v>699800</v>
+        <v>682600</v>
       </c>
       <c r="H61" s="3">
-        <v>101700</v>
+        <v>666800</v>
       </c>
       <c r="I61" s="3">
+        <v>682600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K61" s="3">
         <v>43000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182600</v>
+        <v>172300</v>
       </c>
       <c r="E62" s="3">
-        <v>178200</v>
+        <v>168500</v>
       </c>
       <c r="F62" s="3">
-        <v>129600</v>
+        <v>178100</v>
       </c>
       <c r="G62" s="3">
-        <v>53000</v>
+        <v>173800</v>
       </c>
       <c r="H62" s="3">
-        <v>6800</v>
+        <v>126400</v>
       </c>
       <c r="I62" s="3">
+        <v>51700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K62" s="3">
         <v>6400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1255000</v>
+        <v>1367800</v>
       </c>
       <c r="E66" s="3">
-        <v>1196600</v>
+        <v>1226700</v>
       </c>
       <c r="F66" s="3">
-        <v>1250900</v>
+        <v>1224200</v>
       </c>
       <c r="G66" s="3">
-        <v>1139600</v>
+        <v>1167200</v>
       </c>
       <c r="H66" s="3">
-        <v>159000</v>
+        <v>1220200</v>
       </c>
       <c r="I66" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K66" s="3">
         <v>98500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>34100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>255100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>28600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>148300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>135700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3280,25 +3627,31 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>54900</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
-        <v>51100</v>
+      <c r="O72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>51100</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1799700</v>
+        <v>1862000</v>
       </c>
       <c r="E76" s="3">
-        <v>1639400</v>
+        <v>1920100</v>
       </c>
       <c r="F76" s="3">
-        <v>1505900</v>
+        <v>1755600</v>
       </c>
       <c r="G76" s="3">
-        <v>1581600</v>
+        <v>1599200</v>
       </c>
       <c r="H76" s="3">
-        <v>213100</v>
+        <v>1468900</v>
       </c>
       <c r="I76" s="3">
+        <v>1542800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>207900</v>
+      </c>
+      <c r="K76" s="3">
         <v>203300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>173100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1002100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>135100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>119900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>727300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>634000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>128300</v>
+        <v>75400</v>
       </c>
       <c r="E81" s="3">
-        <v>105000</v>
+        <v>147800</v>
       </c>
       <c r="F81" s="3">
-        <v>41500</v>
+        <v>125100</v>
       </c>
       <c r="G81" s="3">
-        <v>404000</v>
+        <v>102400</v>
       </c>
       <c r="H81" s="3">
-        <v>83200</v>
+        <v>40500</v>
       </c>
       <c r="I81" s="3">
+        <v>394100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K81" s="3">
         <v>107600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>118400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>95700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>223100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>81200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>80600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E83" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="F83" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="G83" s="3">
-        <v>34600</v>
+        <v>12200</v>
       </c>
       <c r="H83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>33800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M83" s="3">
         <v>11200</v>
       </c>
-      <c r="I83" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11200</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2200</v>
       </c>
       <c r="P83" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>168700</v>
+        <v>76100</v>
       </c>
       <c r="E89" s="3">
-        <v>204000</v>
+        <v>234400</v>
       </c>
       <c r="F89" s="3">
-        <v>168700</v>
+        <v>164600</v>
       </c>
       <c r="G89" s="3">
-        <v>477500</v>
+        <v>199000</v>
       </c>
       <c r="H89" s="3">
-        <v>49700</v>
+        <v>164600</v>
       </c>
       <c r="I89" s="3">
+        <v>465700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K89" s="3">
         <v>142400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>118400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>382600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>45700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>16000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>95400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>107200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8600</v>
+        <v>-5300</v>
       </c>
       <c r="E91" s="3">
-        <v>-6000</v>
+        <v>-4500</v>
       </c>
       <c r="F91" s="3">
-        <v>-7600</v>
+        <v>-8400</v>
       </c>
       <c r="G91" s="3">
-        <v>-34800</v>
+        <v>-5800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1500</v>
+        <v>-7400</v>
       </c>
       <c r="I91" s="3">
-        <v>-600</v>
+        <v>-34000</v>
       </c>
       <c r="J91" s="3">
         <v>-1500</v>
       </c>
       <c r="K91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4300</v>
+        <v>-51000</v>
       </c>
       <c r="E94" s="3">
-        <v>-214000</v>
+        <v>-216700</v>
       </c>
       <c r="F94" s="3">
-        <v>-137700</v>
+        <v>-4200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1439700</v>
+        <v>-208800</v>
       </c>
       <c r="H94" s="3">
-        <v>-116200</v>
+        <v>-134300</v>
       </c>
       <c r="I94" s="3">
+        <v>-1404400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-113300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-63700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>33500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-87300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,43 +4809,49 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-125900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>672600</v>
+        <v>-122800</v>
       </c>
       <c r="H100" s="3">
-        <v>399100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>656100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>389300</v>
+      </c>
+      <c r="K100" s="3">
         <v>273800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4368,92 +4859,110 @@
       <c r="P100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>700</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>800</v>
+      </c>
+      <c r="P101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>800</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-8400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>162900</v>
+        <v>26100</v>
       </c>
       <c r="E102" s="3">
-        <v>-135200</v>
+        <v>-36100</v>
       </c>
       <c r="F102" s="3">
-        <v>30200</v>
+        <v>158900</v>
       </c>
       <c r="G102" s="3">
-        <v>-286100</v>
+        <v>-131900</v>
       </c>
       <c r="H102" s="3">
-        <v>-52900</v>
+        <v>29400</v>
       </c>
       <c r="I102" s="3">
+        <v>-279100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="K102" s="3">
         <v>39200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-42400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>358400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>38500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>131100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>11600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>503000</v>
+        <v>522000</v>
       </c>
       <c r="E8" s="3">
-        <v>656100</v>
+        <v>680800</v>
       </c>
       <c r="F8" s="3">
-        <v>623000</v>
+        <v>646500</v>
       </c>
       <c r="G8" s="3">
-        <v>581200</v>
+        <v>603100</v>
       </c>
       <c r="H8" s="3">
-        <v>521100</v>
+        <v>540700</v>
       </c>
       <c r="I8" s="3">
-        <v>1876600</v>
+        <v>1947300</v>
       </c>
       <c r="J8" s="3">
-        <v>510500</v>
+        <v>529700</v>
       </c>
       <c r="K8" s="3">
         <v>452300</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>262700</v>
+        <v>272600</v>
       </c>
       <c r="E9" s="3">
-        <v>329100</v>
+        <v>341500</v>
       </c>
       <c r="F9" s="3">
-        <v>308400</v>
+        <v>320000</v>
       </c>
       <c r="G9" s="3">
-        <v>288900</v>
+        <v>299700</v>
       </c>
       <c r="H9" s="3">
-        <v>262200</v>
+        <v>272100</v>
       </c>
       <c r="I9" s="3">
-        <v>1005300</v>
+        <v>1043200</v>
       </c>
       <c r="J9" s="3">
-        <v>284400</v>
+        <v>295100</v>
       </c>
       <c r="K9" s="3">
         <v>246800</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>240300</v>
+        <v>249400</v>
       </c>
       <c r="E10" s="3">
-        <v>327000</v>
+        <v>339300</v>
       </c>
       <c r="F10" s="3">
-        <v>314700</v>
+        <v>326500</v>
       </c>
       <c r="G10" s="3">
-        <v>292300</v>
+        <v>303300</v>
       </c>
       <c r="H10" s="3">
-        <v>258800</v>
+        <v>268600</v>
       </c>
       <c r="I10" s="3">
-        <v>871300</v>
+        <v>904100</v>
       </c>
       <c r="J10" s="3">
-        <v>226200</v>
+        <v>234700</v>
       </c>
       <c r="K10" s="3">
         <v>205500</v>
@@ -914,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="E12" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="F12" s="3">
-        <v>42200</v>
+        <v>43800</v>
       </c>
       <c r="G12" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="H12" s="3">
-        <v>34900</v>
+        <v>36200</v>
       </c>
       <c r="I12" s="3">
-        <v>106500</v>
+        <v>110500</v>
       </c>
       <c r="J12" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="K12" s="3">
         <v>23000</v>
@@ -1014,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I14" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>420700</v>
+        <v>436600</v>
       </c>
       <c r="E17" s="3">
-        <v>481300</v>
+        <v>499400</v>
       </c>
       <c r="F17" s="3">
-        <v>485600</v>
+        <v>503900</v>
       </c>
       <c r="G17" s="3">
-        <v>451400</v>
+        <v>468400</v>
       </c>
       <c r="H17" s="3">
-        <v>467900</v>
+        <v>485500</v>
       </c>
       <c r="I17" s="3">
-        <v>1425500</v>
+        <v>1479200</v>
       </c>
       <c r="J17" s="3">
-        <v>420400</v>
+        <v>436200</v>
       </c>
       <c r="K17" s="3">
         <v>323800</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>82300</v>
+        <v>85400</v>
       </c>
       <c r="E18" s="3">
-        <v>174900</v>
+        <v>181500</v>
       </c>
       <c r="F18" s="3">
-        <v>137400</v>
+        <v>142600</v>
       </c>
       <c r="G18" s="3">
-        <v>129800</v>
+        <v>134700</v>
       </c>
       <c r="H18" s="3">
-        <v>53200</v>
+        <v>55200</v>
       </c>
       <c r="I18" s="3">
-        <v>451100</v>
+        <v>468100</v>
       </c>
       <c r="J18" s="3">
-        <v>90100</v>
+        <v>93500</v>
       </c>
       <c r="K18" s="3">
         <v>128500</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="E20" s="3">
-        <v>15100</v>
+        <v>15700</v>
       </c>
       <c r="F20" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="G20" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="H20" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="I20" s="3">
-        <v>38200</v>
+        <v>39600</v>
       </c>
       <c r="J20" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="K20" s="3">
         <v>7500</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>113500</v>
+        <v>117800</v>
       </c>
       <c r="E21" s="3">
-        <v>202800</v>
+        <v>210500</v>
       </c>
       <c r="F21" s="3">
-        <v>164800</v>
+        <v>171000</v>
       </c>
       <c r="G21" s="3">
-        <v>156100</v>
+        <v>162000</v>
       </c>
       <c r="H21" s="3">
-        <v>78500</v>
+        <v>81400</v>
       </c>
       <c r="I21" s="3">
-        <v>523100</v>
+        <v>542800</v>
       </c>
       <c r="J21" s="3">
-        <v>112700</v>
+        <v>116900</v>
       </c>
       <c r="K21" s="3">
         <v>143000</v>
@@ -1351,25 +1351,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2700</v>
-      </c>
       <c r="I22" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="J22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K22" s="3">
         <v>1800</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>97800</v>
+        <v>101500</v>
       </c>
       <c r="E23" s="3">
-        <v>187200</v>
+        <v>194200</v>
       </c>
       <c r="F23" s="3">
-        <v>149400</v>
+        <v>155000</v>
       </c>
       <c r="G23" s="3">
-        <v>141200</v>
+        <v>146500</v>
       </c>
       <c r="H23" s="3">
-        <v>63600</v>
+        <v>66000</v>
       </c>
       <c r="I23" s="3">
-        <v>481400</v>
+        <v>499500</v>
       </c>
       <c r="J23" s="3">
-        <v>98300</v>
+        <v>102000</v>
       </c>
       <c r="K23" s="3">
         <v>134300</v>
@@ -1451,25 +1451,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22800</v>
+        <v>23700</v>
       </c>
       <c r="E24" s="3">
-        <v>35500</v>
+        <v>36800</v>
       </c>
       <c r="F24" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="G24" s="3">
-        <v>39700</v>
+        <v>41200</v>
       </c>
       <c r="H24" s="3">
-        <v>22900</v>
+        <v>23800</v>
       </c>
       <c r="I24" s="3">
-        <v>97900</v>
+        <v>101600</v>
       </c>
       <c r="J24" s="3">
-        <v>20500</v>
+        <v>21300</v>
       </c>
       <c r="K24" s="3">
         <v>28500</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75000</v>
+        <v>77900</v>
       </c>
       <c r="E26" s="3">
-        <v>151700</v>
+        <v>157400</v>
       </c>
       <c r="F26" s="3">
-        <v>123800</v>
+        <v>128500</v>
       </c>
       <c r="G26" s="3">
-        <v>101400</v>
+        <v>105300</v>
       </c>
       <c r="H26" s="3">
-        <v>40700</v>
+        <v>42300</v>
       </c>
       <c r="I26" s="3">
-        <v>383500</v>
+        <v>397900</v>
       </c>
       <c r="J26" s="3">
-        <v>77700</v>
+        <v>80700</v>
       </c>
       <c r="K26" s="3">
         <v>105800</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>75400</v>
+        <v>78300</v>
       </c>
       <c r="E27" s="3">
-        <v>147800</v>
+        <v>153300</v>
       </c>
       <c r="F27" s="3">
-        <v>125100</v>
+        <v>129800</v>
       </c>
       <c r="G27" s="3">
-        <v>102400</v>
+        <v>106300</v>
       </c>
       <c r="H27" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="I27" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="J27" s="3">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="K27" s="3">
         <v>107600</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18300</v>
+        <v>-19000</v>
       </c>
       <c r="E32" s="3">
-        <v>-15100</v>
+        <v>-15700</v>
       </c>
       <c r="F32" s="3">
-        <v>-14800</v>
+        <v>-15300</v>
       </c>
       <c r="G32" s="3">
-        <v>-14000</v>
+        <v>-14600</v>
       </c>
       <c r="H32" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="I32" s="3">
-        <v>-38200</v>
+        <v>-39600</v>
       </c>
       <c r="J32" s="3">
-        <v>-11600</v>
+        <v>-12000</v>
       </c>
       <c r="K32" s="3">
         <v>-7500</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75400</v>
+        <v>78300</v>
       </c>
       <c r="E33" s="3">
-        <v>147800</v>
+        <v>153300</v>
       </c>
       <c r="F33" s="3">
-        <v>125100</v>
+        <v>129800</v>
       </c>
       <c r="G33" s="3">
-        <v>102400</v>
+        <v>106300</v>
       </c>
       <c r="H33" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="I33" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="J33" s="3">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="K33" s="3">
         <v>107600</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75400</v>
+        <v>78300</v>
       </c>
       <c r="E35" s="3">
-        <v>147800</v>
+        <v>153300</v>
       </c>
       <c r="F35" s="3">
-        <v>125100</v>
+        <v>129800</v>
       </c>
       <c r="G35" s="3">
-        <v>102400</v>
+        <v>106300</v>
       </c>
       <c r="H35" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="I35" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="J35" s="3">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="K35" s="3">
         <v>107600</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>391800</v>
+        <v>406500</v>
       </c>
       <c r="E41" s="3">
-        <v>365700</v>
+        <v>379400</v>
       </c>
       <c r="F41" s="3">
-        <v>401800</v>
+        <v>416900</v>
       </c>
       <c r="G41" s="3">
-        <v>242900</v>
+        <v>252100</v>
       </c>
       <c r="H41" s="3">
-        <v>374900</v>
+        <v>389000</v>
       </c>
       <c r="I41" s="3">
-        <v>345400</v>
+        <v>358400</v>
       </c>
       <c r="J41" s="3">
-        <v>39900</v>
+        <v>41400</v>
       </c>
       <c r="K41" s="3">
         <v>43900</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1773000</v>
+        <v>1839800</v>
       </c>
       <c r="E42" s="3">
-        <v>1723300</v>
+        <v>1788200</v>
       </c>
       <c r="F42" s="3">
-        <v>1511400</v>
+        <v>1568300</v>
       </c>
       <c r="G42" s="3">
-        <v>1505100</v>
+        <v>1561800</v>
       </c>
       <c r="H42" s="3">
-        <v>1306900</v>
+        <v>1356100</v>
       </c>
       <c r="I42" s="3">
-        <v>1235100</v>
+        <v>1281600</v>
       </c>
       <c r="J42" s="3">
-        <v>167800</v>
+        <v>174200</v>
       </c>
       <c r="K42" s="3">
         <v>59700</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="E43" s="3">
-        <v>37700</v>
+        <v>39100</v>
       </c>
       <c r="F43" s="3">
-        <v>52800</v>
+        <v>54800</v>
       </c>
       <c r="G43" s="3">
-        <v>38600</v>
+        <v>40000</v>
       </c>
       <c r="H43" s="3">
-        <v>43400</v>
+        <v>45000</v>
       </c>
       <c r="I43" s="3">
-        <v>100700</v>
+        <v>104500</v>
       </c>
       <c r="J43" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="K43" s="3">
         <v>4900</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83800</v>
+        <v>86900</v>
       </c>
       <c r="E45" s="3">
-        <v>83800</v>
+        <v>87000</v>
       </c>
       <c r="F45" s="3">
-        <v>90900</v>
+        <v>94300</v>
       </c>
       <c r="G45" s="3">
-        <v>87800</v>
+        <v>91100</v>
       </c>
       <c r="H45" s="3">
-        <v>85400</v>
+        <v>88600</v>
       </c>
       <c r="I45" s="3">
-        <v>86900</v>
+        <v>90200</v>
       </c>
       <c r="J45" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="K45" s="3">
         <v>61200</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2290200</v>
+        <v>2376500</v>
       </c>
       <c r="E46" s="3">
-        <v>2210500</v>
+        <v>2293700</v>
       </c>
       <c r="F46" s="3">
-        <v>2056900</v>
+        <v>2134400</v>
       </c>
       <c r="G46" s="3">
-        <v>1874400</v>
+        <v>1945000</v>
       </c>
       <c r="H46" s="3">
-        <v>1810500</v>
+        <v>1878700</v>
       </c>
       <c r="I46" s="3">
-        <v>1768100</v>
+        <v>1834700</v>
       </c>
       <c r="J46" s="3">
-        <v>234800</v>
+        <v>243700</v>
       </c>
       <c r="K46" s="3">
         <v>169900</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69200</v>
+        <v>71800</v>
       </c>
       <c r="E47" s="3">
-        <v>69400</v>
+        <v>72000</v>
       </c>
       <c r="F47" s="3">
-        <v>70800</v>
+        <v>73500</v>
       </c>
       <c r="G47" s="3">
-        <v>66700</v>
+        <v>69300</v>
       </c>
       <c r="H47" s="3">
-        <v>64200</v>
+        <v>66600</v>
       </c>
       <c r="I47" s="3">
-        <v>62600</v>
+        <v>65000</v>
       </c>
       <c r="J47" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="K47" s="3">
         <v>8900</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>70500</v>
+        <v>73100</v>
       </c>
       <c r="E48" s="3">
-        <v>75100</v>
+        <v>78000</v>
       </c>
       <c r="F48" s="3">
-        <v>81600</v>
+        <v>84700</v>
       </c>
       <c r="G48" s="3">
-        <v>78700</v>
+        <v>81700</v>
       </c>
       <c r="H48" s="3">
-        <v>75300</v>
+        <v>78100</v>
       </c>
       <c r="I48" s="3">
-        <v>54200</v>
+        <v>56300</v>
       </c>
       <c r="J48" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="K48" s="3">
         <v>6900</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>741600</v>
+        <v>769500</v>
       </c>
       <c r="E49" s="3">
-        <v>734900</v>
+        <v>762600</v>
       </c>
       <c r="F49" s="3">
-        <v>760000</v>
+        <v>788700</v>
       </c>
       <c r="G49" s="3">
-        <v>735800</v>
+        <v>763500</v>
       </c>
       <c r="H49" s="3">
-        <v>724900</v>
+        <v>752200</v>
       </c>
       <c r="I49" s="3">
-        <v>747900</v>
+        <v>776100</v>
       </c>
       <c r="J49" s="3">
-        <v>109600</v>
+        <v>113700</v>
       </c>
       <c r="K49" s="3">
         <v>113200</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>58200</v>
+        <v>60400</v>
       </c>
       <c r="E52" s="3">
-        <v>56800</v>
+        <v>59000</v>
       </c>
       <c r="F52" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="G52" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="H52" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="I52" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="J52" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K52" s="3">
         <v>2800</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3229700</v>
+        <v>3351400</v>
       </c>
       <c r="E54" s="3">
-        <v>3146800</v>
+        <v>3265300</v>
       </c>
       <c r="F54" s="3">
-        <v>2979800</v>
+        <v>3092000</v>
       </c>
       <c r="G54" s="3">
-        <v>2766500</v>
+        <v>2870600</v>
       </c>
       <c r="H54" s="3">
-        <v>2689100</v>
+        <v>2790400</v>
       </c>
       <c r="I54" s="3">
-        <v>2654400</v>
+        <v>2754400</v>
       </c>
       <c r="J54" s="3">
-        <v>363000</v>
+        <v>376600</v>
       </c>
       <c r="K54" s="3">
         <v>301800</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>89000</v>
+        <v>92300</v>
       </c>
       <c r="E57" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="F57" s="3">
-        <v>86500</v>
+        <v>89800</v>
       </c>
       <c r="G57" s="3">
-        <v>109000</v>
+        <v>113100</v>
       </c>
       <c r="H57" s="3">
-        <v>100900</v>
+        <v>104700</v>
       </c>
       <c r="I57" s="3">
-        <v>100500</v>
+        <v>104300</v>
       </c>
       <c r="J57" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="K57" s="3">
         <v>12400</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400700</v>
+        <v>415800</v>
       </c>
       <c r="E59" s="3">
-        <v>264900</v>
+        <v>274800</v>
       </c>
       <c r="F59" s="3">
-        <v>248300</v>
+        <v>257600</v>
       </c>
       <c r="G59" s="3">
-        <v>201800</v>
+        <v>209400</v>
       </c>
       <c r="H59" s="3">
-        <v>326100</v>
+        <v>338300</v>
       </c>
       <c r="I59" s="3">
-        <v>276800</v>
+        <v>287300</v>
       </c>
       <c r="J59" s="3">
-        <v>34600</v>
+        <v>35900</v>
       </c>
       <c r="K59" s="3">
         <v>36600</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>489600</v>
+        <v>508100</v>
       </c>
       <c r="E60" s="3">
-        <v>364800</v>
+        <v>378600</v>
       </c>
       <c r="F60" s="3">
-        <v>334800</v>
+        <v>347400</v>
       </c>
       <c r="G60" s="3">
-        <v>310800</v>
+        <v>322500</v>
       </c>
       <c r="H60" s="3">
-        <v>427000</v>
+        <v>443000</v>
       </c>
       <c r="I60" s="3">
-        <v>377400</v>
+        <v>391600</v>
       </c>
       <c r="J60" s="3">
-        <v>49300</v>
+        <v>51200</v>
       </c>
       <c r="K60" s="3">
         <v>49100</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>705800</v>
+        <v>732400</v>
       </c>
       <c r="E61" s="3">
-        <v>693400</v>
+        <v>719500</v>
       </c>
       <c r="F61" s="3">
-        <v>711300</v>
+        <v>738100</v>
       </c>
       <c r="G61" s="3">
-        <v>682600</v>
+        <v>708300</v>
       </c>
       <c r="H61" s="3">
-        <v>666800</v>
+        <v>691900</v>
       </c>
       <c r="I61" s="3">
-        <v>682600</v>
+        <v>708300</v>
       </c>
       <c r="J61" s="3">
-        <v>99200</v>
+        <v>102900</v>
       </c>
       <c r="K61" s="3">
         <v>43000</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>172300</v>
+        <v>178800</v>
       </c>
       <c r="E62" s="3">
-        <v>168500</v>
+        <v>174800</v>
       </c>
       <c r="F62" s="3">
-        <v>178100</v>
+        <v>184800</v>
       </c>
       <c r="G62" s="3">
-        <v>173800</v>
+        <v>180400</v>
       </c>
       <c r="H62" s="3">
-        <v>126400</v>
+        <v>131200</v>
       </c>
       <c r="I62" s="3">
-        <v>51700</v>
+        <v>53600</v>
       </c>
       <c r="J62" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="K62" s="3">
         <v>6400</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1367800</v>
+        <v>1419300</v>
       </c>
       <c r="E66" s="3">
-        <v>1226700</v>
+        <v>1272900</v>
       </c>
       <c r="F66" s="3">
-        <v>1224200</v>
+        <v>1270300</v>
       </c>
       <c r="G66" s="3">
-        <v>1167200</v>
+        <v>1211200</v>
       </c>
       <c r="H66" s="3">
-        <v>1220200</v>
+        <v>1266100</v>
       </c>
       <c r="I66" s="3">
-        <v>1111700</v>
+        <v>1153500</v>
       </c>
       <c r="J66" s="3">
-        <v>155100</v>
+        <v>161000</v>
       </c>
       <c r="K66" s="3">
         <v>98500</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1862000</v>
+        <v>1932100</v>
       </c>
       <c r="E76" s="3">
-        <v>1920100</v>
+        <v>1992400</v>
       </c>
       <c r="F76" s="3">
-        <v>1755600</v>
+        <v>1821700</v>
       </c>
       <c r="G76" s="3">
-        <v>1599200</v>
+        <v>1659400</v>
       </c>
       <c r="H76" s="3">
-        <v>1468900</v>
+        <v>1524200</v>
       </c>
       <c r="I76" s="3">
-        <v>1542800</v>
+        <v>1600800</v>
       </c>
       <c r="J76" s="3">
-        <v>207900</v>
+        <v>215700</v>
       </c>
       <c r="K76" s="3">
         <v>203300</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75400</v>
+        <v>78300</v>
       </c>
       <c r="E81" s="3">
-        <v>147800</v>
+        <v>153300</v>
       </c>
       <c r="F81" s="3">
-        <v>125100</v>
+        <v>129800</v>
       </c>
       <c r="G81" s="3">
-        <v>102400</v>
+        <v>106300</v>
       </c>
       <c r="H81" s="3">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="I81" s="3">
-        <v>394100</v>
+        <v>408900</v>
       </c>
       <c r="J81" s="3">
-        <v>81100</v>
+        <v>84200</v>
       </c>
       <c r="K81" s="3">
         <v>107600</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="E83" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="F83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H83" s="3">
         <v>12600</v>
       </c>
-      <c r="G83" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12200</v>
-      </c>
       <c r="I83" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="J83" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="K83" s="3">
         <v>6900</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>76100</v>
+        <v>78900</v>
       </c>
       <c r="E89" s="3">
-        <v>234400</v>
+        <v>243300</v>
       </c>
       <c r="F89" s="3">
-        <v>164600</v>
+        <v>170800</v>
       </c>
       <c r="G89" s="3">
-        <v>199000</v>
+        <v>206500</v>
       </c>
       <c r="H89" s="3">
-        <v>164600</v>
+        <v>170800</v>
       </c>
       <c r="I89" s="3">
-        <v>465700</v>
+        <v>483300</v>
       </c>
       <c r="J89" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="K89" s="3">
         <v>142400</v>
@@ -4401,22 +4401,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="F91" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="G91" s="3">
-        <v>-5800</v>
+        <v>-6100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7400</v>
+        <v>-7700</v>
       </c>
       <c r="I91" s="3">
-        <v>-34000</v>
+        <v>-35300</v>
       </c>
       <c r="J91" s="3">
         <v>-1500</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51000</v>
+        <v>-52900</v>
       </c>
       <c r="E94" s="3">
+        <v>-224800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-216700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-208800</v>
-      </c>
       <c r="H94" s="3">
-        <v>-134300</v>
+        <v>-139400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1404400</v>
+        <v>-1457200</v>
       </c>
       <c r="J94" s="3">
-        <v>-113300</v>
+        <v>-117600</v>
       </c>
       <c r="K94" s="3">
         <v>-22200</v>
@@ -4824,22 +4824,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-53100</v>
+        <v>-55100</v>
       </c>
       <c r="F100" s="3">
         <v>-2400</v>
       </c>
       <c r="G100" s="3">
-        <v>-122800</v>
+        <v>-127400</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>656100</v>
+        <v>680800</v>
       </c>
       <c r="J100" s="3">
-        <v>389300</v>
+        <v>404000</v>
       </c>
       <c r="K100" s="3">
         <v>273800</v>
@@ -4871,7 +4871,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
         <v>-800</v>
@@ -4880,16 +4880,16 @@
         <v>900</v>
       </c>
       <c r="G101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
         <v>-800</v>
       </c>
       <c r="I101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K101" s="3">
         <v>-1600</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="E102" s="3">
-        <v>-36100</v>
+        <v>-37500</v>
       </c>
       <c r="F102" s="3">
-        <v>158900</v>
+        <v>164900</v>
       </c>
       <c r="G102" s="3">
-        <v>-131900</v>
+        <v>-136900</v>
       </c>
       <c r="H102" s="3">
-        <v>29400</v>
+        <v>30500</v>
       </c>
       <c r="I102" s="3">
-        <v>-279100</v>
+        <v>-289600</v>
       </c>
       <c r="J102" s="3">
-        <v>-51600</v>
+        <v>-53600</v>
       </c>
       <c r="K102" s="3">
         <v>39200</v>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>522000</v>
+        <v>588400</v>
       </c>
       <c r="E8" s="3">
-        <v>680800</v>
+        <v>546700</v>
       </c>
       <c r="F8" s="3">
-        <v>646500</v>
+        <v>713100</v>
       </c>
       <c r="G8" s="3">
-        <v>603100</v>
+        <v>677200</v>
       </c>
       <c r="H8" s="3">
-        <v>540700</v>
+        <v>631700</v>
       </c>
       <c r="I8" s="3">
-        <v>1947300</v>
+        <v>566300</v>
       </c>
       <c r="J8" s="3">
+        <v>2039700</v>
+      </c>
+      <c r="K8" s="3">
         <v>529700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>452300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>396600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>379200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>939700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>265200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>246100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>272600</v>
+        <v>309800</v>
       </c>
       <c r="E9" s="3">
-        <v>341500</v>
+        <v>285500</v>
       </c>
       <c r="F9" s="3">
-        <v>320000</v>
+        <v>357700</v>
       </c>
       <c r="G9" s="3">
-        <v>299700</v>
+        <v>335200</v>
       </c>
       <c r="H9" s="3">
-        <v>272100</v>
+        <v>314000</v>
       </c>
       <c r="I9" s="3">
-        <v>1043200</v>
+        <v>285000</v>
       </c>
       <c r="J9" s="3">
+        <v>1092700</v>
+      </c>
+      <c r="K9" s="3">
         <v>295100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>246800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>191100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>196500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>452600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>120400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>110200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>249400</v>
+        <v>278700</v>
       </c>
       <c r="E10" s="3">
-        <v>339300</v>
+        <v>261200</v>
       </c>
       <c r="F10" s="3">
-        <v>326500</v>
+        <v>355400</v>
       </c>
       <c r="G10" s="3">
-        <v>303300</v>
+        <v>342000</v>
       </c>
       <c r="H10" s="3">
-        <v>268600</v>
+        <v>317700</v>
       </c>
       <c r="I10" s="3">
-        <v>904100</v>
+        <v>281300</v>
       </c>
       <c r="J10" s="3">
+        <v>947000</v>
+      </c>
+      <c r="K10" s="3">
         <v>234700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>205500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>205600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>182700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>487100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>144800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>135900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>38100</v>
+        <v>42400</v>
       </c>
       <c r="E12" s="3">
-        <v>42400</v>
+        <v>39900</v>
       </c>
       <c r="F12" s="3">
-        <v>43800</v>
+        <v>44400</v>
       </c>
       <c r="G12" s="3">
-        <v>36500</v>
+        <v>45900</v>
       </c>
       <c r="H12" s="3">
-        <v>36200</v>
+        <v>38300</v>
       </c>
       <c r="I12" s="3">
-        <v>110500</v>
+        <v>37900</v>
       </c>
       <c r="J12" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K12" s="3">
         <v>35700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>33000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
-        <v>6300</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1044,22 +1064,25 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>436600</v>
+        <v>464800</v>
       </c>
       <c r="E17" s="3">
-        <v>499400</v>
+        <v>457300</v>
       </c>
       <c r="F17" s="3">
-        <v>503900</v>
+        <v>523100</v>
       </c>
       <c r="G17" s="3">
-        <v>468400</v>
+        <v>527800</v>
       </c>
       <c r="H17" s="3">
-        <v>485500</v>
+        <v>490600</v>
       </c>
       <c r="I17" s="3">
-        <v>1479200</v>
+        <v>508500</v>
       </c>
       <c r="J17" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="K17" s="3">
         <v>436200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>323800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>262200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>274100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>687900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>174200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>163200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85400</v>
+        <v>123600</v>
       </c>
       <c r="E18" s="3">
-        <v>181500</v>
+        <v>89500</v>
       </c>
       <c r="F18" s="3">
-        <v>142600</v>
+        <v>190100</v>
       </c>
       <c r="G18" s="3">
-        <v>134700</v>
+        <v>149400</v>
       </c>
       <c r="H18" s="3">
-        <v>55200</v>
+        <v>141100</v>
       </c>
       <c r="I18" s="3">
-        <v>468100</v>
+        <v>57800</v>
       </c>
       <c r="J18" s="3">
+        <v>490300</v>
+      </c>
+      <c r="K18" s="3">
         <v>93500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>128500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>134500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>105100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>251700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>91000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,146 +1278,153 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="E20" s="3">
-        <v>15700</v>
+        <v>19900</v>
       </c>
       <c r="F20" s="3">
-        <v>15300</v>
+        <v>16500</v>
       </c>
       <c r="G20" s="3">
-        <v>14600</v>
+        <v>16000</v>
       </c>
       <c r="H20" s="3">
-        <v>13600</v>
+        <v>15200</v>
       </c>
       <c r="I20" s="3">
-        <v>39600</v>
+        <v>14300</v>
       </c>
       <c r="J20" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>117800</v>
+        <v>154200</v>
       </c>
       <c r="E21" s="3">
-        <v>210500</v>
+        <v>123400</v>
       </c>
       <c r="F21" s="3">
-        <v>171000</v>
+        <v>220500</v>
       </c>
       <c r="G21" s="3">
-        <v>162000</v>
+        <v>179100</v>
       </c>
       <c r="H21" s="3">
-        <v>81400</v>
+        <v>169600</v>
       </c>
       <c r="I21" s="3">
-        <v>542800</v>
+        <v>85300</v>
       </c>
       <c r="J21" s="3">
+        <v>568500</v>
+      </c>
+      <c r="K21" s="3">
         <v>116900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>143000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>146000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>123400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>267500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>87800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8200</v>
-      </c>
       <c r="J22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>101500</v>
+        <v>137100</v>
       </c>
       <c r="E23" s="3">
-        <v>194200</v>
+        <v>106300</v>
       </c>
       <c r="F23" s="3">
-        <v>155000</v>
+        <v>203400</v>
       </c>
       <c r="G23" s="3">
-        <v>146500</v>
+        <v>162300</v>
       </c>
       <c r="H23" s="3">
-        <v>66000</v>
+        <v>153400</v>
       </c>
       <c r="I23" s="3">
-        <v>499500</v>
+        <v>69200</v>
       </c>
       <c r="J23" s="3">
+        <v>523200</v>
+      </c>
+      <c r="K23" s="3">
         <v>102000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>141300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>112200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>266200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>94800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>85600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23700</v>
+        <v>67500</v>
       </c>
       <c r="E24" s="3">
-        <v>36800</v>
+        <v>24800</v>
       </c>
       <c r="F24" s="3">
-        <v>26500</v>
+        <v>38600</v>
       </c>
       <c r="G24" s="3">
-        <v>41200</v>
+        <v>27800</v>
       </c>
       <c r="H24" s="3">
-        <v>23800</v>
+        <v>43200</v>
       </c>
       <c r="I24" s="3">
-        <v>101600</v>
+        <v>24900</v>
       </c>
       <c r="J24" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K24" s="3">
         <v>21300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>47300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>77900</v>
+        <v>69600</v>
       </c>
       <c r="E26" s="3">
-        <v>157400</v>
+        <v>81600</v>
       </c>
       <c r="F26" s="3">
-        <v>128500</v>
+        <v>164900</v>
       </c>
       <c r="G26" s="3">
-        <v>105300</v>
+        <v>134600</v>
       </c>
       <c r="H26" s="3">
-        <v>42300</v>
+        <v>110200</v>
       </c>
       <c r="I26" s="3">
-        <v>397900</v>
+        <v>44300</v>
       </c>
       <c r="J26" s="3">
+        <v>416800</v>
+      </c>
+      <c r="K26" s="3">
         <v>80700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>105800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>116800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>218900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>79000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>82500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78300</v>
+        <v>69400</v>
       </c>
       <c r="E27" s="3">
-        <v>153300</v>
+        <v>82000</v>
       </c>
       <c r="F27" s="3">
-        <v>129800</v>
+        <v>160600</v>
       </c>
       <c r="G27" s="3">
-        <v>106300</v>
+        <v>136000</v>
       </c>
       <c r="H27" s="3">
-        <v>42000</v>
+        <v>111300</v>
       </c>
       <c r="I27" s="3">
-        <v>408900</v>
+        <v>44000</v>
       </c>
       <c r="J27" s="3">
+        <v>428300</v>
+      </c>
+      <c r="K27" s="3">
         <v>84200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>107600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>118400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>95700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>223100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>81200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>80600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19000</v>
+        <v>-16500</v>
       </c>
       <c r="E32" s="3">
-        <v>-15700</v>
+        <v>-19900</v>
       </c>
       <c r="F32" s="3">
-        <v>-15300</v>
+        <v>-16500</v>
       </c>
       <c r="G32" s="3">
-        <v>-14600</v>
+        <v>-16000</v>
       </c>
       <c r="H32" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="I32" s="3">
-        <v>-39600</v>
+        <v>-14300</v>
       </c>
       <c r="J32" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78300</v>
+        <v>69400</v>
       </c>
       <c r="E33" s="3">
-        <v>153300</v>
+        <v>82000</v>
       </c>
       <c r="F33" s="3">
-        <v>129800</v>
+        <v>160600</v>
       </c>
       <c r="G33" s="3">
-        <v>106300</v>
+        <v>136000</v>
       </c>
       <c r="H33" s="3">
-        <v>42000</v>
+        <v>111300</v>
       </c>
       <c r="I33" s="3">
-        <v>408900</v>
+        <v>44000</v>
       </c>
       <c r="J33" s="3">
+        <v>428300</v>
+      </c>
+      <c r="K33" s="3">
         <v>84200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>118400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>95700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>223100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>80600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78300</v>
+        <v>69400</v>
       </c>
       <c r="E35" s="3">
-        <v>153300</v>
+        <v>82000</v>
       </c>
       <c r="F35" s="3">
-        <v>129800</v>
+        <v>160600</v>
       </c>
       <c r="G35" s="3">
-        <v>106300</v>
+        <v>136000</v>
       </c>
       <c r="H35" s="3">
-        <v>42000</v>
+        <v>111300</v>
       </c>
       <c r="I35" s="3">
-        <v>408900</v>
+        <v>44000</v>
       </c>
       <c r="J35" s="3">
+        <v>428300</v>
+      </c>
+      <c r="K35" s="3">
         <v>84200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>118400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>95700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>223100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>80600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2226,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>406500</v>
+        <v>452900</v>
       </c>
       <c r="E41" s="3">
-        <v>379400</v>
+        <v>425800</v>
       </c>
       <c r="F41" s="3">
-        <v>416900</v>
+        <v>397500</v>
       </c>
       <c r="G41" s="3">
-        <v>252100</v>
+        <v>436700</v>
       </c>
       <c r="H41" s="3">
-        <v>389000</v>
+        <v>264000</v>
       </c>
       <c r="I41" s="3">
-        <v>358400</v>
+        <v>407400</v>
       </c>
       <c r="J41" s="3">
+        <v>375400</v>
+      </c>
+      <c r="K41" s="3">
         <v>41400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>662200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>65800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>388700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>257600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1839800</v>
+        <v>1414500</v>
       </c>
       <c r="E42" s="3">
-        <v>1788200</v>
+        <v>1927100</v>
       </c>
       <c r="F42" s="3">
-        <v>1568300</v>
+        <v>1873000</v>
       </c>
       <c r="G42" s="3">
-        <v>1561800</v>
+        <v>1642700</v>
       </c>
       <c r="H42" s="3">
-        <v>1356100</v>
+        <v>1635900</v>
       </c>
       <c r="I42" s="3">
-        <v>1281600</v>
+        <v>1420400</v>
       </c>
       <c r="J42" s="3">
+        <v>1342400</v>
+      </c>
+      <c r="K42" s="3">
         <v>174200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>59700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>83100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>362500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>64400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>59800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>351200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>393800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43200</v>
+        <v>39100</v>
       </c>
       <c r="E43" s="3">
-        <v>39100</v>
+        <v>45300</v>
       </c>
       <c r="F43" s="3">
-        <v>54800</v>
+        <v>41000</v>
       </c>
       <c r="G43" s="3">
-        <v>40000</v>
+        <v>57400</v>
       </c>
       <c r="H43" s="3">
-        <v>45000</v>
+        <v>41900</v>
       </c>
       <c r="I43" s="3">
-        <v>104500</v>
+        <v>47200</v>
       </c>
       <c r="J43" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K43" s="3">
         <v>13400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>49100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>32900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>36200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86900</v>
+        <v>84400</v>
       </c>
       <c r="E45" s="3">
-        <v>87000</v>
+        <v>91000</v>
       </c>
       <c r="F45" s="3">
-        <v>94300</v>
+        <v>91100</v>
       </c>
       <c r="G45" s="3">
-        <v>91100</v>
+        <v>98800</v>
       </c>
       <c r="H45" s="3">
-        <v>88600</v>
+        <v>95400</v>
       </c>
       <c r="I45" s="3">
-        <v>90200</v>
+        <v>92800</v>
       </c>
       <c r="J45" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K45" s="3">
         <v>14700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>79900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>37400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2376500</v>
+        <v>1991000</v>
       </c>
       <c r="E46" s="3">
-        <v>2293700</v>
+        <v>2489200</v>
       </c>
       <c r="F46" s="3">
-        <v>2134400</v>
+        <v>2402600</v>
       </c>
       <c r="G46" s="3">
-        <v>1945000</v>
+        <v>2235700</v>
       </c>
       <c r="H46" s="3">
-        <v>1878700</v>
+        <v>2037200</v>
       </c>
       <c r="I46" s="3">
-        <v>1834700</v>
+        <v>1967800</v>
       </c>
       <c r="J46" s="3">
+        <v>1921800</v>
+      </c>
+      <c r="K46" s="3">
         <v>243700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>155400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1147800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>154600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>138200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>810200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>720200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71800</v>
+        <v>74900</v>
       </c>
       <c r="E47" s="3">
-        <v>72000</v>
+        <v>75200</v>
       </c>
       <c r="F47" s="3">
-        <v>73500</v>
+        <v>75400</v>
       </c>
       <c r="G47" s="3">
-        <v>69300</v>
+        <v>76900</v>
       </c>
       <c r="H47" s="3">
-        <v>66600</v>
+        <v>72500</v>
       </c>
       <c r="I47" s="3">
-        <v>65000</v>
+        <v>69700</v>
       </c>
       <c r="J47" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K47" s="3">
         <v>9800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>35900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>73100</v>
+        <v>71800</v>
       </c>
       <c r="E48" s="3">
-        <v>78000</v>
+        <v>76600</v>
       </c>
       <c r="F48" s="3">
-        <v>84700</v>
+        <v>81700</v>
       </c>
       <c r="G48" s="3">
-        <v>81700</v>
+        <v>88700</v>
       </c>
       <c r="H48" s="3">
-        <v>78100</v>
+        <v>85600</v>
       </c>
       <c r="I48" s="3">
-        <v>56300</v>
+        <v>81800</v>
       </c>
       <c r="J48" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>769500</v>
+        <v>798200</v>
       </c>
       <c r="E49" s="3">
-        <v>762600</v>
+        <v>806000</v>
       </c>
       <c r="F49" s="3">
-        <v>788700</v>
+        <v>798800</v>
       </c>
       <c r="G49" s="3">
-        <v>763500</v>
+        <v>826100</v>
       </c>
       <c r="H49" s="3">
-        <v>752200</v>
+        <v>799700</v>
       </c>
       <c r="I49" s="3">
-        <v>776100</v>
+        <v>787900</v>
       </c>
       <c r="J49" s="3">
+        <v>812900</v>
+      </c>
+      <c r="K49" s="3">
         <v>113700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>113200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1100</v>
       </c>
       <c r="O49" s="3">
         <v>1100</v>
       </c>
       <c r="P49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7300</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60400</v>
+        <v>491600</v>
       </c>
       <c r="E52" s="3">
-        <v>59000</v>
+        <v>63300</v>
       </c>
       <c r="F52" s="3">
-        <v>10800</v>
+        <v>61800</v>
       </c>
       <c r="G52" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H52" s="3">
-        <v>14800</v>
+        <v>11700</v>
       </c>
       <c r="I52" s="3">
-        <v>22300</v>
+        <v>15500</v>
       </c>
       <c r="J52" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3351400</v>
+        <v>3427400</v>
       </c>
       <c r="E54" s="3">
-        <v>3265300</v>
+        <v>3510400</v>
       </c>
       <c r="F54" s="3">
-        <v>3092000</v>
+        <v>3420200</v>
       </c>
       <c r="G54" s="3">
-        <v>2870600</v>
+        <v>3238700</v>
       </c>
       <c r="H54" s="3">
-        <v>2790400</v>
+        <v>3006800</v>
       </c>
       <c r="I54" s="3">
-        <v>2754400</v>
+        <v>2922800</v>
       </c>
       <c r="J54" s="3">
+        <v>2885000</v>
+      </c>
+      <c r="K54" s="3">
         <v>376600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>301800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>207300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1257200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>166700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>148400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>875600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>769700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>92300</v>
+        <v>105400</v>
       </c>
       <c r="E57" s="3">
-        <v>103700</v>
+        <v>96700</v>
       </c>
       <c r="F57" s="3">
-        <v>89800</v>
+        <v>108700</v>
       </c>
       <c r="G57" s="3">
-        <v>113100</v>
+        <v>94000</v>
       </c>
       <c r="H57" s="3">
-        <v>104700</v>
+        <v>118500</v>
       </c>
       <c r="I57" s="3">
-        <v>104300</v>
+        <v>109700</v>
       </c>
       <c r="J57" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K57" s="3">
         <v>15200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>72000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,138 +3114,147 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>415800</v>
+        <v>256000</v>
       </c>
       <c r="E59" s="3">
-        <v>274800</v>
+        <v>435500</v>
       </c>
       <c r="F59" s="3">
-        <v>257600</v>
+        <v>287900</v>
       </c>
       <c r="G59" s="3">
-        <v>209400</v>
+        <v>269900</v>
       </c>
       <c r="H59" s="3">
-        <v>338300</v>
+        <v>219300</v>
       </c>
       <c r="I59" s="3">
-        <v>287300</v>
+        <v>354400</v>
       </c>
       <c r="J59" s="3">
+        <v>300900</v>
+      </c>
+      <c r="K59" s="3">
         <v>35900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>179100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>96400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>508100</v>
+        <v>361400</v>
       </c>
       <c r="E60" s="3">
-        <v>378600</v>
+        <v>532200</v>
       </c>
       <c r="F60" s="3">
-        <v>347400</v>
+        <v>396500</v>
       </c>
       <c r="G60" s="3">
-        <v>322500</v>
+        <v>363900</v>
       </c>
       <c r="H60" s="3">
-        <v>443000</v>
+        <v>337800</v>
       </c>
       <c r="I60" s="3">
-        <v>391600</v>
+        <v>464000</v>
       </c>
       <c r="J60" s="3">
+        <v>410200</v>
+      </c>
+      <c r="K60" s="3">
         <v>51200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>49100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>251100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>143500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>133700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>732400</v>
+        <v>766100</v>
       </c>
       <c r="E61" s="3">
-        <v>719500</v>
+        <v>767200</v>
       </c>
       <c r="F61" s="3">
-        <v>738100</v>
+        <v>753700</v>
       </c>
       <c r="G61" s="3">
-        <v>708300</v>
+        <v>773100</v>
       </c>
       <c r="H61" s="3">
-        <v>691900</v>
+        <v>741900</v>
       </c>
       <c r="I61" s="3">
-        <v>708300</v>
+        <v>724700</v>
       </c>
       <c r="J61" s="3">
+        <v>741900</v>
+      </c>
+      <c r="K61" s="3">
         <v>102900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>178800</v>
+        <v>182100</v>
       </c>
       <c r="E62" s="3">
-        <v>174800</v>
+        <v>187300</v>
       </c>
       <c r="F62" s="3">
-        <v>184800</v>
+        <v>183100</v>
       </c>
       <c r="G62" s="3">
-        <v>180400</v>
+        <v>193600</v>
       </c>
       <c r="H62" s="3">
-        <v>131200</v>
+        <v>189000</v>
       </c>
       <c r="I62" s="3">
-        <v>53600</v>
+        <v>137400</v>
       </c>
       <c r="J62" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K62" s="3">
         <v>6900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
       </c>
       <c r="P62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1419300</v>
+        <v>1309500</v>
       </c>
       <c r="E66" s="3">
-        <v>1272900</v>
+        <v>1486600</v>
       </c>
       <c r="F66" s="3">
-        <v>1270300</v>
+        <v>1333300</v>
       </c>
       <c r="G66" s="3">
-        <v>1211200</v>
+        <v>1330600</v>
       </c>
       <c r="H66" s="3">
-        <v>1266100</v>
+        <v>1268700</v>
       </c>
       <c r="I66" s="3">
-        <v>1153500</v>
+        <v>1326200</v>
       </c>
       <c r="J66" s="3">
+        <v>1208200</v>
+      </c>
+      <c r="K66" s="3">
         <v>161000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>98500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>255100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>148300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>135700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3633,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>54900</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
@@ -3644,14 +3818,17 @@
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="3">
         <v>51100</v>
       </c>
-      <c r="R72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1932100</v>
+        <v>2117900</v>
       </c>
       <c r="E76" s="3">
-        <v>1992400</v>
+        <v>2023700</v>
       </c>
       <c r="F76" s="3">
-        <v>1821700</v>
+        <v>2086900</v>
       </c>
       <c r="G76" s="3">
-        <v>1659400</v>
+        <v>1908100</v>
       </c>
       <c r="H76" s="3">
-        <v>1524200</v>
+        <v>1738200</v>
       </c>
       <c r="I76" s="3">
-        <v>1600800</v>
+        <v>1596500</v>
       </c>
       <c r="J76" s="3">
+        <v>1676800</v>
+      </c>
+      <c r="K76" s="3">
         <v>215700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>203300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>173100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1002100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>135100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>119900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>727300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>634000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78300</v>
+        <v>69400</v>
       </c>
       <c r="E81" s="3">
-        <v>153300</v>
+        <v>82000</v>
       </c>
       <c r="F81" s="3">
-        <v>129800</v>
+        <v>160600</v>
       </c>
       <c r="G81" s="3">
-        <v>106300</v>
+        <v>136000</v>
       </c>
       <c r="H81" s="3">
-        <v>42000</v>
+        <v>111300</v>
       </c>
       <c r="I81" s="3">
-        <v>408900</v>
+        <v>44000</v>
       </c>
       <c r="J81" s="3">
+        <v>428300</v>
+      </c>
+      <c r="K81" s="3">
         <v>84200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>118400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>95700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>223100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>80600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13400</v>
+        <v>14100</v>
       </c>
       <c r="E83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G83" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12600</v>
-      </c>
       <c r="I83" s="3">
-        <v>35000</v>
+        <v>13200</v>
       </c>
       <c r="J83" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>78900</v>
+        <v>122800</v>
       </c>
       <c r="E89" s="3">
-        <v>243300</v>
+        <v>82700</v>
       </c>
       <c r="F89" s="3">
-        <v>170800</v>
+        <v>254800</v>
       </c>
       <c r="G89" s="3">
-        <v>206500</v>
+        <v>178900</v>
       </c>
       <c r="H89" s="3">
-        <v>170800</v>
+        <v>216300</v>
       </c>
       <c r="I89" s="3">
-        <v>483300</v>
+        <v>178900</v>
       </c>
       <c r="J89" s="3">
+        <v>506200</v>
+      </c>
+      <c r="K89" s="3">
         <v>50300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>142400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>118400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>382600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>95400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>107200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5500</v>
+        <v>-7000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4700</v>
+        <v>-5800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8700</v>
+        <v>-4900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6100</v>
+        <v>-9100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>-6300</v>
       </c>
       <c r="I91" s="3">
-        <v>-35300</v>
+        <v>-8000</v>
       </c>
       <c r="J91" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52900</v>
+        <v>78900</v>
       </c>
       <c r="E94" s="3">
-        <v>-224800</v>
+        <v>-55400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4400</v>
+        <v>-235500</v>
       </c>
       <c r="G94" s="3">
-        <v>-216700</v>
+        <v>-4600</v>
       </c>
       <c r="H94" s="3">
-        <v>-139400</v>
+        <v>-226900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1457200</v>
+        <v>-146000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1526400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-117600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-63700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>33500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-87300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,108 +5058,117 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-173800</v>
       </c>
       <c r="E100" s="3">
-        <v>-55100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-2400</v>
+        <v>-57700</v>
       </c>
       <c r="G100" s="3">
-        <v>-127400</v>
+        <v>-2600</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-133500</v>
       </c>
       <c r="I100" s="3">
-        <v>680800</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>713100</v>
+      </c>
+      <c r="K100" s="3">
         <v>404000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>273800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
-        <v>-800</v>
-      </c>
       <c r="I101" s="3">
-        <v>3500</v>
+        <v>-900</v>
       </c>
       <c r="J101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,45 +5176,48 @@
         <v>27100</v>
       </c>
       <c r="E102" s="3">
-        <v>-37500</v>
+        <v>28400</v>
       </c>
       <c r="F102" s="3">
-        <v>164900</v>
+        <v>-39300</v>
       </c>
       <c r="G102" s="3">
-        <v>-136900</v>
+        <v>172700</v>
       </c>
       <c r="H102" s="3">
-        <v>30500</v>
+        <v>-143400</v>
       </c>
       <c r="I102" s="3">
-        <v>-289600</v>
+        <v>32000</v>
       </c>
       <c r="J102" s="3">
+        <v>-303400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-53600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>358400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>38500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>131100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>588400</v>
+        <v>579800</v>
       </c>
       <c r="E8" s="3">
-        <v>546700</v>
+        <v>575500</v>
       </c>
       <c r="F8" s="3">
-        <v>713100</v>
+        <v>591000</v>
       </c>
       <c r="G8" s="3">
-        <v>677200</v>
+        <v>549100</v>
       </c>
       <c r="H8" s="3">
-        <v>631700</v>
+        <v>716200</v>
       </c>
       <c r="I8" s="3">
+        <v>680100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>634400</v>
+      </c>
+      <c r="K8" s="3">
         <v>566300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2039700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>529700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>452300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>396600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>379200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>939700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>46300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>265200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>246100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>309800</v>
+        <v>312100</v>
       </c>
       <c r="E9" s="3">
-        <v>285500</v>
+        <v>308700</v>
       </c>
       <c r="F9" s="3">
-        <v>357700</v>
+        <v>311100</v>
       </c>
       <c r="G9" s="3">
-        <v>335200</v>
+        <v>286800</v>
       </c>
       <c r="H9" s="3">
-        <v>314000</v>
+        <v>359200</v>
       </c>
       <c r="I9" s="3">
+        <v>336600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>315300</v>
+      </c>
+      <c r="K9" s="3">
         <v>285000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1092700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>295100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>246800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>191100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>196500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>452600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>22400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>120400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>110200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>278700</v>
+        <v>267700</v>
       </c>
       <c r="E10" s="3">
-        <v>261200</v>
+        <v>266700</v>
       </c>
       <c r="F10" s="3">
-        <v>355400</v>
+        <v>279900</v>
       </c>
       <c r="G10" s="3">
-        <v>342000</v>
+        <v>262400</v>
       </c>
       <c r="H10" s="3">
-        <v>317700</v>
+        <v>357000</v>
       </c>
       <c r="I10" s="3">
+        <v>343500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>319100</v>
+      </c>
+      <c r="K10" s="3">
         <v>281300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>947000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>234700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>205500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>205600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>182700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>487100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>24000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>144800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>135900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>42400</v>
+        <v>50000</v>
       </c>
       <c r="E12" s="3">
-        <v>39900</v>
+        <v>45700</v>
       </c>
       <c r="F12" s="3">
-        <v>44400</v>
+        <v>42600</v>
       </c>
       <c r="G12" s="3">
-        <v>45900</v>
+        <v>40100</v>
       </c>
       <c r="H12" s="3">
-        <v>38300</v>
+        <v>44600</v>
       </c>
       <c r="I12" s="3">
+        <v>46100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K12" s="3">
         <v>37900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>115700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>35700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>16000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>18400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>33000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,38 +1061,44 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>6600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1067,22 +1106,28 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>5500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>464800</v>
+        <v>489100</v>
       </c>
       <c r="E17" s="3">
-        <v>457300</v>
+        <v>494300</v>
       </c>
       <c r="F17" s="3">
-        <v>523100</v>
+        <v>466800</v>
       </c>
       <c r="G17" s="3">
-        <v>527800</v>
+        <v>459300</v>
       </c>
       <c r="H17" s="3">
-        <v>490600</v>
+        <v>525300</v>
       </c>
       <c r="I17" s="3">
+        <v>530100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>492700</v>
+      </c>
+      <c r="K17" s="3">
         <v>508500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1549400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>436200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>323800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>262200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>274100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>687900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>36000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>174200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>163200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>123600</v>
+        <v>90700</v>
       </c>
       <c r="E18" s="3">
-        <v>89500</v>
+        <v>81100</v>
       </c>
       <c r="F18" s="3">
-        <v>190100</v>
+        <v>124200</v>
       </c>
       <c r="G18" s="3">
-        <v>149400</v>
+        <v>89800</v>
       </c>
       <c r="H18" s="3">
-        <v>141100</v>
+        <v>190900</v>
       </c>
       <c r="I18" s="3">
+        <v>150000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>141700</v>
+      </c>
+      <c r="K18" s="3">
         <v>57800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>490300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>93500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>128500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>134500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>105100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>251700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>91000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>82900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,119 +1344,133 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="3">
         <v>16500</v>
       </c>
-      <c r="E20" s="3">
-        <v>19900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>16500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>16000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>15200</v>
-      </c>
       <c r="I20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K20" s="3">
         <v>14300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>41500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>154200</v>
+        <v>121500</v>
       </c>
       <c r="E21" s="3">
+        <v>110600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>154900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>123900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>221400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>179900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>85300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>568500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>116900</v>
+      </c>
+      <c r="N21" s="3">
+        <v>143000</v>
+      </c>
+      <c r="O21" s="3">
+        <v>146000</v>
+      </c>
+      <c r="P21" s="3">
         <v>123400</v>
       </c>
-      <c r="F21" s="3">
-        <v>220500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>179100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>169600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>85300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>568500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>116900</v>
-      </c>
-      <c r="L21" s="3">
-        <v>143000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>146000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>123400</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>267500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>11400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>96900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>87800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E22" s="3">
         <v>3000</v>
@@ -1400,37 +1479,37 @@
         <v>3100</v>
       </c>
       <c r="G22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
@@ -1438,114 +1517,132 @@
       <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>137100</v>
+        <v>104300</v>
       </c>
       <c r="E23" s="3">
-        <v>106300</v>
+        <v>94000</v>
       </c>
       <c r="F23" s="3">
-        <v>203400</v>
+        <v>137700</v>
       </c>
       <c r="G23" s="3">
-        <v>162300</v>
+        <v>106800</v>
       </c>
       <c r="H23" s="3">
-        <v>153400</v>
+        <v>204300</v>
       </c>
       <c r="I23" s="3">
+        <v>163000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>154100</v>
+      </c>
+      <c r="K23" s="3">
         <v>69200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>523200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>102000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>134300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>141300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>112200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>266200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>11000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>94800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>85600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67500</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
-        <v>24800</v>
+        <v>21900</v>
       </c>
       <c r="F24" s="3">
-        <v>38600</v>
+        <v>67800</v>
       </c>
       <c r="G24" s="3">
-        <v>27800</v>
+        <v>24900</v>
       </c>
       <c r="H24" s="3">
-        <v>43200</v>
+        <v>38800</v>
       </c>
       <c r="I24" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K24" s="3">
         <v>24900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>106400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>21300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>28500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>24500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>18700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>47300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>15800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69600</v>
+        <v>103500</v>
       </c>
       <c r="E26" s="3">
-        <v>81600</v>
+        <v>72100</v>
       </c>
       <c r="F26" s="3">
-        <v>164900</v>
+        <v>69900</v>
       </c>
       <c r="G26" s="3">
-        <v>134600</v>
+        <v>81900</v>
       </c>
       <c r="H26" s="3">
-        <v>110200</v>
+        <v>165600</v>
       </c>
       <c r="I26" s="3">
+        <v>135100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>110700</v>
+      </c>
+      <c r="K26" s="3">
         <v>44300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>416800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>80700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>105800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>116800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>93500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>218900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>79000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>82500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69400</v>
+        <v>99500</v>
       </c>
       <c r="E27" s="3">
-        <v>82000</v>
+        <v>69800</v>
       </c>
       <c r="F27" s="3">
-        <v>160600</v>
+        <v>69700</v>
       </c>
       <c r="G27" s="3">
-        <v>136000</v>
+        <v>82300</v>
       </c>
       <c r="H27" s="3">
-        <v>111300</v>
+        <v>161300</v>
       </c>
       <c r="I27" s="3">
+        <v>136600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K27" s="3">
         <v>44000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>428300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>84200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>107600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>118400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>95700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>223100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>81200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>80600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-16500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-15200</v>
-      </c>
       <c r="I32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-14300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-41500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69400</v>
+        <v>99500</v>
       </c>
       <c r="E33" s="3">
-        <v>82000</v>
+        <v>69800</v>
       </c>
       <c r="F33" s="3">
-        <v>160600</v>
+        <v>69700</v>
       </c>
       <c r="G33" s="3">
-        <v>136000</v>
+        <v>82300</v>
       </c>
       <c r="H33" s="3">
-        <v>111300</v>
+        <v>161300</v>
       </c>
       <c r="I33" s="3">
+        <v>136600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K33" s="3">
         <v>44000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>428300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>84200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>107600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>118400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>95700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>223100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>81200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>80600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69400</v>
+        <v>99500</v>
       </c>
       <c r="E35" s="3">
-        <v>82000</v>
+        <v>69800</v>
       </c>
       <c r="F35" s="3">
-        <v>160600</v>
+        <v>69700</v>
       </c>
       <c r="G35" s="3">
-        <v>136000</v>
+        <v>82300</v>
       </c>
       <c r="H35" s="3">
-        <v>111300</v>
+        <v>161300</v>
       </c>
       <c r="I35" s="3">
+        <v>136600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K35" s="3">
         <v>44000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>428300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>84200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>107600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>118400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>95700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>223100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>81200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>80600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2398,187 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>452900</v>
+        <v>513900</v>
       </c>
       <c r="E41" s="3">
-        <v>425800</v>
+        <v>485300</v>
       </c>
       <c r="F41" s="3">
-        <v>397500</v>
+        <v>454900</v>
       </c>
       <c r="G41" s="3">
-        <v>436700</v>
+        <v>427700</v>
       </c>
       <c r="H41" s="3">
-        <v>264000</v>
+        <v>399200</v>
       </c>
       <c r="I41" s="3">
+        <v>438600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>265200</v>
+      </c>
+      <c r="K41" s="3">
         <v>407400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>375400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>41400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>46000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>662200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>76700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>65800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>388700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>257600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1414500</v>
+        <v>1156000</v>
       </c>
       <c r="E42" s="3">
-        <v>1927100</v>
+        <v>1212700</v>
       </c>
       <c r="F42" s="3">
-        <v>1873000</v>
+        <v>1420700</v>
       </c>
       <c r="G42" s="3">
-        <v>1642700</v>
+        <v>1935400</v>
       </c>
       <c r="H42" s="3">
-        <v>1635900</v>
+        <v>1881100</v>
       </c>
       <c r="I42" s="3">
+        <v>1649900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1420400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1342400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>174200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>59700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>83100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>362500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>64400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>59800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>351200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>393800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39100</v>
+        <v>30700</v>
       </c>
       <c r="E43" s="3">
-        <v>45300</v>
+        <v>35700</v>
       </c>
       <c r="F43" s="3">
-        <v>41000</v>
+        <v>39200</v>
       </c>
       <c r="G43" s="3">
-        <v>57400</v>
+        <v>45500</v>
       </c>
       <c r="H43" s="3">
-        <v>41900</v>
+        <v>41200</v>
       </c>
       <c r="I43" s="3">
+        <v>57600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K43" s="3">
         <v>47200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>109500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>13400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>49100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>32900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>36200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2630,309 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84400</v>
+        <v>94100</v>
       </c>
       <c r="E45" s="3">
-        <v>91000</v>
+        <v>112800</v>
       </c>
       <c r="F45" s="3">
-        <v>91100</v>
+        <v>84800</v>
       </c>
       <c r="G45" s="3">
-        <v>98800</v>
+        <v>91400</v>
       </c>
       <c r="H45" s="3">
-        <v>95400</v>
+        <v>91500</v>
       </c>
       <c r="I45" s="3">
+        <v>99200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>95800</v>
+      </c>
+      <c r="K45" s="3">
         <v>92800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>94500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>61200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>20800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>79900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>8700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>37400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>32700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1991000</v>
+        <v>1794700</v>
       </c>
       <c r="E46" s="3">
-        <v>2489200</v>
+        <v>1846500</v>
       </c>
       <c r="F46" s="3">
-        <v>2402600</v>
+        <v>1999600</v>
       </c>
       <c r="G46" s="3">
-        <v>2235700</v>
+        <v>2500000</v>
       </c>
       <c r="H46" s="3">
-        <v>2037200</v>
+        <v>2413000</v>
       </c>
       <c r="I46" s="3">
+        <v>2245400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2046100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1967800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1921800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>243700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>169900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>155400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1147800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>154600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>138200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>810200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>720200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74900</v>
+        <v>69500</v>
       </c>
       <c r="E47" s="3">
-        <v>75200</v>
+        <v>72800</v>
       </c>
       <c r="F47" s="3">
-        <v>75400</v>
+        <v>75300</v>
       </c>
       <c r="G47" s="3">
-        <v>76900</v>
+        <v>75600</v>
       </c>
       <c r="H47" s="3">
-        <v>72500</v>
+        <v>75800</v>
       </c>
       <c r="I47" s="3">
+        <v>77300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>72900</v>
+      </c>
+      <c r="K47" s="3">
         <v>69700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>68100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>42800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>35900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>31900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71800</v>
+        <v>83100</v>
       </c>
       <c r="E48" s="3">
-        <v>76600</v>
+        <v>63800</v>
       </c>
       <c r="F48" s="3">
-        <v>81700</v>
+        <v>72100</v>
       </c>
       <c r="G48" s="3">
-        <v>88700</v>
+        <v>76900</v>
       </c>
       <c r="H48" s="3">
-        <v>85600</v>
+        <v>82000</v>
       </c>
       <c r="I48" s="3">
+        <v>89100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K48" s="3">
         <v>81800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>59000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>38400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>19200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>13900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>798200</v>
+        <v>729600</v>
       </c>
       <c r="E49" s="3">
-        <v>806000</v>
+        <v>764800</v>
       </c>
       <c r="F49" s="3">
-        <v>798800</v>
+        <v>801600</v>
       </c>
       <c r="G49" s="3">
-        <v>826100</v>
+        <v>809500</v>
       </c>
       <c r="H49" s="3">
-        <v>799700</v>
+        <v>802200</v>
       </c>
       <c r="I49" s="3">
+        <v>829700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>803200</v>
+      </c>
+      <c r="K49" s="3">
         <v>787900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>812900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>113700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>113200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7300</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>491600</v>
+        <v>870700</v>
       </c>
       <c r="E52" s="3">
-        <v>63300</v>
+        <v>733900</v>
       </c>
       <c r="F52" s="3">
-        <v>61800</v>
+        <v>493700</v>
       </c>
       <c r="G52" s="3">
+        <v>63600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>62000</v>
+      </c>
+      <c r="I52" s="3">
         <v>11300</v>
       </c>
-      <c r="H52" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K52" s="3">
         <v>15500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>23300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>36600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>17700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3427400</v>
+        <v>3547600</v>
       </c>
       <c r="E54" s="3">
-        <v>3510400</v>
+        <v>3481800</v>
       </c>
       <c r="F54" s="3">
-        <v>3420200</v>
+        <v>3442300</v>
       </c>
       <c r="G54" s="3">
-        <v>3238700</v>
+        <v>3525600</v>
       </c>
       <c r="H54" s="3">
-        <v>3006800</v>
+        <v>3435100</v>
       </c>
       <c r="I54" s="3">
+        <v>3252700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3019900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2922800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2885000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>376600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>301800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>207300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1257200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>166700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>148400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>875600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>769700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3270,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>105400</v>
+        <v>106900</v>
       </c>
       <c r="E57" s="3">
-        <v>96700</v>
+        <v>96900</v>
       </c>
       <c r="F57" s="3">
-        <v>108700</v>
+        <v>105900</v>
       </c>
       <c r="G57" s="3">
-        <v>94000</v>
+        <v>97100</v>
       </c>
       <c r="H57" s="3">
-        <v>118500</v>
+        <v>109100</v>
       </c>
       <c r="I57" s="3">
+        <v>94400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K57" s="3">
         <v>109700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>109300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>15200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>12400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>72000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>47100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>40500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,150 +3384,168 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>256000</v>
+        <v>277700</v>
       </c>
       <c r="E59" s="3">
-        <v>435500</v>
+        <v>285100</v>
       </c>
       <c r="F59" s="3">
-        <v>287900</v>
+        <v>257100</v>
       </c>
       <c r="G59" s="3">
-        <v>269900</v>
+        <v>437400</v>
       </c>
       <c r="H59" s="3">
-        <v>219300</v>
+        <v>289100</v>
       </c>
       <c r="I59" s="3">
+        <v>271000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>220300</v>
+      </c>
+      <c r="K59" s="3">
         <v>354400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>35900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>36600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>179100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>19800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>19500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>96400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>93200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>361400</v>
+        <v>384500</v>
       </c>
       <c r="E60" s="3">
-        <v>532200</v>
+        <v>382000</v>
       </c>
       <c r="F60" s="3">
-        <v>396500</v>
+        <v>362900</v>
       </c>
       <c r="G60" s="3">
-        <v>363900</v>
+        <v>534500</v>
       </c>
       <c r="H60" s="3">
-        <v>337800</v>
+        <v>398300</v>
       </c>
       <c r="I60" s="3">
+        <v>365500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>339200</v>
+      </c>
+      <c r="K60" s="3">
         <v>464000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>410200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>51200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>49100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>33300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>251100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>30900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>27900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>143500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>133700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>766100</v>
+        <v>711800</v>
       </c>
       <c r="E61" s="3">
-        <v>767200</v>
+        <v>740000</v>
       </c>
       <c r="F61" s="3">
-        <v>753700</v>
+        <v>769400</v>
       </c>
       <c r="G61" s="3">
-        <v>773100</v>
+        <v>770500</v>
       </c>
       <c r="H61" s="3">
+        <v>756900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>776500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>745100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>724700</v>
+      </c>
+      <c r="L61" s="3">
         <v>741900</v>
       </c>
-      <c r="I61" s="3">
-        <v>724700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>741900</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>102900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>43000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,61 +3561,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182100</v>
+        <v>184800</v>
       </c>
       <c r="E62" s="3">
-        <v>187300</v>
+        <v>175400</v>
       </c>
       <c r="F62" s="3">
-        <v>183100</v>
+        <v>182800</v>
       </c>
       <c r="G62" s="3">
-        <v>193600</v>
+        <v>188100</v>
       </c>
       <c r="H62" s="3">
-        <v>189000</v>
+        <v>183900</v>
       </c>
       <c r="I62" s="3">
+        <v>194400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>189800</v>
+      </c>
+      <c r="K62" s="3">
         <v>137400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>56200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1309500</v>
+        <v>1281100</v>
       </c>
       <c r="E66" s="3">
-        <v>1486600</v>
+        <v>1297400</v>
       </c>
       <c r="F66" s="3">
-        <v>1333300</v>
+        <v>1315200</v>
       </c>
       <c r="G66" s="3">
-        <v>1330600</v>
+        <v>1493100</v>
       </c>
       <c r="H66" s="3">
-        <v>1268700</v>
+        <v>1339100</v>
       </c>
       <c r="I66" s="3">
+        <v>1336400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1274200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1326200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1208200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>161000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>98500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>34100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>255100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>31600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>28600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>148300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>135700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4115,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3810,25 +4157,31 @@
         <v>0</v>
       </c>
       <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
         <v>54900</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
-        <v>51100</v>
+      <c r="R72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>51100</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2117900</v>
+        <v>2266500</v>
       </c>
       <c r="E76" s="3">
-        <v>2023700</v>
+        <v>2184300</v>
       </c>
       <c r="F76" s="3">
-        <v>2086900</v>
+        <v>2127100</v>
       </c>
       <c r="G76" s="3">
-        <v>1908100</v>
+        <v>2032500</v>
       </c>
       <c r="H76" s="3">
-        <v>1738200</v>
+        <v>2096000</v>
       </c>
       <c r="I76" s="3">
+        <v>1916400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1745700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1596500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1676800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>215700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>203300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>173100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1002100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>135100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>119900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>727300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>634000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69400</v>
+        <v>99500</v>
       </c>
       <c r="E81" s="3">
-        <v>82000</v>
+        <v>69800</v>
       </c>
       <c r="F81" s="3">
-        <v>160600</v>
+        <v>69700</v>
       </c>
       <c r="G81" s="3">
-        <v>136000</v>
+        <v>82300</v>
       </c>
       <c r="H81" s="3">
-        <v>111300</v>
+        <v>161300</v>
       </c>
       <c r="I81" s="3">
+        <v>136600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K81" s="3">
         <v>44000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>428300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>84200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>107600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>118400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>95700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>223100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>81200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>80600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F83" s="3">
         <v>14100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="H83" s="3">
         <v>14000</v>
       </c>
-      <c r="F83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>13700</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J83" s="3">
         <v>13300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>36700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>6900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2200</v>
       </c>
       <c r="S83" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>122800</v>
+        <v>158800</v>
       </c>
       <c r="E89" s="3">
-        <v>82700</v>
+        <v>105600</v>
       </c>
       <c r="F89" s="3">
-        <v>254800</v>
+        <v>123300</v>
       </c>
       <c r="G89" s="3">
+        <v>83000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>255900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>179700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>217200</v>
+      </c>
+      <c r="K89" s="3">
         <v>178900</v>
       </c>
-      <c r="H89" s="3">
-        <v>216300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>178900</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>506200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>50300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>142400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>118400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>382600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>45700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>16000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>95400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>107200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-6300</v>
-      </c>
       <c r="I91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-36900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-600</v>
       </c>
       <c r="M91" s="3">
         <v>-1500</v>
       </c>
       <c r="N91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>78900</v>
+        <v>-93700</v>
       </c>
       <c r="E94" s="3">
-        <v>-55400</v>
+        <v>-44300</v>
       </c>
       <c r="F94" s="3">
-        <v>-235500</v>
+        <v>79300</v>
       </c>
       <c r="G94" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-236500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4600</v>
       </c>
-      <c r="H94" s="3">
-        <v>-226900</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-227900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-146000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-117600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-22200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-63700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-9500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>33500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-87300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,52 +5546,58 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-173800</v>
+        <v>-30300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-24000</v>
       </c>
       <c r="F100" s="3">
-        <v>-57700</v>
+        <v>-174500</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2600</v>
       </c>
-      <c r="H100" s="3">
-        <v>-133500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>713100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>404000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>273800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,110 +5605,128 @@
       <c r="S100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-800</v>
+        <v>-5800</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>-6900</v>
       </c>
       <c r="F101" s="3">
         <v>-800</v>
       </c>
       <c r="G101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-8400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27100</v>
+        <v>29000</v>
       </c>
       <c r="E102" s="3">
-        <v>28400</v>
+        <v>30400</v>
       </c>
       <c r="F102" s="3">
-        <v>-39300</v>
+        <v>27300</v>
       </c>
       <c r="G102" s="3">
-        <v>172700</v>
+        <v>28500</v>
       </c>
       <c r="H102" s="3">
-        <v>-143400</v>
+        <v>-39400</v>
       </c>
       <c r="I102" s="3">
+        <v>173400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="K102" s="3">
         <v>32000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-303400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-53600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-42400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>358400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>38500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>8100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>131100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>11600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>579800</v>
+        <v>592100</v>
       </c>
       <c r="E8" s="3">
-        <v>575500</v>
+        <v>587600</v>
       </c>
       <c r="F8" s="3">
-        <v>591000</v>
+        <v>603500</v>
       </c>
       <c r="G8" s="3">
-        <v>549100</v>
+        <v>560700</v>
       </c>
       <c r="H8" s="3">
-        <v>716200</v>
+        <v>731400</v>
       </c>
       <c r="I8" s="3">
-        <v>680100</v>
+        <v>694500</v>
       </c>
       <c r="J8" s="3">
-        <v>634400</v>
+        <v>647800</v>
       </c>
       <c r="K8" s="3">
         <v>566300</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>312100</v>
+        <v>318700</v>
       </c>
       <c r="E9" s="3">
-        <v>308700</v>
+        <v>315300</v>
       </c>
       <c r="F9" s="3">
-        <v>311100</v>
+        <v>317700</v>
       </c>
       <c r="G9" s="3">
-        <v>286800</v>
+        <v>292800</v>
       </c>
       <c r="H9" s="3">
-        <v>359200</v>
+        <v>366800</v>
       </c>
       <c r="I9" s="3">
-        <v>336600</v>
+        <v>343700</v>
       </c>
       <c r="J9" s="3">
-        <v>315300</v>
+        <v>322000</v>
       </c>
       <c r="K9" s="3">
         <v>285000</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>267700</v>
+        <v>273400</v>
       </c>
       <c r="E10" s="3">
-        <v>266700</v>
+        <v>272400</v>
       </c>
       <c r="F10" s="3">
-        <v>279900</v>
+        <v>285800</v>
       </c>
       <c r="G10" s="3">
-        <v>262400</v>
+        <v>267900</v>
       </c>
       <c r="H10" s="3">
-        <v>357000</v>
+        <v>364500</v>
       </c>
       <c r="I10" s="3">
-        <v>343500</v>
+        <v>350700</v>
       </c>
       <c r="J10" s="3">
-        <v>319100</v>
+        <v>325900</v>
       </c>
       <c r="K10" s="3">
         <v>281300</v>
@@ -955,25 +955,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50000</v>
+        <v>51100</v>
       </c>
       <c r="E12" s="3">
-        <v>45700</v>
+        <v>46700</v>
       </c>
       <c r="F12" s="3">
-        <v>42600</v>
+        <v>43500</v>
       </c>
       <c r="G12" s="3">
-        <v>40100</v>
+        <v>40900</v>
       </c>
       <c r="H12" s="3">
-        <v>44600</v>
+        <v>45600</v>
       </c>
       <c r="I12" s="3">
-        <v>46100</v>
+        <v>47100</v>
       </c>
       <c r="J12" s="3">
-        <v>38400</v>
+        <v>39300</v>
       </c>
       <c r="K12" s="3">
         <v>37900</v>
@@ -1072,8 +1072,8 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>489100</v>
+        <v>500200</v>
       </c>
       <c r="E17" s="3">
-        <v>494300</v>
+        <v>504800</v>
       </c>
       <c r="F17" s="3">
-        <v>466800</v>
+        <v>476700</v>
       </c>
       <c r="G17" s="3">
-        <v>459300</v>
+        <v>469000</v>
       </c>
       <c r="H17" s="3">
-        <v>525300</v>
+        <v>536400</v>
       </c>
       <c r="I17" s="3">
-        <v>530100</v>
+        <v>541300</v>
       </c>
       <c r="J17" s="3">
-        <v>492700</v>
+        <v>503100</v>
       </c>
       <c r="K17" s="3">
         <v>508500</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90700</v>
+        <v>91900</v>
       </c>
       <c r="E18" s="3">
-        <v>81100</v>
+        <v>82900</v>
       </c>
       <c r="F18" s="3">
-        <v>124200</v>
+        <v>126800</v>
       </c>
       <c r="G18" s="3">
-        <v>89800</v>
+        <v>91700</v>
       </c>
       <c r="H18" s="3">
-        <v>190900</v>
+        <v>194900</v>
       </c>
       <c r="I18" s="3">
-        <v>150000</v>
+        <v>153200</v>
       </c>
       <c r="J18" s="3">
-        <v>141700</v>
+        <v>144700</v>
       </c>
       <c r="K18" s="3">
         <v>57800</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16600</v>
+        <v>17600</v>
       </c>
       <c r="E20" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="F20" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="G20" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="H20" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I20" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="J20" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="K20" s="3">
         <v>14300</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>121500</v>
+        <v>124000</v>
       </c>
       <c r="E21" s="3">
-        <v>110600</v>
+        <v>112900</v>
       </c>
       <c r="F21" s="3">
-        <v>154900</v>
+        <v>158200</v>
       </c>
       <c r="G21" s="3">
-        <v>123900</v>
+        <v>126500</v>
       </c>
       <c r="H21" s="3">
-        <v>221400</v>
+        <v>226100</v>
       </c>
       <c r="I21" s="3">
-        <v>179900</v>
+        <v>183700</v>
       </c>
       <c r="J21" s="3">
-        <v>170400</v>
+        <v>174000</v>
       </c>
       <c r="K21" s="3">
         <v>85300</v>
@@ -1470,16 +1470,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F22" s="3">
         <v>3100</v>
       </c>
       <c r="G22" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H22" s="3">
         <v>3100</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>104300</v>
+        <v>106500</v>
       </c>
       <c r="E23" s="3">
-        <v>94000</v>
+        <v>96000</v>
       </c>
       <c r="F23" s="3">
-        <v>137700</v>
+        <v>140600</v>
       </c>
       <c r="G23" s="3">
-        <v>106800</v>
+        <v>109100</v>
       </c>
       <c r="H23" s="3">
-        <v>204300</v>
+        <v>208700</v>
       </c>
       <c r="I23" s="3">
-        <v>163000</v>
+        <v>166500</v>
       </c>
       <c r="J23" s="3">
-        <v>154100</v>
+        <v>157400</v>
       </c>
       <c r="K23" s="3">
         <v>69200</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
-        <v>21900</v>
+        <v>22400</v>
       </c>
       <c r="F24" s="3">
-        <v>67800</v>
+        <v>69200</v>
       </c>
       <c r="G24" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="H24" s="3">
-        <v>38800</v>
+        <v>39600</v>
       </c>
       <c r="I24" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="J24" s="3">
-        <v>43400</v>
+        <v>44300</v>
       </c>
       <c r="K24" s="3">
         <v>24900</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103500</v>
+        <v>105700</v>
       </c>
       <c r="E26" s="3">
-        <v>72100</v>
+        <v>73600</v>
       </c>
       <c r="F26" s="3">
-        <v>69900</v>
+        <v>71400</v>
       </c>
       <c r="G26" s="3">
-        <v>81900</v>
+        <v>83700</v>
       </c>
       <c r="H26" s="3">
-        <v>165600</v>
+        <v>169100</v>
       </c>
       <c r="I26" s="3">
-        <v>135100</v>
+        <v>138000</v>
       </c>
       <c r="J26" s="3">
-        <v>110700</v>
+        <v>113100</v>
       </c>
       <c r="K26" s="3">
         <v>44300</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>99500</v>
+        <v>101600</v>
       </c>
       <c r="E27" s="3">
-        <v>69800</v>
+        <v>71300</v>
       </c>
       <c r="F27" s="3">
-        <v>69700</v>
+        <v>71200</v>
       </c>
       <c r="G27" s="3">
-        <v>82300</v>
+        <v>84100</v>
       </c>
       <c r="H27" s="3">
-        <v>161300</v>
+        <v>164700</v>
       </c>
       <c r="I27" s="3">
-        <v>136600</v>
+        <v>139500</v>
       </c>
       <c r="J27" s="3">
-        <v>111800</v>
+        <v>114200</v>
       </c>
       <c r="K27" s="3">
         <v>44000</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16600</v>
+        <v>-17600</v>
       </c>
       <c r="E32" s="3">
-        <v>-15900</v>
+        <v>-16300</v>
       </c>
       <c r="F32" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="G32" s="3">
-        <v>-20000</v>
+        <v>-20400</v>
       </c>
       <c r="H32" s="3">
-        <v>-16500</v>
+        <v>-16900</v>
       </c>
       <c r="I32" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="J32" s="3">
-        <v>-15300</v>
+        <v>-15600</v>
       </c>
       <c r="K32" s="3">
         <v>-14300</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>99500</v>
+        <v>101600</v>
       </c>
       <c r="E33" s="3">
-        <v>69800</v>
+        <v>71300</v>
       </c>
       <c r="F33" s="3">
-        <v>69700</v>
+        <v>71200</v>
       </c>
       <c r="G33" s="3">
-        <v>82300</v>
+        <v>84100</v>
       </c>
       <c r="H33" s="3">
-        <v>161300</v>
+        <v>164700</v>
       </c>
       <c r="I33" s="3">
-        <v>136600</v>
+        <v>139500</v>
       </c>
       <c r="J33" s="3">
-        <v>111800</v>
+        <v>114200</v>
       </c>
       <c r="K33" s="3">
         <v>44000</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>99500</v>
+        <v>101600</v>
       </c>
       <c r="E35" s="3">
-        <v>69800</v>
+        <v>71300</v>
       </c>
       <c r="F35" s="3">
-        <v>69700</v>
+        <v>71200</v>
       </c>
       <c r="G35" s="3">
-        <v>82300</v>
+        <v>84100</v>
       </c>
       <c r="H35" s="3">
-        <v>161300</v>
+        <v>164700</v>
       </c>
       <c r="I35" s="3">
-        <v>136600</v>
+        <v>139500</v>
       </c>
       <c r="J35" s="3">
-        <v>111800</v>
+        <v>114200</v>
       </c>
       <c r="K35" s="3">
         <v>44000</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>513900</v>
+        <v>524800</v>
       </c>
       <c r="E41" s="3">
-        <v>485300</v>
+        <v>495600</v>
       </c>
       <c r="F41" s="3">
-        <v>454900</v>
+        <v>464500</v>
       </c>
       <c r="G41" s="3">
-        <v>427700</v>
+        <v>436700</v>
       </c>
       <c r="H41" s="3">
-        <v>399200</v>
+        <v>407600</v>
       </c>
       <c r="I41" s="3">
-        <v>438600</v>
+        <v>447900</v>
       </c>
       <c r="J41" s="3">
-        <v>265200</v>
+        <v>270800</v>
       </c>
       <c r="K41" s="3">
         <v>407400</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1156000</v>
+        <v>1180400</v>
       </c>
       <c r="E42" s="3">
-        <v>1212700</v>
+        <v>1238400</v>
       </c>
       <c r="F42" s="3">
-        <v>1420700</v>
+        <v>1450700</v>
       </c>
       <c r="G42" s="3">
-        <v>1935400</v>
+        <v>1976300</v>
       </c>
       <c r="H42" s="3">
-        <v>1881100</v>
+        <v>1920900</v>
       </c>
       <c r="I42" s="3">
-        <v>1649900</v>
+        <v>1684800</v>
       </c>
       <c r="J42" s="3">
-        <v>1643000</v>
+        <v>1677700</v>
       </c>
       <c r="K42" s="3">
         <v>1420400</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30700</v>
+        <v>31300</v>
       </c>
       <c r="E43" s="3">
-        <v>35700</v>
+        <v>36400</v>
       </c>
       <c r="F43" s="3">
-        <v>39200</v>
+        <v>40100</v>
       </c>
       <c r="G43" s="3">
-        <v>45500</v>
+        <v>46500</v>
       </c>
       <c r="H43" s="3">
-        <v>41200</v>
+        <v>42100</v>
       </c>
       <c r="I43" s="3">
-        <v>57600</v>
+        <v>58800</v>
       </c>
       <c r="J43" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="K43" s="3">
         <v>47200</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94100</v>
+        <v>96100</v>
       </c>
       <c r="E45" s="3">
-        <v>112800</v>
+        <v>115200</v>
       </c>
       <c r="F45" s="3">
-        <v>84800</v>
+        <v>86600</v>
       </c>
       <c r="G45" s="3">
-        <v>91400</v>
+        <v>93400</v>
       </c>
       <c r="H45" s="3">
-        <v>91500</v>
+        <v>93400</v>
       </c>
       <c r="I45" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="J45" s="3">
-        <v>95800</v>
+        <v>97800</v>
       </c>
       <c r="K45" s="3">
         <v>92800</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1794700</v>
+        <v>1832600</v>
       </c>
       <c r="E46" s="3">
-        <v>1846500</v>
+        <v>1885500</v>
       </c>
       <c r="F46" s="3">
-        <v>1999600</v>
+        <v>2041900</v>
       </c>
       <c r="G46" s="3">
-        <v>2500000</v>
+        <v>2552900</v>
       </c>
       <c r="H46" s="3">
-        <v>2413000</v>
+        <v>2464000</v>
       </c>
       <c r="I46" s="3">
-        <v>2245400</v>
+        <v>2292800</v>
       </c>
       <c r="J46" s="3">
-        <v>2046100</v>
+        <v>2089300</v>
       </c>
       <c r="K46" s="3">
         <v>1967800</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69500</v>
+        <v>71000</v>
       </c>
       <c r="E47" s="3">
-        <v>72800</v>
+        <v>74400</v>
       </c>
       <c r="F47" s="3">
-        <v>75300</v>
+        <v>76800</v>
       </c>
       <c r="G47" s="3">
-        <v>75600</v>
+        <v>77200</v>
       </c>
       <c r="H47" s="3">
-        <v>75800</v>
+        <v>77400</v>
       </c>
       <c r="I47" s="3">
-        <v>77300</v>
+        <v>78900</v>
       </c>
       <c r="J47" s="3">
-        <v>72900</v>
+        <v>74400</v>
       </c>
       <c r="K47" s="3">
         <v>69700</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83100</v>
+        <v>84900</v>
       </c>
       <c r="E48" s="3">
-        <v>63800</v>
+        <v>65100</v>
       </c>
       <c r="F48" s="3">
-        <v>72100</v>
+        <v>73700</v>
       </c>
       <c r="G48" s="3">
-        <v>76900</v>
+        <v>78500</v>
       </c>
       <c r="H48" s="3">
-        <v>82000</v>
+        <v>83800</v>
       </c>
       <c r="I48" s="3">
-        <v>89100</v>
+        <v>91000</v>
       </c>
       <c r="J48" s="3">
-        <v>86000</v>
+        <v>87800</v>
       </c>
       <c r="K48" s="3">
         <v>81800</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>729600</v>
+        <v>745000</v>
       </c>
       <c r="E49" s="3">
-        <v>764800</v>
+        <v>780900</v>
       </c>
       <c r="F49" s="3">
-        <v>801600</v>
+        <v>818600</v>
       </c>
       <c r="G49" s="3">
-        <v>809500</v>
+        <v>826600</v>
       </c>
       <c r="H49" s="3">
-        <v>802200</v>
+        <v>819200</v>
       </c>
       <c r="I49" s="3">
-        <v>829700</v>
+        <v>847200</v>
       </c>
       <c r="J49" s="3">
-        <v>803200</v>
+        <v>820200</v>
       </c>
       <c r="K49" s="3">
         <v>787900</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>870700</v>
+        <v>889100</v>
       </c>
       <c r="E52" s="3">
-        <v>733900</v>
+        <v>749400</v>
       </c>
       <c r="F52" s="3">
-        <v>493700</v>
+        <v>504100</v>
       </c>
       <c r="G52" s="3">
-        <v>63600</v>
+        <v>64900</v>
       </c>
       <c r="H52" s="3">
-        <v>62000</v>
+        <v>63400</v>
       </c>
       <c r="I52" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="J52" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="K52" s="3">
         <v>15500</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3547600</v>
+        <v>3622600</v>
       </c>
       <c r="E54" s="3">
-        <v>3481800</v>
+        <v>3555400</v>
       </c>
       <c r="F54" s="3">
-        <v>3442300</v>
+        <v>3515100</v>
       </c>
       <c r="G54" s="3">
-        <v>3525600</v>
+        <v>3600100</v>
       </c>
       <c r="H54" s="3">
-        <v>3435100</v>
+        <v>3507700</v>
       </c>
       <c r="I54" s="3">
-        <v>3252700</v>
+        <v>3321500</v>
       </c>
       <c r="J54" s="3">
-        <v>3019900</v>
+        <v>3083700</v>
       </c>
       <c r="K54" s="3">
         <v>2922800</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>106900</v>
+        <v>109100</v>
       </c>
       <c r="E57" s="3">
-        <v>96900</v>
+        <v>98900</v>
       </c>
       <c r="F57" s="3">
-        <v>105900</v>
+        <v>108100</v>
       </c>
       <c r="G57" s="3">
-        <v>97100</v>
+        <v>99200</v>
       </c>
       <c r="H57" s="3">
-        <v>109100</v>
+        <v>111400</v>
       </c>
       <c r="I57" s="3">
-        <v>94400</v>
+        <v>96400</v>
       </c>
       <c r="J57" s="3">
-        <v>119000</v>
+        <v>121500</v>
       </c>
       <c r="K57" s="3">
         <v>109700</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>277700</v>
+        <v>283500</v>
       </c>
       <c r="E59" s="3">
-        <v>285100</v>
+        <v>291100</v>
       </c>
       <c r="F59" s="3">
-        <v>257100</v>
+        <v>262500</v>
       </c>
       <c r="G59" s="3">
-        <v>437400</v>
+        <v>446600</v>
       </c>
       <c r="H59" s="3">
-        <v>289100</v>
+        <v>295200</v>
       </c>
       <c r="I59" s="3">
-        <v>271000</v>
+        <v>276800</v>
       </c>
       <c r="J59" s="3">
-        <v>220300</v>
+        <v>224900</v>
       </c>
       <c r="K59" s="3">
         <v>354400</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>384500</v>
+        <v>392600</v>
       </c>
       <c r="E60" s="3">
-        <v>382000</v>
+        <v>390100</v>
       </c>
       <c r="F60" s="3">
-        <v>362900</v>
+        <v>370600</v>
       </c>
       <c r="G60" s="3">
-        <v>534500</v>
+        <v>545800</v>
       </c>
       <c r="H60" s="3">
-        <v>398300</v>
+        <v>406700</v>
       </c>
       <c r="I60" s="3">
-        <v>365500</v>
+        <v>373200</v>
       </c>
       <c r="J60" s="3">
-        <v>339200</v>
+        <v>346400</v>
       </c>
       <c r="K60" s="3">
         <v>464000</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>711800</v>
+        <v>726800</v>
       </c>
       <c r="E61" s="3">
-        <v>740000</v>
+        <v>755700</v>
       </c>
       <c r="F61" s="3">
-        <v>769400</v>
+        <v>785700</v>
       </c>
       <c r="G61" s="3">
-        <v>770500</v>
+        <v>786800</v>
       </c>
       <c r="H61" s="3">
-        <v>756900</v>
+        <v>772900</v>
       </c>
       <c r="I61" s="3">
-        <v>776500</v>
+        <v>792900</v>
       </c>
       <c r="J61" s="3">
-        <v>745100</v>
+        <v>760900</v>
       </c>
       <c r="K61" s="3">
         <v>724700</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>184800</v>
+        <v>188700</v>
       </c>
       <c r="E62" s="3">
-        <v>175400</v>
+        <v>179100</v>
       </c>
       <c r="F62" s="3">
-        <v>182800</v>
+        <v>186700</v>
       </c>
       <c r="G62" s="3">
-        <v>188100</v>
+        <v>192100</v>
       </c>
       <c r="H62" s="3">
-        <v>183900</v>
+        <v>187800</v>
       </c>
       <c r="I62" s="3">
-        <v>194400</v>
+        <v>198500</v>
       </c>
       <c r="J62" s="3">
-        <v>189800</v>
+        <v>193800</v>
       </c>
       <c r="K62" s="3">
         <v>137400</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1281100</v>
+        <v>1338800</v>
       </c>
       <c r="E66" s="3">
-        <v>1297400</v>
+        <v>1324900</v>
       </c>
       <c r="F66" s="3">
-        <v>1315200</v>
+        <v>1343000</v>
       </c>
       <c r="G66" s="3">
-        <v>1493100</v>
+        <v>1524600</v>
       </c>
       <c r="H66" s="3">
-        <v>1339100</v>
+        <v>1367400</v>
       </c>
       <c r="I66" s="3">
-        <v>1336400</v>
+        <v>1364600</v>
       </c>
       <c r="J66" s="3">
-        <v>1274200</v>
+        <v>1301100</v>
       </c>
       <c r="K66" s="3">
         <v>1326200</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>1317400</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2266500</v>
+        <v>2283800</v>
       </c>
       <c r="E76" s="3">
-        <v>2184300</v>
+        <v>2230500</v>
       </c>
       <c r="F76" s="3">
-        <v>2127100</v>
+        <v>2172100</v>
       </c>
       <c r="G76" s="3">
-        <v>2032500</v>
+        <v>2075500</v>
       </c>
       <c r="H76" s="3">
-        <v>2096000</v>
+        <v>2140300</v>
       </c>
       <c r="I76" s="3">
-        <v>1916400</v>
+        <v>1956900</v>
       </c>
       <c r="J76" s="3">
-        <v>1745700</v>
+        <v>1782600</v>
       </c>
       <c r="K76" s="3">
         <v>1596500</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>99500</v>
+        <v>101600</v>
       </c>
       <c r="E81" s="3">
-        <v>69800</v>
+        <v>71300</v>
       </c>
       <c r="F81" s="3">
-        <v>69700</v>
+        <v>71200</v>
       </c>
       <c r="G81" s="3">
-        <v>82300</v>
+        <v>84100</v>
       </c>
       <c r="H81" s="3">
-        <v>161300</v>
+        <v>164700</v>
       </c>
       <c r="I81" s="3">
-        <v>136600</v>
+        <v>139500</v>
       </c>
       <c r="J81" s="3">
-        <v>111800</v>
+        <v>114200</v>
       </c>
       <c r="K81" s="3">
         <v>44000</v>
@@ -4627,25 +4627,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="E83" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="F83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I83" s="3">
         <v>14100</v>
       </c>
-      <c r="G83" s="3">
-        <v>14100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>13800</v>
-      </c>
       <c r="J83" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="K83" s="3">
         <v>13200</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>158800</v>
+        <v>162100</v>
       </c>
       <c r="E89" s="3">
-        <v>105600</v>
+        <v>107800</v>
       </c>
       <c r="F89" s="3">
-        <v>123300</v>
+        <v>125900</v>
       </c>
       <c r="G89" s="3">
-        <v>83000</v>
+        <v>84800</v>
       </c>
       <c r="H89" s="3">
-        <v>255900</v>
+        <v>261300</v>
       </c>
       <c r="I89" s="3">
-        <v>179700</v>
+        <v>183500</v>
       </c>
       <c r="J89" s="3">
-        <v>217200</v>
+        <v>221800</v>
       </c>
       <c r="K89" s="3">
         <v>178900</v>
@@ -5066,22 +5066,22 @@
         <v>-2500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="F91" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="G91" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I91" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="J91" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="K91" s="3">
         <v>-8000</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-93700</v>
+        <v>-95600</v>
       </c>
       <c r="E94" s="3">
-        <v>-44300</v>
+        <v>-45200</v>
       </c>
       <c r="F94" s="3">
-        <v>79300</v>
+        <v>80900</v>
       </c>
       <c r="G94" s="3">
-        <v>-55700</v>
+        <v>-56800</v>
       </c>
       <c r="H94" s="3">
-        <v>-236500</v>
+        <v>-241500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="J94" s="3">
-        <v>-227900</v>
+        <v>-232700</v>
       </c>
       <c r="K94" s="3">
         <v>-146000</v>
@@ -5558,25 +5558,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-30300</v>
+        <v>-31000</v>
       </c>
       <c r="E100" s="3">
-        <v>-24000</v>
+        <v>-24500</v>
       </c>
       <c r="F100" s="3">
-        <v>-174500</v>
+        <v>-178200</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-58000</v>
+        <v>-59200</v>
       </c>
       <c r="I100" s="3">
         <v>-2600</v>
       </c>
       <c r="J100" s="3">
-        <v>-134000</v>
+        <v>-136900</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5617,10 +5617,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="F101" s="3">
         <v>-800</v>
@@ -5629,10 +5629,10 @@
         <v>1100</v>
       </c>
       <c r="H101" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="I101" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="E102" s="3">
-        <v>30400</v>
+        <v>31000</v>
       </c>
       <c r="F102" s="3">
-        <v>27300</v>
+        <v>27800</v>
       </c>
       <c r="G102" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="H102" s="3">
-        <v>-39400</v>
+        <v>-40300</v>
       </c>
       <c r="I102" s="3">
-        <v>173400</v>
+        <v>177100</v>
       </c>
       <c r="J102" s="3">
-        <v>-144000</v>
+        <v>-147100</v>
       </c>
       <c r="K102" s="3">
         <v>32000</v>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>592100</v>
+        <v>534400</v>
       </c>
       <c r="E8" s="3">
-        <v>587600</v>
+        <v>584400</v>
       </c>
       <c r="F8" s="3">
-        <v>603500</v>
+        <v>580000</v>
       </c>
       <c r="G8" s="3">
-        <v>560700</v>
+        <v>595600</v>
       </c>
       <c r="H8" s="3">
-        <v>731400</v>
+        <v>553400</v>
       </c>
       <c r="I8" s="3">
-        <v>694500</v>
+        <v>721800</v>
       </c>
       <c r="J8" s="3">
+        <v>685500</v>
+      </c>
+      <c r="K8" s="3">
         <v>647800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>566300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2039700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>529700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>452300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>396600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>379200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>939700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>46300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>265200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>246100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>318700</v>
+        <v>298500</v>
       </c>
       <c r="E9" s="3">
-        <v>315300</v>
+        <v>314500</v>
       </c>
       <c r="F9" s="3">
-        <v>317700</v>
+        <v>311200</v>
       </c>
       <c r="G9" s="3">
-        <v>292800</v>
+        <v>313600</v>
       </c>
       <c r="H9" s="3">
-        <v>366800</v>
+        <v>289000</v>
       </c>
       <c r="I9" s="3">
-        <v>343700</v>
+        <v>362100</v>
       </c>
       <c r="J9" s="3">
+        <v>339300</v>
+      </c>
+      <c r="K9" s="3">
         <v>322000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>285000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1092700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>295100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>246800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>191100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>196500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>452600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>120400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>110200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>273400</v>
+        <v>236000</v>
       </c>
       <c r="E10" s="3">
-        <v>272400</v>
+        <v>269800</v>
       </c>
       <c r="F10" s="3">
-        <v>285800</v>
+        <v>268800</v>
       </c>
       <c r="G10" s="3">
-        <v>267900</v>
+        <v>282100</v>
       </c>
       <c r="H10" s="3">
-        <v>364500</v>
+        <v>264400</v>
       </c>
       <c r="I10" s="3">
-        <v>350700</v>
+        <v>359800</v>
       </c>
       <c r="J10" s="3">
+        <v>346200</v>
+      </c>
+      <c r="K10" s="3">
         <v>325900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>281300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>947000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>234700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>205500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>205600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>182700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>487100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>144800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>135900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>51100</v>
+        <v>44100</v>
       </c>
       <c r="E12" s="3">
-        <v>46700</v>
+        <v>50400</v>
       </c>
       <c r="F12" s="3">
-        <v>43500</v>
+        <v>46100</v>
       </c>
       <c r="G12" s="3">
-        <v>40900</v>
+        <v>43000</v>
       </c>
       <c r="H12" s="3">
-        <v>45600</v>
+        <v>40400</v>
       </c>
       <c r="I12" s="3">
-        <v>47100</v>
+        <v>45000</v>
       </c>
       <c r="J12" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K12" s="3">
         <v>39300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>37900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>115700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>35700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>33000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,41 +1084,44 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1112,22 +1132,25 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5500</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500200</v>
+        <v>461600</v>
       </c>
       <c r="E17" s="3">
-        <v>504800</v>
+        <v>493700</v>
       </c>
       <c r="F17" s="3">
-        <v>476700</v>
+        <v>498200</v>
       </c>
       <c r="G17" s="3">
-        <v>469000</v>
+        <v>470500</v>
       </c>
       <c r="H17" s="3">
-        <v>536400</v>
+        <v>462900</v>
       </c>
       <c r="I17" s="3">
-        <v>541300</v>
+        <v>529500</v>
       </c>
       <c r="J17" s="3">
+        <v>534300</v>
+      </c>
+      <c r="K17" s="3">
         <v>503100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>508500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1549400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>436200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>323800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>262200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>274100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>687900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>174200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>163200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>91900</v>
+        <v>72800</v>
       </c>
       <c r="E18" s="3">
+        <v>90700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>81800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>125100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>90600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>192400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>151200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>144700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>57800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>490300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>93500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>128500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>134500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>105100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>251700</v>
+      </c>
+      <c r="S18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>91000</v>
+      </c>
+      <c r="U18" s="3">
         <v>82900</v>
       </c>
-      <c r="F18" s="3">
-        <v>126800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>91700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>194900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>153200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>144700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>57800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>490300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>93500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>128500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>134500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>105100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>251700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>10300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>91000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>82900</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,134 +1379,141 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17600</v>
+        <v>14900</v>
       </c>
       <c r="E20" s="3">
-        <v>16300</v>
+        <v>17400</v>
       </c>
       <c r="F20" s="3">
-        <v>16900</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="3">
-        <v>20400</v>
+        <v>16700</v>
       </c>
       <c r="H20" s="3">
-        <v>16900</v>
+        <v>20100</v>
       </c>
       <c r="I20" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="J20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K20" s="3">
         <v>15600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>124000</v>
+        <v>99900</v>
       </c>
       <c r="E21" s="3">
-        <v>112900</v>
+        <v>122400</v>
       </c>
       <c r="F21" s="3">
-        <v>158200</v>
+        <v>111400</v>
       </c>
       <c r="G21" s="3">
-        <v>126500</v>
+        <v>156100</v>
       </c>
       <c r="H21" s="3">
-        <v>226100</v>
+        <v>124900</v>
       </c>
       <c r="I21" s="3">
-        <v>183700</v>
+        <v>223200</v>
       </c>
       <c r="J21" s="3">
+        <v>181300</v>
+      </c>
+      <c r="K21" s="3">
         <v>174000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>85300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>568500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>116900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>143000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>146000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>123400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>267500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>96900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>87800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F22" s="3">
         <v>3100</v>
@@ -1488,31 +1528,31 @@
         <v>3100</v>
       </c>
       <c r="J22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>10</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>10</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>106500</v>
+        <v>84900</v>
       </c>
       <c r="E23" s="3">
-        <v>96000</v>
+        <v>105200</v>
       </c>
       <c r="F23" s="3">
-        <v>140600</v>
+        <v>94800</v>
       </c>
       <c r="G23" s="3">
-        <v>109100</v>
+        <v>138800</v>
       </c>
       <c r="H23" s="3">
-        <v>208700</v>
+        <v>107600</v>
       </c>
       <c r="I23" s="3">
-        <v>166500</v>
+        <v>205900</v>
       </c>
       <c r="J23" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K23" s="3">
         <v>157400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>523200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>102000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>134300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>141300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>112200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>266200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>94800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>85600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>900</v>
+        <v>14100</v>
       </c>
       <c r="E24" s="3">
-        <v>22400</v>
+        <v>800</v>
       </c>
       <c r="F24" s="3">
-        <v>69200</v>
+        <v>22100</v>
       </c>
       <c r="G24" s="3">
-        <v>25400</v>
+        <v>68300</v>
       </c>
       <c r="H24" s="3">
-        <v>39600</v>
+        <v>25100</v>
       </c>
       <c r="I24" s="3">
+        <v>39100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>44300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>24900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>106400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>21300</v>
+      </c>
+      <c r="O24" s="3">
         <v>28500</v>
       </c>
-      <c r="J24" s="3">
-        <v>44300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>24900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>106400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>21300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>28500</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>47300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105700</v>
+        <v>70800</v>
       </c>
       <c r="E26" s="3">
-        <v>73600</v>
+        <v>104300</v>
       </c>
       <c r="F26" s="3">
-        <v>71400</v>
+        <v>72600</v>
       </c>
       <c r="G26" s="3">
-        <v>83700</v>
+        <v>70400</v>
       </c>
       <c r="H26" s="3">
-        <v>169100</v>
+        <v>82600</v>
       </c>
       <c r="I26" s="3">
-        <v>138000</v>
+        <v>166900</v>
       </c>
       <c r="J26" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K26" s="3">
         <v>113100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>416800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>105800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>116800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>218900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>79000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>82500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>101600</v>
+        <v>71100</v>
       </c>
       <c r="E27" s="3">
-        <v>71300</v>
+        <v>100300</v>
       </c>
       <c r="F27" s="3">
-        <v>71200</v>
+        <v>70300</v>
       </c>
       <c r="G27" s="3">
-        <v>84100</v>
+        <v>70300</v>
       </c>
       <c r="H27" s="3">
-        <v>164700</v>
+        <v>83000</v>
       </c>
       <c r="I27" s="3">
-        <v>139500</v>
+        <v>162600</v>
       </c>
       <c r="J27" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K27" s="3">
         <v>114200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>428300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>84200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>118400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>95700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>223100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>81200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>80600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17600</v>
+        <v>-14900</v>
       </c>
       <c r="E32" s="3">
-        <v>-16300</v>
+        <v>-17400</v>
       </c>
       <c r="F32" s="3">
-        <v>-16900</v>
+        <v>-16000</v>
       </c>
       <c r="G32" s="3">
-        <v>-20400</v>
+        <v>-16700</v>
       </c>
       <c r="H32" s="3">
-        <v>-16900</v>
+        <v>-20100</v>
       </c>
       <c r="I32" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="J32" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101600</v>
+        <v>71100</v>
       </c>
       <c r="E33" s="3">
-        <v>71300</v>
+        <v>100300</v>
       </c>
       <c r="F33" s="3">
-        <v>71200</v>
+        <v>70300</v>
       </c>
       <c r="G33" s="3">
-        <v>84100</v>
+        <v>70300</v>
       </c>
       <c r="H33" s="3">
-        <v>164700</v>
+        <v>83000</v>
       </c>
       <c r="I33" s="3">
-        <v>139500</v>
+        <v>162600</v>
       </c>
       <c r="J33" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K33" s="3">
         <v>114200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>428300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>84200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>118400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>95700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>223100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>81200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>80600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101600</v>
+        <v>71100</v>
       </c>
       <c r="E35" s="3">
-        <v>71300</v>
+        <v>100300</v>
       </c>
       <c r="F35" s="3">
-        <v>71200</v>
+        <v>70300</v>
       </c>
       <c r="G35" s="3">
-        <v>84100</v>
+        <v>70300</v>
       </c>
       <c r="H35" s="3">
-        <v>164700</v>
+        <v>83000</v>
       </c>
       <c r="I35" s="3">
-        <v>139500</v>
+        <v>162600</v>
       </c>
       <c r="J35" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K35" s="3">
         <v>114200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>428300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>84200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>118400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>95700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>223100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>81200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>80600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>524800</v>
+        <v>537500</v>
       </c>
       <c r="E41" s="3">
-        <v>495600</v>
+        <v>518000</v>
       </c>
       <c r="F41" s="3">
-        <v>464500</v>
+        <v>489100</v>
       </c>
       <c r="G41" s="3">
-        <v>436700</v>
+        <v>458500</v>
       </c>
       <c r="H41" s="3">
-        <v>407600</v>
+        <v>431000</v>
       </c>
       <c r="I41" s="3">
-        <v>447900</v>
+        <v>402300</v>
       </c>
       <c r="J41" s="3">
+        <v>442100</v>
+      </c>
+      <c r="K41" s="3">
         <v>270800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>407400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>375400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>662200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>76700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>65800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>388700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>257600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1180400</v>
+        <v>1218500</v>
       </c>
       <c r="E42" s="3">
-        <v>1238400</v>
+        <v>1165100</v>
       </c>
       <c r="F42" s="3">
-        <v>1450700</v>
+        <v>1222200</v>
       </c>
       <c r="G42" s="3">
-        <v>1976300</v>
+        <v>1431800</v>
       </c>
       <c r="H42" s="3">
-        <v>1920900</v>
+        <v>1950600</v>
       </c>
       <c r="I42" s="3">
-        <v>1684800</v>
+        <v>1895900</v>
       </c>
       <c r="J42" s="3">
+        <v>1662800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1677700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1420400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1342400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>174200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>59700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>83100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>362500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>64400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>59800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>351200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>393800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31300</v>
+        <v>32000</v>
       </c>
       <c r="E43" s="3">
-        <v>36400</v>
+        <v>30900</v>
       </c>
       <c r="F43" s="3">
-        <v>40100</v>
+        <v>35900</v>
       </c>
       <c r="G43" s="3">
-        <v>46500</v>
+        <v>39500</v>
       </c>
       <c r="H43" s="3">
-        <v>42100</v>
+        <v>45900</v>
       </c>
       <c r="I43" s="3">
-        <v>58800</v>
+        <v>41500</v>
       </c>
       <c r="J43" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K43" s="3">
         <v>43000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>49100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>36200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,303 +2732,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>96100</v>
+        <v>107800</v>
       </c>
       <c r="E45" s="3">
-        <v>115200</v>
+        <v>94800</v>
       </c>
       <c r="F45" s="3">
-        <v>86600</v>
+        <v>113700</v>
       </c>
       <c r="G45" s="3">
-        <v>93400</v>
+        <v>85400</v>
       </c>
       <c r="H45" s="3">
-        <v>93400</v>
+        <v>92200</v>
       </c>
       <c r="I45" s="3">
-        <v>101300</v>
+        <v>92200</v>
       </c>
       <c r="J45" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K45" s="3">
         <v>97800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>92800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>94500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>79900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>37400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1832600</v>
+        <v>1895800</v>
       </c>
       <c r="E46" s="3">
-        <v>1885500</v>
+        <v>1808800</v>
       </c>
       <c r="F46" s="3">
-        <v>2041900</v>
+        <v>1861000</v>
       </c>
       <c r="G46" s="3">
-        <v>2552900</v>
+        <v>2015300</v>
       </c>
       <c r="H46" s="3">
-        <v>2464000</v>
+        <v>2519700</v>
       </c>
       <c r="I46" s="3">
-        <v>2292800</v>
+        <v>2431900</v>
       </c>
       <c r="J46" s="3">
+        <v>2263000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2089300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1967800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1921800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>243700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>169900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>155400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1147800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>154600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>138200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>810200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>720200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71000</v>
+        <v>68200</v>
       </c>
       <c r="E47" s="3">
+        <v>70100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>73400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>75800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>76200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>76400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>77900</v>
+      </c>
+      <c r="K47" s="3">
         <v>74400</v>
       </c>
-      <c r="F47" s="3">
-        <v>76800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>77200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>77400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>78900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>74400</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>69700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>68100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84900</v>
+        <v>78500</v>
       </c>
       <c r="E48" s="3">
-        <v>65100</v>
+        <v>83800</v>
       </c>
       <c r="F48" s="3">
-        <v>73700</v>
+        <v>64300</v>
       </c>
       <c r="G48" s="3">
-        <v>78500</v>
+        <v>72700</v>
       </c>
       <c r="H48" s="3">
-        <v>83800</v>
+        <v>77500</v>
       </c>
       <c r="I48" s="3">
-        <v>91000</v>
+        <v>82700</v>
       </c>
       <c r="J48" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K48" s="3">
         <v>87800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>745000</v>
+        <v>732600</v>
       </c>
       <c r="E49" s="3">
-        <v>780900</v>
+        <v>735300</v>
       </c>
       <c r="F49" s="3">
-        <v>818600</v>
+        <v>770800</v>
       </c>
       <c r="G49" s="3">
-        <v>826600</v>
+        <v>807900</v>
       </c>
       <c r="H49" s="3">
-        <v>819200</v>
+        <v>815900</v>
       </c>
       <c r="I49" s="3">
-        <v>847200</v>
+        <v>808500</v>
       </c>
       <c r="J49" s="3">
+        <v>836200</v>
+      </c>
+      <c r="K49" s="3">
         <v>820200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>787900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>812900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>113700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>113200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10500</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1100</v>
       </c>
       <c r="R49" s="3">
         <v>1100</v>
       </c>
       <c r="S49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T49" s="3">
         <v>7300</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>889100</v>
+        <v>878100</v>
       </c>
       <c r="E52" s="3">
-        <v>749400</v>
+        <v>877600</v>
       </c>
       <c r="F52" s="3">
-        <v>504100</v>
+        <v>739600</v>
       </c>
       <c r="G52" s="3">
-        <v>64900</v>
+        <v>497600</v>
       </c>
       <c r="H52" s="3">
-        <v>63400</v>
+        <v>64100</v>
       </c>
       <c r="I52" s="3">
-        <v>11600</v>
+        <v>62500</v>
       </c>
       <c r="J52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K52" s="3">
         <v>12000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3622600</v>
+        <v>3653200</v>
       </c>
       <c r="E54" s="3">
-        <v>3555400</v>
+        <v>3575500</v>
       </c>
       <c r="F54" s="3">
-        <v>3515100</v>
+        <v>3509100</v>
       </c>
       <c r="G54" s="3">
-        <v>3600100</v>
+        <v>3469300</v>
       </c>
       <c r="H54" s="3">
-        <v>3507700</v>
+        <v>3553300</v>
       </c>
       <c r="I54" s="3">
-        <v>3321500</v>
+        <v>3462000</v>
       </c>
       <c r="J54" s="3">
+        <v>3278300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3083700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2922800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2885000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>376600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>301800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>207300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1257200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>166700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>148400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>875600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>769700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>109100</v>
+        <v>107600</v>
       </c>
       <c r="E57" s="3">
-        <v>98900</v>
+        <v>107700</v>
       </c>
       <c r="F57" s="3">
-        <v>108100</v>
+        <v>97700</v>
       </c>
       <c r="G57" s="3">
-        <v>99200</v>
+        <v>106700</v>
       </c>
       <c r="H57" s="3">
-        <v>111400</v>
+        <v>97900</v>
       </c>
       <c r="I57" s="3">
-        <v>96400</v>
+        <v>110000</v>
       </c>
       <c r="J57" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K57" s="3">
         <v>121500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>109700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>109300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>72000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,165 +3524,174 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>283500</v>
+        <v>393600</v>
       </c>
       <c r="E59" s="3">
-        <v>291100</v>
+        <v>279800</v>
       </c>
       <c r="F59" s="3">
-        <v>262500</v>
+        <v>287300</v>
       </c>
       <c r="G59" s="3">
-        <v>446600</v>
+        <v>259100</v>
       </c>
       <c r="H59" s="3">
-        <v>295200</v>
+        <v>440800</v>
       </c>
       <c r="I59" s="3">
-        <v>276800</v>
+        <v>291400</v>
       </c>
       <c r="J59" s="3">
+        <v>273200</v>
+      </c>
+      <c r="K59" s="3">
         <v>224900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>354400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>96400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>93200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>392600</v>
+        <v>501200</v>
       </c>
       <c r="E60" s="3">
-        <v>390100</v>
+        <v>387500</v>
       </c>
       <c r="F60" s="3">
-        <v>370600</v>
+        <v>385000</v>
       </c>
       <c r="G60" s="3">
-        <v>545800</v>
+        <v>365800</v>
       </c>
       <c r="H60" s="3">
-        <v>406700</v>
+        <v>538700</v>
       </c>
       <c r="I60" s="3">
-        <v>373200</v>
+        <v>401400</v>
       </c>
       <c r="J60" s="3">
+        <v>368300</v>
+      </c>
+      <c r="K60" s="3">
         <v>346400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>464000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>410200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>251100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>30900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>143500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>133700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>726800</v>
+        <v>720900</v>
       </c>
       <c r="E61" s="3">
-        <v>755700</v>
+        <v>717400</v>
       </c>
       <c r="F61" s="3">
-        <v>785700</v>
+        <v>745800</v>
       </c>
       <c r="G61" s="3">
-        <v>786800</v>
+        <v>775400</v>
       </c>
       <c r="H61" s="3">
-        <v>772900</v>
+        <v>776500</v>
       </c>
       <c r="I61" s="3">
-        <v>792900</v>
+        <v>762900</v>
       </c>
       <c r="J61" s="3">
+        <v>782600</v>
+      </c>
+      <c r="K61" s="3">
         <v>760900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>724700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>741900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>102900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3567,67 +3710,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>188700</v>
+        <v>186200</v>
       </c>
       <c r="E62" s="3">
-        <v>179100</v>
+        <v>186200</v>
       </c>
       <c r="F62" s="3">
-        <v>186700</v>
+        <v>176800</v>
       </c>
       <c r="G62" s="3">
-        <v>192100</v>
+        <v>184300</v>
       </c>
       <c r="H62" s="3">
-        <v>187800</v>
+        <v>189600</v>
       </c>
       <c r="I62" s="3">
-        <v>198500</v>
+        <v>185400</v>
       </c>
       <c r="J62" s="3">
+        <v>195900</v>
+      </c>
+      <c r="K62" s="3">
         <v>193800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>137400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>700</v>
       </c>
       <c r="R62" s="3">
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
         <v>4700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1338800</v>
+        <v>1408300</v>
       </c>
       <c r="E66" s="3">
-        <v>1324900</v>
+        <v>1321400</v>
       </c>
       <c r="F66" s="3">
-        <v>1343000</v>
+        <v>1307600</v>
       </c>
       <c r="G66" s="3">
-        <v>1524600</v>
+        <v>1325500</v>
       </c>
       <c r="H66" s="3">
-        <v>1367400</v>
+        <v>1504800</v>
       </c>
       <c r="I66" s="3">
-        <v>1364600</v>
+        <v>1349600</v>
       </c>
       <c r="J66" s="3">
+        <v>1346900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1301100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1326200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1208200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>98500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>255100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>148300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>135700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,16 +4292,19 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1317400</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1300200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -4147,8 +4321,8 @@
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -4163,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>54900</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>10</v>
@@ -4174,14 +4348,17 @@
       <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U72" s="3">
         <v>51100</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2283800</v>
+        <v>2244900</v>
       </c>
       <c r="E76" s="3">
-        <v>2230500</v>
+        <v>2254100</v>
       </c>
       <c r="F76" s="3">
-        <v>2172100</v>
+        <v>2201500</v>
       </c>
       <c r="G76" s="3">
-        <v>2075500</v>
+        <v>2143800</v>
       </c>
       <c r="H76" s="3">
-        <v>2140300</v>
+        <v>2048500</v>
       </c>
       <c r="I76" s="3">
-        <v>1956900</v>
+        <v>2112400</v>
       </c>
       <c r="J76" s="3">
+        <v>1931400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1782600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1596500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1676800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>215700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>203300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>173100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1002100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>135100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>119900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>727300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>634000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101600</v>
+        <v>71100</v>
       </c>
       <c r="E81" s="3">
-        <v>71300</v>
+        <v>100300</v>
       </c>
       <c r="F81" s="3">
-        <v>71200</v>
+        <v>70300</v>
       </c>
       <c r="G81" s="3">
-        <v>84100</v>
+        <v>70300</v>
       </c>
       <c r="H81" s="3">
-        <v>164700</v>
+        <v>83000</v>
       </c>
       <c r="I81" s="3">
-        <v>139500</v>
+        <v>162600</v>
       </c>
       <c r="J81" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K81" s="3">
         <v>114200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>428300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>84200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>118400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>95700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>223100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>81200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>80600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14500</v>
+        <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="F83" s="3">
-        <v>14400</v>
+        <v>13600</v>
       </c>
       <c r="G83" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="H83" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="I83" s="3">
         <v>14100</v>
       </c>
       <c r="J83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K83" s="3">
         <v>13600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>162100</v>
+        <v>77200</v>
       </c>
       <c r="E89" s="3">
-        <v>107800</v>
+        <v>160000</v>
       </c>
       <c r="F89" s="3">
-        <v>125900</v>
+        <v>106400</v>
       </c>
       <c r="G89" s="3">
-        <v>84800</v>
+        <v>124300</v>
       </c>
       <c r="H89" s="3">
-        <v>261300</v>
+        <v>83700</v>
       </c>
       <c r="I89" s="3">
-        <v>183500</v>
+        <v>257900</v>
       </c>
       <c r="J89" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K89" s="3">
         <v>221800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>178900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>506200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>142400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>118400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>382600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>107200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-3800</v>
-      </c>
       <c r="F91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H91" s="3">
-        <v>-5000</v>
+        <v>-5900</v>
       </c>
       <c r="I91" s="3">
-        <v>-9400</v>
+        <v>-4900</v>
       </c>
       <c r="J91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-95600</v>
+        <v>-55500</v>
       </c>
       <c r="E94" s="3">
-        <v>-45200</v>
+        <v>-94400</v>
       </c>
       <c r="F94" s="3">
-        <v>80900</v>
+        <v>-44600</v>
       </c>
       <c r="G94" s="3">
-        <v>-56800</v>
+        <v>79900</v>
       </c>
       <c r="H94" s="3">
-        <v>-241500</v>
+        <v>-56100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4700</v>
+        <v>-238400</v>
       </c>
       <c r="J94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-232700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-146000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-117600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-63700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>33500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-87300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-31000</v>
+        <v>-2900</v>
       </c>
       <c r="E100" s="3">
-        <v>-24500</v>
+        <v>-30600</v>
       </c>
       <c r="F100" s="3">
-        <v>-178200</v>
+        <v>-24200</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-175900</v>
       </c>
       <c r="H100" s="3">
-        <v>-59200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-136900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>713100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>404000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>273800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>-7000</v>
+        <v>-5800</v>
       </c>
       <c r="F101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29600</v>
+        <v>19500</v>
       </c>
       <c r="E102" s="3">
-        <v>31000</v>
+        <v>29200</v>
       </c>
       <c r="F102" s="3">
-        <v>27800</v>
+        <v>30600</v>
       </c>
       <c r="G102" s="3">
-        <v>29100</v>
+        <v>27500</v>
       </c>
       <c r="H102" s="3">
-        <v>-40300</v>
+        <v>28700</v>
       </c>
       <c r="I102" s="3">
-        <v>177100</v>
+        <v>-39800</v>
       </c>
       <c r="J102" s="3">
+        <v>174800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-147100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-303400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-42400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>358400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>38500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>131100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>534400</v>
+        <v>588500</v>
       </c>
       <c r="E8" s="3">
-        <v>584400</v>
+        <v>574800</v>
       </c>
       <c r="F8" s="3">
-        <v>580000</v>
+        <v>543400</v>
       </c>
       <c r="G8" s="3">
-        <v>595600</v>
+        <v>594200</v>
       </c>
       <c r="H8" s="3">
-        <v>553400</v>
+        <v>589700</v>
       </c>
       <c r="I8" s="3">
+        <v>605600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>562700</v>
+      </c>
+      <c r="K8" s="3">
         <v>721800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>685500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>647800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>566300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2039700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>529700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>452300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>396600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>379200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>939700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>46300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>265200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>246100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>298500</v>
+        <v>341800</v>
       </c>
       <c r="E9" s="3">
-        <v>314500</v>
+        <v>324100</v>
       </c>
       <c r="F9" s="3">
-        <v>311200</v>
+        <v>303500</v>
       </c>
       <c r="G9" s="3">
-        <v>313600</v>
+        <v>319800</v>
       </c>
       <c r="H9" s="3">
-        <v>289000</v>
+        <v>316400</v>
       </c>
       <c r="I9" s="3">
+        <v>318800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>293800</v>
+      </c>
+      <c r="K9" s="3">
         <v>362100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>339300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>322000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>285000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1092700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>295100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>246800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>191100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>196500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>452600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>22400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>120400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>110200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>236000</v>
+        <v>246700</v>
       </c>
       <c r="E10" s="3">
-        <v>269800</v>
+        <v>250700</v>
       </c>
       <c r="F10" s="3">
+        <v>239900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>274400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>273300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>286800</v>
+      </c>
+      <c r="J10" s="3">
         <v>268800</v>
       </c>
-      <c r="G10" s="3">
-        <v>282100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>264400</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>359800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>346200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>325900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>281300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>947000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>234700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>205500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>205600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>182700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>487100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>24000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>144800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>135900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>44100</v>
+        <v>40900</v>
       </c>
       <c r="E12" s="3">
-        <v>50400</v>
+        <v>41800</v>
       </c>
       <c r="F12" s="3">
-        <v>46100</v>
+        <v>44500</v>
       </c>
       <c r="G12" s="3">
-        <v>43000</v>
+        <v>51200</v>
       </c>
       <c r="H12" s="3">
-        <v>40400</v>
+        <v>46800</v>
       </c>
       <c r="I12" s="3">
+        <v>43700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K12" s="3">
         <v>45000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>46500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>39300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>37900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>115700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>35700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>23000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>16000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>18400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>33000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>8600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,47 +1121,53 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>6600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1135,45 +1175,51 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>5500</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>461600</v>
+        <v>516400</v>
       </c>
       <c r="E17" s="3">
-        <v>493700</v>
+        <v>467400</v>
       </c>
       <c r="F17" s="3">
-        <v>498200</v>
+        <v>468200</v>
       </c>
       <c r="G17" s="3">
-        <v>470500</v>
+        <v>501900</v>
       </c>
       <c r="H17" s="3">
-        <v>462900</v>
+        <v>506600</v>
       </c>
       <c r="I17" s="3">
+        <v>478400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>470600</v>
+      </c>
+      <c r="K17" s="3">
         <v>529500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>534300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>503100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>508500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1549400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>436200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>323800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>262200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>274100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>687900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>36000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>174200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>163200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72800</v>
+        <v>72100</v>
       </c>
       <c r="E18" s="3">
-        <v>90700</v>
+        <v>107500</v>
       </c>
       <c r="F18" s="3">
-        <v>81800</v>
+        <v>75200</v>
       </c>
       <c r="G18" s="3">
-        <v>125100</v>
+        <v>92200</v>
       </c>
       <c r="H18" s="3">
-        <v>90600</v>
+        <v>83100</v>
       </c>
       <c r="I18" s="3">
+        <v>127200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K18" s="3">
         <v>192400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>151200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>144700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>57800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>490300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>93500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>128500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>134500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>105100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>251700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>91000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>82900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,185 +1446,199 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="E20" s="3">
-        <v>17400</v>
+        <v>13100</v>
       </c>
       <c r="F20" s="3">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="G20" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K20" s="3">
         <v>16700</v>
       </c>
-      <c r="H20" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>16700</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>16200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>15600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>14300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>41500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>6900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>14500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>99900</v>
+        <v>98200</v>
       </c>
       <c r="E21" s="3">
-        <v>122400</v>
+        <v>132500</v>
       </c>
       <c r="F21" s="3">
-        <v>111400</v>
+        <v>101600</v>
       </c>
       <c r="G21" s="3">
-        <v>156100</v>
+        <v>124500</v>
       </c>
       <c r="H21" s="3">
-        <v>124900</v>
+        <v>113300</v>
       </c>
       <c r="I21" s="3">
+        <v>158700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K21" s="3">
         <v>223200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>181300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>174000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>85300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>568500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>116900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>143000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>146000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>123400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>267500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>11400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>96900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>87800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E22" s="3">
         <v>2900</v>
       </c>
       <c r="F22" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="G22" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H22" s="3">
         <v>3100</v>
       </c>
       <c r="I22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J22" s="3">
         <v>3100</v>
       </c>
       <c r="K22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>10</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>10</v>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>84900</v>
+        <v>83800</v>
       </c>
       <c r="E23" s="3">
-        <v>105200</v>
+        <v>117700</v>
       </c>
       <c r="F23" s="3">
+        <v>86300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>106900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>96300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>141100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>205900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>164300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>157400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>69200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>523200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>102000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>134300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>141300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>112200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>266200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>11000</v>
+      </c>
+      <c r="V23" s="3">
         <v>94800</v>
       </c>
-      <c r="G23" s="3">
-        <v>138800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>107600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>205900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>164300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>157400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>69200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>523200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>102000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>134300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>141300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>112200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>266200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>11000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>94800</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>85600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14100</v>
+        <v>22400</v>
       </c>
       <c r="E24" s="3">
-        <v>800</v>
+        <v>45600</v>
       </c>
       <c r="F24" s="3">
-        <v>22100</v>
+        <v>14300</v>
       </c>
       <c r="G24" s="3">
-        <v>68300</v>
+        <v>900</v>
       </c>
       <c r="H24" s="3">
-        <v>25100</v>
+        <v>22500</v>
       </c>
       <c r="I24" s="3">
+        <v>69500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K24" s="3">
         <v>39100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>28100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>44300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>24900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>106400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>21300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>28500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>24500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>18700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>47300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>15800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70800</v>
+        <v>61400</v>
       </c>
       <c r="E26" s="3">
-        <v>104300</v>
+        <v>72100</v>
       </c>
       <c r="F26" s="3">
-        <v>72600</v>
+        <v>72000</v>
       </c>
       <c r="G26" s="3">
-        <v>70400</v>
+        <v>106100</v>
       </c>
       <c r="H26" s="3">
-        <v>82600</v>
+        <v>73900</v>
       </c>
       <c r="I26" s="3">
+        <v>71600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K26" s="3">
         <v>166900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>136200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>113100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>44300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>416800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>80700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>105800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>116800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>93500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>218900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>8900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>79000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>82500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71100</v>
+        <v>63100</v>
       </c>
       <c r="E27" s="3">
-        <v>100300</v>
+        <v>72700</v>
       </c>
       <c r="F27" s="3">
-        <v>70300</v>
+        <v>72300</v>
       </c>
       <c r="G27" s="3">
-        <v>70300</v>
+        <v>102000</v>
       </c>
       <c r="H27" s="3">
-        <v>83000</v>
+        <v>71500</v>
       </c>
       <c r="I27" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K27" s="3">
         <v>162600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>137600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>114200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>44000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>428300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>84200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>107600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>118400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>95700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>223100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>9000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>81200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>80600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14900</v>
+        <v>-14600</v>
       </c>
       <c r="E32" s="3">
-        <v>-17400</v>
+        <v>-13100</v>
       </c>
       <c r="F32" s="3">
-        <v>-16000</v>
+        <v>-14000</v>
       </c>
       <c r="G32" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-16200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-15600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-14300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-41500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-14500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71100</v>
+        <v>63100</v>
       </c>
       <c r="E33" s="3">
-        <v>100300</v>
+        <v>72700</v>
       </c>
       <c r="F33" s="3">
-        <v>70300</v>
+        <v>72300</v>
       </c>
       <c r="G33" s="3">
-        <v>70300</v>
+        <v>102000</v>
       </c>
       <c r="H33" s="3">
-        <v>83000</v>
+        <v>71500</v>
       </c>
       <c r="I33" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K33" s="3">
         <v>162600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>137600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>114200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>44000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>428300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>84200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>107600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>118400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>95700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>223100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>9000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>81200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>80600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71100</v>
+        <v>63100</v>
       </c>
       <c r="E35" s="3">
-        <v>100300</v>
+        <v>72700</v>
       </c>
       <c r="F35" s="3">
-        <v>70300</v>
+        <v>72300</v>
       </c>
       <c r="G35" s="3">
-        <v>70300</v>
+        <v>102000</v>
       </c>
       <c r="H35" s="3">
-        <v>83000</v>
+        <v>71500</v>
       </c>
       <c r="I35" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K35" s="3">
         <v>162600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>137600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>114200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>44000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>428300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>84200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>107600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>118400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>95700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>223100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>9000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>81200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>80600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2659,214 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>537500</v>
+        <v>514100</v>
       </c>
       <c r="E41" s="3">
-        <v>518000</v>
+        <v>345100</v>
       </c>
       <c r="F41" s="3">
-        <v>489100</v>
+        <v>546500</v>
       </c>
       <c r="G41" s="3">
-        <v>458500</v>
+        <v>526700</v>
       </c>
       <c r="H41" s="3">
-        <v>431000</v>
+        <v>497300</v>
       </c>
       <c r="I41" s="3">
+        <v>466200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>438200</v>
+      </c>
+      <c r="K41" s="3">
         <v>402300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>442100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>270800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>407400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>375400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>41400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>43900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>46000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>662200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>76700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>65800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>388700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>257600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1218500</v>
+        <v>940900</v>
       </c>
       <c r="E42" s="3">
-        <v>1165100</v>
+        <v>1153200</v>
       </c>
       <c r="F42" s="3">
-        <v>1222200</v>
+        <v>1238900</v>
       </c>
       <c r="G42" s="3">
-        <v>1431800</v>
+        <v>1184600</v>
       </c>
       <c r="H42" s="3">
-        <v>1950600</v>
+        <v>1242700</v>
       </c>
       <c r="I42" s="3">
+        <v>1455800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1983300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1895900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1662800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1677700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1420400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1342400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>174200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>59700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>83100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>362500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>64400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>59800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>351200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>393800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32000</v>
+        <v>34300</v>
       </c>
       <c r="E43" s="3">
-        <v>30900</v>
+        <v>34000</v>
       </c>
       <c r="F43" s="3">
-        <v>35900</v>
+        <v>32600</v>
       </c>
       <c r="G43" s="3">
-        <v>39500</v>
+        <v>31400</v>
       </c>
       <c r="H43" s="3">
-        <v>45900</v>
+        <v>36500</v>
       </c>
       <c r="I43" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K43" s="3">
         <v>41500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>58100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>43000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>47200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>109500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>13400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>49100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>5600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>32900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>36200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,318 +2927,354 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107800</v>
+        <v>128700</v>
       </c>
       <c r="E45" s="3">
-        <v>94800</v>
+        <v>115200</v>
       </c>
       <c r="F45" s="3">
-        <v>113700</v>
+        <v>109600</v>
       </c>
       <c r="G45" s="3">
-        <v>85400</v>
+        <v>96400</v>
       </c>
       <c r="H45" s="3">
+        <v>115600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K45" s="3">
         <v>92200</v>
       </c>
-      <c r="I45" s="3">
-        <v>92200</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>97800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>92800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>94500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>14700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>61200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>20800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>79900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>8700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>6900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>37400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>32700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1895800</v>
+        <v>1618100</v>
       </c>
       <c r="E46" s="3">
-        <v>1808800</v>
+        <v>1647500</v>
       </c>
       <c r="F46" s="3">
-        <v>1861000</v>
+        <v>1927500</v>
       </c>
       <c r="G46" s="3">
-        <v>2015300</v>
+        <v>1839100</v>
       </c>
       <c r="H46" s="3">
-        <v>2519700</v>
+        <v>1892200</v>
       </c>
       <c r="I46" s="3">
+        <v>2049100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2561900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2431900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2263000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2089300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1967800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1921800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>243700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>169900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>155400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1147800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>154600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>138200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>810200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>720200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68200</v>
+        <v>115400</v>
       </c>
       <c r="E47" s="3">
-        <v>70100</v>
+        <v>114900</v>
       </c>
       <c r="F47" s="3">
-        <v>73400</v>
+        <v>69400</v>
       </c>
       <c r="G47" s="3">
-        <v>75800</v>
+        <v>71200</v>
       </c>
       <c r="H47" s="3">
-        <v>76200</v>
+        <v>74700</v>
       </c>
       <c r="I47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K47" s="3">
         <v>76400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>77900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>74400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>69700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>68100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>9800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>42800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>5600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>5100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>35900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>31900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78500</v>
+        <v>80200</v>
       </c>
       <c r="E48" s="3">
-        <v>83800</v>
+        <v>70300</v>
       </c>
       <c r="F48" s="3">
-        <v>64300</v>
+        <v>79800</v>
       </c>
       <c r="G48" s="3">
-        <v>72700</v>
+        <v>85200</v>
       </c>
       <c r="H48" s="3">
-        <v>77500</v>
+        <v>65400</v>
       </c>
       <c r="I48" s="3">
+        <v>73900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K48" s="3">
         <v>82700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>89800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>87800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>81800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>59000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>38400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>19200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>732600</v>
+        <v>721800</v>
       </c>
       <c r="E49" s="3">
-        <v>735300</v>
+        <v>728500</v>
       </c>
       <c r="F49" s="3">
-        <v>770800</v>
+        <v>744900</v>
       </c>
       <c r="G49" s="3">
-        <v>807900</v>
+        <v>747700</v>
       </c>
       <c r="H49" s="3">
-        <v>815900</v>
+        <v>783700</v>
       </c>
       <c r="I49" s="3">
+        <v>821400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>829600</v>
+      </c>
+      <c r="K49" s="3">
         <v>808500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>836200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>820200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>787900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>812900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>113700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>113200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>10500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>7300</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>878100</v>
+        <v>941300</v>
       </c>
       <c r="E52" s="3">
-        <v>877600</v>
+        <v>944600</v>
       </c>
       <c r="F52" s="3">
-        <v>739600</v>
+        <v>892800</v>
       </c>
       <c r="G52" s="3">
-        <v>497600</v>
+        <v>892300</v>
       </c>
       <c r="H52" s="3">
-        <v>64100</v>
+        <v>752000</v>
       </c>
       <c r="I52" s="3">
+        <v>505900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K52" s="3">
         <v>62500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>12000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>15500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>23300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>36600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>17700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>3700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3653200</v>
+        <v>3476800</v>
       </c>
       <c r="E54" s="3">
-        <v>3575500</v>
+        <v>3505800</v>
       </c>
       <c r="F54" s="3">
-        <v>3509100</v>
+        <v>3714400</v>
       </c>
       <c r="G54" s="3">
-        <v>3469300</v>
+        <v>3635400</v>
       </c>
       <c r="H54" s="3">
-        <v>3553300</v>
+        <v>3567900</v>
       </c>
       <c r="I54" s="3">
+        <v>3527500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3612800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3462000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3278300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3083700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2922800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2885000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>376600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>301800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>207300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1257200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>166700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>148400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>875600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>769700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107600</v>
+        <v>112700</v>
       </c>
       <c r="E57" s="3">
-        <v>107700</v>
+        <v>117800</v>
       </c>
       <c r="F57" s="3">
-        <v>97700</v>
+        <v>109400</v>
       </c>
       <c r="G57" s="3">
-        <v>106700</v>
+        <v>109500</v>
       </c>
       <c r="H57" s="3">
-        <v>97900</v>
+        <v>99300</v>
       </c>
       <c r="I57" s="3">
+        <v>108500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K57" s="3">
         <v>110000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>95200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>121500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>109700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>109300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>15200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>12400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>11800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>72000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>11100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>8400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>47100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>40500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,177 +3795,195 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>393600</v>
+        <v>269800</v>
       </c>
       <c r="E59" s="3">
-        <v>279800</v>
+        <v>250200</v>
       </c>
       <c r="F59" s="3">
-        <v>287300</v>
+        <v>400200</v>
       </c>
       <c r="G59" s="3">
-        <v>259100</v>
+        <v>284500</v>
       </c>
       <c r="H59" s="3">
-        <v>440800</v>
+        <v>292200</v>
       </c>
       <c r="I59" s="3">
+        <v>263400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>448200</v>
+      </c>
+      <c r="K59" s="3">
         <v>291400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>273200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>224900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>354400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>35900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>36600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>21400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>179100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>19800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>19500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>96400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>93200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>501200</v>
+        <v>382600</v>
       </c>
       <c r="E60" s="3">
-        <v>387500</v>
+        <v>368000</v>
       </c>
       <c r="F60" s="3">
-        <v>385000</v>
+        <v>509600</v>
       </c>
       <c r="G60" s="3">
-        <v>365800</v>
+        <v>394000</v>
       </c>
       <c r="H60" s="3">
-        <v>538700</v>
+        <v>391500</v>
       </c>
       <c r="I60" s="3">
+        <v>371900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>547700</v>
+      </c>
+      <c r="K60" s="3">
         <v>401400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>368300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>346400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>464000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>410200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>51200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>49100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>33300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>251100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>30900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>27900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>143500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>133700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>720900</v>
+        <v>722100</v>
       </c>
       <c r="E61" s="3">
-        <v>717400</v>
+        <v>722900</v>
       </c>
       <c r="F61" s="3">
-        <v>745800</v>
+        <v>733000</v>
       </c>
       <c r="G61" s="3">
-        <v>775400</v>
+        <v>729400</v>
       </c>
       <c r="H61" s="3">
-        <v>776500</v>
+        <v>758300</v>
       </c>
       <c r="I61" s="3">
+        <v>788400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>789500</v>
+      </c>
+      <c r="K61" s="3">
         <v>762900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>782600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>760900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>724700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>741900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>102900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>43000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,70 +3999,82 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>186200</v>
+        <v>66700</v>
       </c>
       <c r="E62" s="3">
-        <v>186200</v>
+        <v>60600</v>
       </c>
       <c r="F62" s="3">
-        <v>176800</v>
+        <v>189300</v>
       </c>
       <c r="G62" s="3">
-        <v>184300</v>
+        <v>189400</v>
       </c>
       <c r="H62" s="3">
-        <v>189600</v>
+        <v>179700</v>
       </c>
       <c r="I62" s="3">
+        <v>187400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K62" s="3">
         <v>185400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>195900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>193800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>137400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>56200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>6400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>4700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1408300</v>
+        <v>1171300</v>
       </c>
       <c r="E66" s="3">
-        <v>1321400</v>
+        <v>1151500</v>
       </c>
       <c r="F66" s="3">
-        <v>1307600</v>
+        <v>1431900</v>
       </c>
       <c r="G66" s="3">
-        <v>1325500</v>
+        <v>1343500</v>
       </c>
       <c r="H66" s="3">
-        <v>1504800</v>
+        <v>1329500</v>
       </c>
       <c r="I66" s="3">
+        <v>1347700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1530000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1349600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1346900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1301100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1326200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1208200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>161000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>98500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>34100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>255100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>31600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>28600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>148300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>135700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,22 +4637,28 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3">
-        <v>1300200</v>
+      <c r="E72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
+      <c r="G72" s="3">
+        <v>1322000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -4324,11 +4672,11 @@
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -4340,25 +4688,31 @@
         <v>0</v>
       </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
         <v>54900</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U72" s="3">
-        <v>51100</v>
+      <c r="U72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>51100</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2244900</v>
+        <v>2305500</v>
       </c>
       <c r="E76" s="3">
-        <v>2254100</v>
+        <v>2354300</v>
       </c>
       <c r="F76" s="3">
-        <v>2201500</v>
+        <v>2282500</v>
       </c>
       <c r="G76" s="3">
-        <v>2143800</v>
+        <v>2291900</v>
       </c>
       <c r="H76" s="3">
-        <v>2048500</v>
+        <v>2238400</v>
       </c>
       <c r="I76" s="3">
+        <v>2179700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2082800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2112400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1931400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1782600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1596500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1676800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>215700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>203300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>173100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1002100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>135100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>119900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>727300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>634000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71100</v>
+        <v>63100</v>
       </c>
       <c r="E81" s="3">
-        <v>100300</v>
+        <v>72700</v>
       </c>
       <c r="F81" s="3">
-        <v>70300</v>
+        <v>72300</v>
       </c>
       <c r="G81" s="3">
-        <v>70300</v>
+        <v>102000</v>
       </c>
       <c r="H81" s="3">
-        <v>83000</v>
+        <v>71500</v>
       </c>
       <c r="I81" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>84400</v>
+      </c>
+      <c r="K81" s="3">
         <v>162600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>137600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>114200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>44000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>428300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>84200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>107600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>118400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>95700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>223100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>9000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>81200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>80600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="E83" s="3">
-        <v>14300</v>
+        <v>11900</v>
       </c>
       <c r="F83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="M83" s="3">
         <v>13600</v>
       </c>
-      <c r="G83" s="3">
-        <v>14200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>14100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>13600</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>36700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>6900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>11200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>400</v>
-      </c>
-      <c r="T83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>2200</v>
       </c>
       <c r="V83" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X83" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77200</v>
+        <v>87700</v>
       </c>
       <c r="E89" s="3">
-        <v>160000</v>
+        <v>-26300</v>
       </c>
       <c r="F89" s="3">
-        <v>106400</v>
+        <v>78500</v>
       </c>
       <c r="G89" s="3">
-        <v>124300</v>
+        <v>162700</v>
       </c>
       <c r="H89" s="3">
-        <v>83700</v>
+        <v>108200</v>
       </c>
       <c r="I89" s="3">
+        <v>126400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K89" s="3">
         <v>257900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>181100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>221800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>178900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>506200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>50300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>142400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>118400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>382600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>45700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>16000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>95400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>107200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-7100</v>
-      </c>
       <c r="H91" s="3">
-        <v>-5900</v>
+        <v>-3800</v>
       </c>
       <c r="I91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-36900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-600</v>
       </c>
       <c r="P91" s="3">
         <v>-1500</v>
       </c>
       <c r="Q91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-7200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55500</v>
+        <v>207900</v>
       </c>
       <c r="E94" s="3">
-        <v>-94400</v>
+        <v>-8400</v>
       </c>
       <c r="F94" s="3">
-        <v>-44600</v>
+        <v>-56400</v>
       </c>
       <c r="G94" s="3">
-        <v>79900</v>
+        <v>-96000</v>
       </c>
       <c r="H94" s="3">
-        <v>-56100</v>
+        <v>-45400</v>
       </c>
       <c r="I94" s="3">
+        <v>81200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-238400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-232700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-146000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-117600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-22200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-9500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>33500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-87300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,61 +6284,67 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2900</v>
       </c>
-      <c r="E100" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-24200</v>
-      </c>
       <c r="G100" s="3">
-        <v>-175900</v>
+        <v>-31100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-24600</v>
       </c>
       <c r="I100" s="3">
+        <v>-178800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-58500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-136900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>713100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>404000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>273800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -5860,128 +6352,146 @@
       <c r="V100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-6900</v>
-      </c>
       <c r="G101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-8400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19500</v>
+        <v>169000</v>
       </c>
       <c r="E102" s="3">
+        <v>-189200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>29700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>31100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J102" s="3">
         <v>29200</v>
       </c>
-      <c r="F102" s="3">
-        <v>30600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>27500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>28700</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-39800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>174800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-147100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>32000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-303400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-53600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>39200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>358400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>38500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>8100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>131100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>11600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>588500</v>
+        <v>593100</v>
       </c>
       <c r="E8" s="3">
-        <v>574800</v>
+        <v>579200</v>
       </c>
       <c r="F8" s="3">
-        <v>543400</v>
+        <v>547500</v>
       </c>
       <c r="G8" s="3">
+        <v>598700</v>
+      </c>
+      <c r="H8" s="3">
         <v>594200</v>
       </c>
-      <c r="H8" s="3">
-        <v>589700</v>
-      </c>
       <c r="I8" s="3">
-        <v>605600</v>
+        <v>610300</v>
       </c>
       <c r="J8" s="3">
-        <v>562700</v>
+        <v>567000</v>
       </c>
       <c r="K8" s="3">
         <v>721800</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>341800</v>
+        <v>344400</v>
       </c>
       <c r="E9" s="3">
-        <v>324100</v>
+        <v>326600</v>
       </c>
       <c r="F9" s="3">
-        <v>303500</v>
+        <v>305800</v>
       </c>
       <c r="G9" s="3">
-        <v>319800</v>
+        <v>322300</v>
       </c>
       <c r="H9" s="3">
-        <v>316400</v>
+        <v>318800</v>
       </c>
       <c r="I9" s="3">
-        <v>318800</v>
+        <v>321200</v>
       </c>
       <c r="J9" s="3">
-        <v>293800</v>
+        <v>296100</v>
       </c>
       <c r="K9" s="3">
         <v>362100</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>246700</v>
+        <v>248600</v>
       </c>
       <c r="E10" s="3">
-        <v>250700</v>
+        <v>252600</v>
       </c>
       <c r="F10" s="3">
-        <v>239900</v>
+        <v>241700</v>
       </c>
       <c r="G10" s="3">
-        <v>274400</v>
+        <v>276500</v>
       </c>
       <c r="H10" s="3">
-        <v>273300</v>
+        <v>275400</v>
       </c>
       <c r="I10" s="3">
-        <v>286800</v>
+        <v>289000</v>
       </c>
       <c r="J10" s="3">
-        <v>268800</v>
+        <v>270900</v>
       </c>
       <c r="K10" s="3">
         <v>359800</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="E12" s="3">
-        <v>41800</v>
+        <v>42100</v>
       </c>
       <c r="F12" s="3">
-        <v>44500</v>
+        <v>44900</v>
       </c>
       <c r="G12" s="3">
-        <v>51200</v>
+        <v>51600</v>
       </c>
       <c r="H12" s="3">
-        <v>46800</v>
+        <v>47200</v>
       </c>
       <c r="I12" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="J12" s="3">
-        <v>41000</v>
+        <v>41400</v>
       </c>
       <c r="K12" s="3">
         <v>45000</v>
@@ -1201,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
         <v>2800</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>516400</v>
+        <v>520400</v>
       </c>
       <c r="E17" s="3">
-        <v>467400</v>
+        <v>471000</v>
       </c>
       <c r="F17" s="3">
-        <v>468200</v>
+        <v>471800</v>
       </c>
       <c r="G17" s="3">
-        <v>501900</v>
+        <v>505800</v>
       </c>
       <c r="H17" s="3">
-        <v>506600</v>
+        <v>510400</v>
       </c>
       <c r="I17" s="3">
-        <v>478400</v>
+        <v>482000</v>
       </c>
       <c r="J17" s="3">
-        <v>470600</v>
+        <v>474200</v>
       </c>
       <c r="K17" s="3">
         <v>529500</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72100</v>
+        <v>72700</v>
       </c>
       <c r="E18" s="3">
-        <v>107500</v>
+        <v>108300</v>
       </c>
       <c r="F18" s="3">
-        <v>75200</v>
+        <v>75800</v>
       </c>
       <c r="G18" s="3">
-        <v>92200</v>
+        <v>92900</v>
       </c>
       <c r="H18" s="3">
-        <v>83100</v>
+        <v>83800</v>
       </c>
       <c r="I18" s="3">
-        <v>127200</v>
+        <v>128200</v>
       </c>
       <c r="J18" s="3">
-        <v>92100</v>
+        <v>92800</v>
       </c>
       <c r="K18" s="3">
         <v>192400</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="E20" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F20" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="G20" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="H20" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="I20" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="J20" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="K20" s="3">
         <v>16700</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>98200</v>
+        <v>99000</v>
       </c>
       <c r="E21" s="3">
-        <v>132500</v>
+        <v>133500</v>
       </c>
       <c r="F21" s="3">
-        <v>101600</v>
+        <v>102400</v>
       </c>
       <c r="G21" s="3">
-        <v>124500</v>
+        <v>125400</v>
       </c>
       <c r="H21" s="3">
-        <v>113300</v>
+        <v>114200</v>
       </c>
       <c r="I21" s="3">
-        <v>158700</v>
+        <v>159900</v>
       </c>
       <c r="J21" s="3">
-        <v>127000</v>
+        <v>128000</v>
       </c>
       <c r="K21" s="3">
         <v>223200</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>83800</v>
+        <v>84500</v>
       </c>
       <c r="E23" s="3">
-        <v>117700</v>
+        <v>118600</v>
       </c>
       <c r="F23" s="3">
-        <v>86300</v>
+        <v>86900</v>
       </c>
       <c r="G23" s="3">
-        <v>106900</v>
+        <v>107700</v>
       </c>
       <c r="H23" s="3">
-        <v>96300</v>
+        <v>97100</v>
       </c>
       <c r="I23" s="3">
-        <v>141100</v>
+        <v>142200</v>
       </c>
       <c r="J23" s="3">
-        <v>109400</v>
+        <v>110300</v>
       </c>
       <c r="K23" s="3">
         <v>205900</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="E24" s="3">
-        <v>45600</v>
+        <v>46000</v>
       </c>
       <c r="F24" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="G24" s="3">
         <v>900</v>
       </c>
       <c r="H24" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="I24" s="3">
-        <v>69500</v>
+        <v>70000</v>
       </c>
       <c r="J24" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="K24" s="3">
         <v>39100</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61400</v>
+        <v>61900</v>
       </c>
       <c r="E26" s="3">
-        <v>72100</v>
+        <v>72600</v>
       </c>
       <c r="F26" s="3">
-        <v>72000</v>
+        <v>72500</v>
       </c>
       <c r="G26" s="3">
-        <v>106100</v>
+        <v>106900</v>
       </c>
       <c r="H26" s="3">
-        <v>73900</v>
+        <v>74400</v>
       </c>
       <c r="I26" s="3">
-        <v>71600</v>
+        <v>72200</v>
       </c>
       <c r="J26" s="3">
-        <v>83900</v>
+        <v>84600</v>
       </c>
       <c r="K26" s="3">
         <v>166900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="E27" s="3">
-        <v>72700</v>
+        <v>73200</v>
       </c>
       <c r="F27" s="3">
-        <v>72300</v>
+        <v>72800</v>
       </c>
       <c r="G27" s="3">
-        <v>102000</v>
+        <v>102800</v>
       </c>
       <c r="H27" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="I27" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="J27" s="3">
-        <v>84400</v>
+        <v>85000</v>
       </c>
       <c r="K27" s="3">
         <v>162600</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14600</v>
+        <v>-14800</v>
       </c>
       <c r="E32" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="F32" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="G32" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="H32" s="3">
-        <v>-16300</v>
+        <v>-16400</v>
       </c>
       <c r="I32" s="3">
-        <v>-17000</v>
+        <v>-17100</v>
       </c>
       <c r="J32" s="3">
-        <v>-20500</v>
+        <v>-20600</v>
       </c>
       <c r="K32" s="3">
         <v>-16700</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="E33" s="3">
-        <v>72700</v>
+        <v>73200</v>
       </c>
       <c r="F33" s="3">
-        <v>72300</v>
+        <v>72800</v>
       </c>
       <c r="G33" s="3">
-        <v>102000</v>
+        <v>102800</v>
       </c>
       <c r="H33" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="I33" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="J33" s="3">
-        <v>84400</v>
+        <v>85000</v>
       </c>
       <c r="K33" s="3">
         <v>162600</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="E35" s="3">
-        <v>72700</v>
+        <v>73200</v>
       </c>
       <c r="F35" s="3">
-        <v>72300</v>
+        <v>72800</v>
       </c>
       <c r="G35" s="3">
-        <v>102000</v>
+        <v>102800</v>
       </c>
       <c r="H35" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="I35" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="J35" s="3">
-        <v>84400</v>
+        <v>85000</v>
       </c>
       <c r="K35" s="3">
         <v>162600</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>514100</v>
+        <v>518100</v>
       </c>
       <c r="E41" s="3">
-        <v>345100</v>
+        <v>347800</v>
       </c>
       <c r="F41" s="3">
-        <v>546500</v>
+        <v>550600</v>
       </c>
       <c r="G41" s="3">
-        <v>526700</v>
+        <v>530700</v>
       </c>
       <c r="H41" s="3">
-        <v>497300</v>
+        <v>501100</v>
       </c>
       <c r="I41" s="3">
-        <v>466200</v>
+        <v>469700</v>
       </c>
       <c r="J41" s="3">
-        <v>438200</v>
+        <v>441600</v>
       </c>
       <c r="K41" s="3">
         <v>402300</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>940900</v>
+        <v>948100</v>
       </c>
       <c r="E42" s="3">
-        <v>1153200</v>
+        <v>1162000</v>
       </c>
       <c r="F42" s="3">
-        <v>1238900</v>
+        <v>1248400</v>
       </c>
       <c r="G42" s="3">
-        <v>1184600</v>
+        <v>1193700</v>
       </c>
       <c r="H42" s="3">
-        <v>1242700</v>
+        <v>1252300</v>
       </c>
       <c r="I42" s="3">
-        <v>1455800</v>
+        <v>1467000</v>
       </c>
       <c r="J42" s="3">
-        <v>1983300</v>
+        <v>1998500</v>
       </c>
       <c r="K42" s="3">
         <v>1895900</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34300</v>
+        <v>34500</v>
       </c>
       <c r="E43" s="3">
-        <v>34000</v>
+        <v>34200</v>
       </c>
       <c r="F43" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="G43" s="3">
-        <v>31400</v>
+        <v>31700</v>
       </c>
       <c r="H43" s="3">
-        <v>36500</v>
+        <v>36800</v>
       </c>
       <c r="I43" s="3">
-        <v>40200</v>
+        <v>40500</v>
       </c>
       <c r="J43" s="3">
-        <v>46600</v>
+        <v>47000</v>
       </c>
       <c r="K43" s="3">
         <v>41500</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128700</v>
+        <v>129700</v>
       </c>
       <c r="E45" s="3">
-        <v>115200</v>
+        <v>116100</v>
       </c>
       <c r="F45" s="3">
-        <v>109600</v>
+        <v>110400</v>
       </c>
       <c r="G45" s="3">
-        <v>96400</v>
+        <v>97200</v>
       </c>
       <c r="H45" s="3">
-        <v>115600</v>
+        <v>116500</v>
       </c>
       <c r="I45" s="3">
-        <v>86900</v>
+        <v>87500</v>
       </c>
       <c r="J45" s="3">
-        <v>93700</v>
+        <v>94400</v>
       </c>
       <c r="K45" s="3">
         <v>92200</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1618100</v>
+        <v>1630500</v>
       </c>
       <c r="E46" s="3">
-        <v>1647500</v>
+        <v>1660200</v>
       </c>
       <c r="F46" s="3">
-        <v>1927500</v>
+        <v>1942300</v>
       </c>
       <c r="G46" s="3">
-        <v>1839100</v>
+        <v>1853200</v>
       </c>
       <c r="H46" s="3">
-        <v>1892200</v>
+        <v>1906700</v>
       </c>
       <c r="I46" s="3">
-        <v>2049100</v>
+        <v>2064800</v>
       </c>
       <c r="J46" s="3">
-        <v>2561900</v>
+        <v>2581500</v>
       </c>
       <c r="K46" s="3">
         <v>2431900</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115400</v>
+        <v>116300</v>
       </c>
       <c r="E47" s="3">
-        <v>114900</v>
+        <v>115700</v>
       </c>
       <c r="F47" s="3">
-        <v>69400</v>
+        <v>69900</v>
       </c>
       <c r="G47" s="3">
-        <v>71200</v>
+        <v>71800</v>
       </c>
       <c r="H47" s="3">
-        <v>74700</v>
+        <v>75200</v>
       </c>
       <c r="I47" s="3">
-        <v>77100</v>
+        <v>77700</v>
       </c>
       <c r="J47" s="3">
-        <v>77400</v>
+        <v>78000</v>
       </c>
       <c r="K47" s="3">
         <v>76400</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80200</v>
+        <v>80800</v>
       </c>
       <c r="E48" s="3">
-        <v>70300</v>
+        <v>70800</v>
       </c>
       <c r="F48" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="G48" s="3">
-        <v>85200</v>
+        <v>85800</v>
       </c>
       <c r="H48" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="I48" s="3">
-        <v>73900</v>
+        <v>74500</v>
       </c>
       <c r="J48" s="3">
-        <v>78800</v>
+        <v>79400</v>
       </c>
       <c r="K48" s="3">
         <v>82700</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>721800</v>
+        <v>727300</v>
       </c>
       <c r="E49" s="3">
-        <v>728500</v>
+        <v>734100</v>
       </c>
       <c r="F49" s="3">
-        <v>744900</v>
+        <v>750600</v>
       </c>
       <c r="G49" s="3">
-        <v>747700</v>
+        <v>753400</v>
       </c>
       <c r="H49" s="3">
-        <v>783700</v>
+        <v>789700</v>
       </c>
       <c r="I49" s="3">
-        <v>821400</v>
+        <v>827700</v>
       </c>
       <c r="J49" s="3">
-        <v>829600</v>
+        <v>835900</v>
       </c>
       <c r="K49" s="3">
         <v>808500</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>941300</v>
+        <v>948500</v>
       </c>
       <c r="E52" s="3">
-        <v>944600</v>
+        <v>951900</v>
       </c>
       <c r="F52" s="3">
-        <v>892800</v>
+        <v>899700</v>
       </c>
       <c r="G52" s="3">
-        <v>892300</v>
+        <v>899100</v>
       </c>
       <c r="H52" s="3">
-        <v>752000</v>
+        <v>757800</v>
       </c>
       <c r="I52" s="3">
-        <v>505900</v>
+        <v>509800</v>
       </c>
       <c r="J52" s="3">
-        <v>65100</v>
+        <v>65600</v>
       </c>
       <c r="K52" s="3">
         <v>62500</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3476800</v>
+        <v>3503400</v>
       </c>
       <c r="E54" s="3">
-        <v>3505800</v>
+        <v>3532700</v>
       </c>
       <c r="F54" s="3">
-        <v>3714400</v>
+        <v>3742900</v>
       </c>
       <c r="G54" s="3">
-        <v>3635400</v>
+        <v>3663300</v>
       </c>
       <c r="H54" s="3">
-        <v>3567900</v>
+        <v>3595200</v>
       </c>
       <c r="I54" s="3">
-        <v>3527500</v>
+        <v>3554500</v>
       </c>
       <c r="J54" s="3">
-        <v>3612800</v>
+        <v>3640500</v>
       </c>
       <c r="K54" s="3">
         <v>3462000</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>112700</v>
+        <v>113600</v>
       </c>
       <c r="E57" s="3">
-        <v>117800</v>
+        <v>118700</v>
       </c>
       <c r="F57" s="3">
-        <v>109400</v>
+        <v>110300</v>
       </c>
       <c r="G57" s="3">
-        <v>109500</v>
+        <v>110300</v>
       </c>
       <c r="H57" s="3">
-        <v>99300</v>
+        <v>100100</v>
       </c>
       <c r="I57" s="3">
-        <v>108500</v>
+        <v>109300</v>
       </c>
       <c r="J57" s="3">
-        <v>99500</v>
+        <v>100300</v>
       </c>
       <c r="K57" s="3">
         <v>110000</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>269800</v>
+        <v>271900</v>
       </c>
       <c r="E59" s="3">
-        <v>250200</v>
+        <v>252100</v>
       </c>
       <c r="F59" s="3">
-        <v>400200</v>
+        <v>403200</v>
       </c>
       <c r="G59" s="3">
-        <v>284500</v>
+        <v>286700</v>
       </c>
       <c r="H59" s="3">
-        <v>292200</v>
+        <v>294400</v>
       </c>
       <c r="I59" s="3">
-        <v>263400</v>
+        <v>265500</v>
       </c>
       <c r="J59" s="3">
-        <v>448200</v>
+        <v>451600</v>
       </c>
       <c r="K59" s="3">
         <v>291400</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>382600</v>
+        <v>385500</v>
       </c>
       <c r="E60" s="3">
-        <v>368000</v>
+        <v>370900</v>
       </c>
       <c r="F60" s="3">
-        <v>509600</v>
+        <v>513500</v>
       </c>
       <c r="G60" s="3">
-        <v>394000</v>
+        <v>397000</v>
       </c>
       <c r="H60" s="3">
-        <v>391500</v>
+        <v>394500</v>
       </c>
       <c r="I60" s="3">
-        <v>371900</v>
+        <v>374800</v>
       </c>
       <c r="J60" s="3">
-        <v>547700</v>
+        <v>551900</v>
       </c>
       <c r="K60" s="3">
         <v>401400</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>722100</v>
+        <v>727600</v>
       </c>
       <c r="E61" s="3">
-        <v>722900</v>
+        <v>728500</v>
       </c>
       <c r="F61" s="3">
-        <v>733000</v>
+        <v>738600</v>
       </c>
       <c r="G61" s="3">
-        <v>729400</v>
+        <v>735000</v>
       </c>
       <c r="H61" s="3">
-        <v>758300</v>
+        <v>764200</v>
       </c>
       <c r="I61" s="3">
-        <v>788400</v>
+        <v>794500</v>
       </c>
       <c r="J61" s="3">
-        <v>789500</v>
+        <v>795600</v>
       </c>
       <c r="K61" s="3">
         <v>762900</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66700</v>
+        <v>67200</v>
       </c>
       <c r="E62" s="3">
-        <v>60600</v>
+        <v>61000</v>
       </c>
       <c r="F62" s="3">
-        <v>189300</v>
+        <v>190700</v>
       </c>
       <c r="G62" s="3">
-        <v>189400</v>
+        <v>190800</v>
       </c>
       <c r="H62" s="3">
-        <v>179700</v>
+        <v>181100</v>
       </c>
       <c r="I62" s="3">
-        <v>187400</v>
+        <v>188800</v>
       </c>
       <c r="J62" s="3">
-        <v>192700</v>
+        <v>194200</v>
       </c>
       <c r="K62" s="3">
         <v>185400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1171300</v>
+        <v>1180300</v>
       </c>
       <c r="E66" s="3">
-        <v>1151500</v>
+        <v>1160300</v>
       </c>
       <c r="F66" s="3">
-        <v>1431900</v>
+        <v>1442800</v>
       </c>
       <c r="G66" s="3">
-        <v>1343500</v>
+        <v>1353800</v>
       </c>
       <c r="H66" s="3">
-        <v>1329500</v>
+        <v>1339700</v>
       </c>
       <c r="I66" s="3">
-        <v>1347700</v>
+        <v>1358000</v>
       </c>
       <c r="J66" s="3">
-        <v>1530000</v>
+        <v>1541700</v>
       </c>
       <c r="K66" s="3">
         <v>1349600</v>
@@ -4658,7 +4658,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="3">
-        <v>1322000</v>
+        <v>1332100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2305500</v>
+        <v>2323100</v>
       </c>
       <c r="E76" s="3">
-        <v>2354300</v>
+        <v>2372300</v>
       </c>
       <c r="F76" s="3">
-        <v>2282500</v>
+        <v>2300000</v>
       </c>
       <c r="G76" s="3">
-        <v>2291900</v>
+        <v>2309400</v>
       </c>
       <c r="H76" s="3">
-        <v>2238400</v>
+        <v>2255500</v>
       </c>
       <c r="I76" s="3">
-        <v>2179700</v>
+        <v>2196500</v>
       </c>
       <c r="J76" s="3">
-        <v>2082800</v>
+        <v>2098800</v>
       </c>
       <c r="K76" s="3">
         <v>2112400</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="E81" s="3">
-        <v>72700</v>
+        <v>73200</v>
       </c>
       <c r="F81" s="3">
-        <v>72300</v>
+        <v>72800</v>
       </c>
       <c r="G81" s="3">
-        <v>102000</v>
+        <v>102800</v>
       </c>
       <c r="H81" s="3">
-        <v>71500</v>
+        <v>72100</v>
       </c>
       <c r="I81" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="J81" s="3">
-        <v>84400</v>
+        <v>85000</v>
       </c>
       <c r="K81" s="3">
         <v>162600</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E83" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="F83" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="G83" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I83" s="3">
         <v>14600</v>
       </c>
-      <c r="H83" s="3">
-        <v>13800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>14500</v>
-      </c>
       <c r="J83" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="K83" s="3">
         <v>14100</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87700</v>
+        <v>88300</v>
       </c>
       <c r="E89" s="3">
-        <v>-26300</v>
+        <v>-26500</v>
       </c>
       <c r="F89" s="3">
-        <v>78500</v>
+        <v>79100</v>
       </c>
       <c r="G89" s="3">
-        <v>162700</v>
+        <v>163900</v>
       </c>
       <c r="H89" s="3">
-        <v>108200</v>
+        <v>109000</v>
       </c>
       <c r="I89" s="3">
-        <v>126400</v>
+        <v>127400</v>
       </c>
       <c r="J89" s="3">
-        <v>85100</v>
+        <v>85700</v>
       </c>
       <c r="K89" s="3">
         <v>257900</v>
@@ -5726,13 +5726,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="G91" s="3">
         <v>-2500</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>207900</v>
+        <v>209500</v>
       </c>
       <c r="E94" s="3">
         <v>-8400</v>
       </c>
       <c r="F94" s="3">
-        <v>-56400</v>
+        <v>-56800</v>
       </c>
       <c r="G94" s="3">
-        <v>-96000</v>
+        <v>-96700</v>
       </c>
       <c r="H94" s="3">
-        <v>-45400</v>
+        <v>-45700</v>
       </c>
       <c r="I94" s="3">
-        <v>81200</v>
+        <v>81800</v>
       </c>
       <c r="J94" s="3">
-        <v>-57000</v>
+        <v>-57500</v>
       </c>
       <c r="K94" s="3">
         <v>-238400</v>
@@ -6296,22 +6296,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-126000</v>
+        <v>-127000</v>
       </c>
       <c r="E100" s="3">
-        <v>-150000</v>
+        <v>-151200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="G100" s="3">
-        <v>-31100</v>
+        <v>-31300</v>
       </c>
       <c r="H100" s="3">
-        <v>-24600</v>
+        <v>-24800</v>
       </c>
       <c r="I100" s="3">
-        <v>-178800</v>
+        <v>-180200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -6367,13 +6367,13 @@
         <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
       </c>
       <c r="G101" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H101" s="3">
         <v>-7100</v>
@@ -6382,7 +6382,7 @@
         <v>-800</v>
       </c>
       <c r="J101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>-900</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>169000</v>
+        <v>170300</v>
       </c>
       <c r="E102" s="3">
-        <v>-189200</v>
+        <v>-190600</v>
       </c>
       <c r="F102" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="G102" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="H102" s="3">
-        <v>31100</v>
+        <v>31400</v>
       </c>
       <c r="I102" s="3">
-        <v>27900</v>
+        <v>28100</v>
       </c>
       <c r="J102" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="K102" s="3">
         <v>-39800</v>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>593100</v>
+        <v>541400</v>
       </c>
       <c r="E8" s="3">
-        <v>579200</v>
+        <v>554000</v>
       </c>
       <c r="F8" s="3">
-        <v>547500</v>
+        <v>541100</v>
       </c>
       <c r="G8" s="3">
-        <v>598700</v>
+        <v>511400</v>
       </c>
       <c r="H8" s="3">
-        <v>594200</v>
+        <v>559300</v>
       </c>
       <c r="I8" s="3">
-        <v>610300</v>
+        <v>555100</v>
       </c>
       <c r="J8" s="3">
+        <v>570000</v>
+      </c>
+      <c r="K8" s="3">
         <v>567000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>721800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>685500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>647800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>566300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2039700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>529700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>452300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>396600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>379200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>939700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>46300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>265200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>246100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>344400</v>
+        <v>322900</v>
       </c>
       <c r="E9" s="3">
-        <v>326600</v>
+        <v>321700</v>
       </c>
       <c r="F9" s="3">
-        <v>305800</v>
+        <v>305100</v>
       </c>
       <c r="G9" s="3">
-        <v>322300</v>
+        <v>285600</v>
       </c>
       <c r="H9" s="3">
-        <v>318800</v>
+        <v>301000</v>
       </c>
       <c r="I9" s="3">
-        <v>321200</v>
+        <v>297800</v>
       </c>
       <c r="J9" s="3">
+        <v>300100</v>
+      </c>
+      <c r="K9" s="3">
         <v>296100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>362100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>339300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>322000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>285000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1092700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>295100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>246800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>191100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>196500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>452600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>120400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>110200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>248600</v>
+        <v>218500</v>
       </c>
       <c r="E10" s="3">
-        <v>252600</v>
+        <v>232200</v>
       </c>
       <c r="F10" s="3">
-        <v>241700</v>
+        <v>236000</v>
       </c>
       <c r="G10" s="3">
-        <v>276500</v>
+        <v>225800</v>
       </c>
       <c r="H10" s="3">
-        <v>275400</v>
+        <v>258200</v>
       </c>
       <c r="I10" s="3">
-        <v>289000</v>
+        <v>257300</v>
       </c>
       <c r="J10" s="3">
+        <v>270000</v>
+      </c>
+      <c r="K10" s="3">
         <v>270900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>359800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>346200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>325900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>281300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>947000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>234700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>205500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>205600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>182700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>487100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>24000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>144800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>135900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41200</v>
+        <v>46600</v>
       </c>
       <c r="E12" s="3">
-        <v>42100</v>
+        <v>38500</v>
       </c>
       <c r="F12" s="3">
-        <v>44900</v>
+        <v>39300</v>
       </c>
       <c r="G12" s="3">
-        <v>51600</v>
+        <v>41900</v>
       </c>
       <c r="H12" s="3">
-        <v>47200</v>
+        <v>48200</v>
       </c>
       <c r="I12" s="3">
-        <v>44000</v>
+        <v>44100</v>
       </c>
       <c r="J12" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K12" s="3">
         <v>41400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>46500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>39300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>37900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>115700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>647900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1141,36 +1160,36 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1181,36 +1200,39 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5500</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
+      <c r="G15" s="3">
+        <v>2700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -1221,8 +1243,8 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>520400</v>
+        <v>1133300</v>
       </c>
       <c r="E17" s="3">
-        <v>471000</v>
+        <v>486100</v>
       </c>
       <c r="F17" s="3">
-        <v>471800</v>
+        <v>439900</v>
       </c>
       <c r="G17" s="3">
-        <v>505800</v>
+        <v>440700</v>
       </c>
       <c r="H17" s="3">
-        <v>510400</v>
+        <v>472500</v>
       </c>
       <c r="I17" s="3">
-        <v>482000</v>
+        <v>476800</v>
       </c>
       <c r="J17" s="3">
+        <v>450300</v>
+      </c>
+      <c r="K17" s="3">
         <v>474200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>529500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>534300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>503100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>508500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1549400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>436200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>323800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>262200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>274100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>687900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>36000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>174200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>163200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72700</v>
+        <v>-591900</v>
       </c>
       <c r="E18" s="3">
-        <v>108300</v>
+        <v>67900</v>
       </c>
       <c r="F18" s="3">
-        <v>75800</v>
+        <v>101100</v>
       </c>
       <c r="G18" s="3">
-        <v>92900</v>
+        <v>70800</v>
       </c>
       <c r="H18" s="3">
-        <v>83800</v>
+        <v>86800</v>
       </c>
       <c r="I18" s="3">
-        <v>128200</v>
+        <v>78300</v>
       </c>
       <c r="J18" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K18" s="3">
         <v>92800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>192400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>151200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>144700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>490300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>93500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>128500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>134500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>105100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>251700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>91000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>82900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,167 +1480,174 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="F20" s="3">
-        <v>14100</v>
+        <v>12400</v>
       </c>
       <c r="G20" s="3">
-        <v>17800</v>
+        <v>13100</v>
       </c>
       <c r="H20" s="3">
-        <v>16400</v>
+        <v>16600</v>
       </c>
       <c r="I20" s="3">
-        <v>17100</v>
+        <v>15400</v>
       </c>
       <c r="J20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K20" s="3">
         <v>20600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>99000</v>
+        <v>-571700</v>
       </c>
       <c r="E21" s="3">
-        <v>133500</v>
+        <v>92500</v>
       </c>
       <c r="F21" s="3">
-        <v>102400</v>
+        <v>124700</v>
       </c>
       <c r="G21" s="3">
-        <v>125400</v>
+        <v>95600</v>
       </c>
       <c r="H21" s="3">
-        <v>114200</v>
+        <v>117200</v>
       </c>
       <c r="I21" s="3">
-        <v>159900</v>
+        <v>106600</v>
       </c>
       <c r="J21" s="3">
+        <v>149400</v>
+      </c>
+      <c r="K21" s="3">
         <v>128000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>223200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>181300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>174000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>85300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>568500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>116900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>143000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>146000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>123400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>267500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>11400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>96900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>87800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3100</v>
       </c>
       <c r="K22" s="3">
         <v>3100</v>
@@ -1617,31 +1656,31 @@
         <v>3100</v>
       </c>
       <c r="M22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>10</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>10</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>84500</v>
+        <v>-579600</v>
       </c>
       <c r="E23" s="3">
-        <v>118600</v>
+        <v>78900</v>
       </c>
       <c r="F23" s="3">
-        <v>86900</v>
+        <v>110800</v>
       </c>
       <c r="G23" s="3">
-        <v>107700</v>
+        <v>81200</v>
       </c>
       <c r="H23" s="3">
-        <v>97100</v>
+        <v>100600</v>
       </c>
       <c r="I23" s="3">
-        <v>142200</v>
+        <v>90700</v>
       </c>
       <c r="J23" s="3">
+        <v>132800</v>
+      </c>
+      <c r="K23" s="3">
         <v>110300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>205900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>164300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>157400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>69200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>523200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>102000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>134300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>112200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>266200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>94800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>85600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22600</v>
+        <v>43700</v>
       </c>
       <c r="E24" s="3">
-        <v>46000</v>
+        <v>21100</v>
       </c>
       <c r="F24" s="3">
-        <v>14400</v>
+        <v>43000</v>
       </c>
       <c r="G24" s="3">
-        <v>900</v>
+        <v>13500</v>
       </c>
       <c r="H24" s="3">
-        <v>22700</v>
+        <v>800</v>
       </c>
       <c r="I24" s="3">
-        <v>70000</v>
+        <v>21200</v>
       </c>
       <c r="J24" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K24" s="3">
         <v>25700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>106400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>47300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>61900</v>
+        <v>-623300</v>
       </c>
       <c r="E26" s="3">
-        <v>72600</v>
+        <v>57800</v>
       </c>
       <c r="F26" s="3">
-        <v>72500</v>
+        <v>67900</v>
       </c>
       <c r="G26" s="3">
-        <v>106900</v>
+        <v>67700</v>
       </c>
       <c r="H26" s="3">
-        <v>74400</v>
+        <v>99800</v>
       </c>
       <c r="I26" s="3">
-        <v>72200</v>
+        <v>69500</v>
       </c>
       <c r="J26" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K26" s="3">
         <v>84600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>166900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>113100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>416800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>105800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>116800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>93500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>218900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>79000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>82500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63600</v>
+        <v>-625200</v>
       </c>
       <c r="E27" s="3">
-        <v>73200</v>
+        <v>59400</v>
       </c>
       <c r="F27" s="3">
-        <v>72800</v>
+        <v>68400</v>
       </c>
       <c r="G27" s="3">
-        <v>102800</v>
+        <v>68000</v>
       </c>
       <c r="H27" s="3">
-        <v>72100</v>
+        <v>96000</v>
       </c>
       <c r="I27" s="3">
-        <v>72000</v>
+        <v>67300</v>
       </c>
       <c r="J27" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K27" s="3">
         <v>85000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>162600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>137600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>114200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>428300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>84200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>118400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>95700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>223100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>81200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>80600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14800</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="F32" s="3">
-        <v>-14100</v>
+        <v>-12400</v>
       </c>
       <c r="G32" s="3">
-        <v>-17800</v>
+        <v>-13100</v>
       </c>
       <c r="H32" s="3">
-        <v>-16400</v>
+        <v>-16600</v>
       </c>
       <c r="I32" s="3">
-        <v>-17100</v>
+        <v>-15400</v>
       </c>
       <c r="J32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63600</v>
+        <v>-625200</v>
       </c>
       <c r="E33" s="3">
-        <v>73200</v>
+        <v>59400</v>
       </c>
       <c r="F33" s="3">
-        <v>72800</v>
+        <v>68400</v>
       </c>
       <c r="G33" s="3">
-        <v>102800</v>
+        <v>68000</v>
       </c>
       <c r="H33" s="3">
-        <v>72100</v>
+        <v>96000</v>
       </c>
       <c r="I33" s="3">
-        <v>72000</v>
+        <v>67300</v>
       </c>
       <c r="J33" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K33" s="3">
         <v>85000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>162600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>137600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>114200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>428300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>84200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>118400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>95700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>223100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>81200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>80600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63600</v>
+        <v>-625200</v>
       </c>
       <c r="E35" s="3">
-        <v>73200</v>
+        <v>59400</v>
       </c>
       <c r="F35" s="3">
-        <v>72800</v>
+        <v>68400</v>
       </c>
       <c r="G35" s="3">
-        <v>102800</v>
+        <v>68000</v>
       </c>
       <c r="H35" s="3">
-        <v>72100</v>
+        <v>96000</v>
       </c>
       <c r="I35" s="3">
-        <v>72000</v>
+        <v>67300</v>
       </c>
       <c r="J35" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K35" s="3">
         <v>85000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>162600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>137600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>114200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>428300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>84200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>118400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>95700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>223100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>81200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>80600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2746,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>518100</v>
+        <v>820900</v>
       </c>
       <c r="E41" s="3">
-        <v>347800</v>
+        <v>483900</v>
       </c>
       <c r="F41" s="3">
-        <v>550600</v>
+        <v>324800</v>
       </c>
       <c r="G41" s="3">
-        <v>530700</v>
+        <v>514300</v>
       </c>
       <c r="H41" s="3">
-        <v>501100</v>
+        <v>495700</v>
       </c>
       <c r="I41" s="3">
-        <v>469700</v>
+        <v>468100</v>
       </c>
       <c r="J41" s="3">
+        <v>438800</v>
+      </c>
+      <c r="K41" s="3">
         <v>441600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>402300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>442100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>407400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>375400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>46000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>662200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>76700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>65800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>388700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>257600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>948100</v>
+        <v>421400</v>
       </c>
       <c r="E42" s="3">
-        <v>1162000</v>
+        <v>885600</v>
       </c>
       <c r="F42" s="3">
-        <v>1248400</v>
+        <v>1085400</v>
       </c>
       <c r="G42" s="3">
-        <v>1193700</v>
+        <v>1166100</v>
       </c>
       <c r="H42" s="3">
-        <v>1252300</v>
+        <v>1115000</v>
       </c>
       <c r="I42" s="3">
-        <v>1467000</v>
+        <v>1169700</v>
       </c>
       <c r="J42" s="3">
+        <v>1370300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1998500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1895900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1662800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1677700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1420400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1342400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>174200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>59700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>83100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>362500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>64400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>59800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>351200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>393800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34500</v>
+        <v>30200</v>
       </c>
       <c r="E43" s="3">
-        <v>34200</v>
+        <v>32300</v>
       </c>
       <c r="F43" s="3">
-        <v>32800</v>
+        <v>32000</v>
       </c>
       <c r="G43" s="3">
-        <v>31700</v>
+        <v>30700</v>
       </c>
       <c r="H43" s="3">
-        <v>36800</v>
+        <v>29600</v>
       </c>
       <c r="I43" s="3">
-        <v>40500</v>
+        <v>34400</v>
       </c>
       <c r="J43" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K43" s="3">
         <v>47000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>43000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>49100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>32900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>36200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3028,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129700</v>
+        <v>114200</v>
       </c>
       <c r="E45" s="3">
-        <v>116100</v>
+        <v>121200</v>
       </c>
       <c r="F45" s="3">
-        <v>110400</v>
+        <v>108400</v>
       </c>
       <c r="G45" s="3">
-        <v>97200</v>
+        <v>103100</v>
       </c>
       <c r="H45" s="3">
-        <v>116500</v>
+        <v>90700</v>
       </c>
       <c r="I45" s="3">
-        <v>87500</v>
+        <v>108800</v>
       </c>
       <c r="J45" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K45" s="3">
         <v>94400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>92200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>97800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>92800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>94500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>79900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>37400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1630500</v>
+        <v>1386800</v>
       </c>
       <c r="E46" s="3">
-        <v>1660200</v>
+        <v>1523000</v>
       </c>
       <c r="F46" s="3">
-        <v>1942300</v>
+        <v>1550700</v>
       </c>
       <c r="G46" s="3">
-        <v>1853200</v>
+        <v>1814300</v>
       </c>
       <c r="H46" s="3">
-        <v>1906700</v>
+        <v>1731000</v>
       </c>
       <c r="I46" s="3">
-        <v>2064800</v>
+        <v>1781000</v>
       </c>
       <c r="J46" s="3">
+        <v>1928700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2581500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2431900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2263000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2089300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1967800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1921800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>243700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>169900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>155400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1147800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>154600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>138200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>810200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>720200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116300</v>
+        <v>120800</v>
       </c>
       <c r="E47" s="3">
-        <v>115700</v>
+        <v>108700</v>
       </c>
       <c r="F47" s="3">
-        <v>69900</v>
+        <v>108100</v>
       </c>
       <c r="G47" s="3">
-        <v>71800</v>
+        <v>65300</v>
       </c>
       <c r="H47" s="3">
-        <v>75200</v>
+        <v>67000</v>
       </c>
       <c r="I47" s="3">
-        <v>77700</v>
+        <v>70300</v>
       </c>
       <c r="J47" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K47" s="3">
         <v>78000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>74400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>69700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>68100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>35900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>31900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80800</v>
+        <v>64600</v>
       </c>
       <c r="E48" s="3">
-        <v>70800</v>
+        <v>75500</v>
       </c>
       <c r="F48" s="3">
-        <v>80400</v>
+        <v>66100</v>
       </c>
       <c r="G48" s="3">
-        <v>85800</v>
+        <v>75100</v>
       </c>
       <c r="H48" s="3">
-        <v>65900</v>
+        <v>80200</v>
       </c>
       <c r="I48" s="3">
-        <v>74500</v>
+        <v>61500</v>
       </c>
       <c r="J48" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K48" s="3">
         <v>79400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>89800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>81800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>38400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>727300</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>734100</v>
+        <v>679400</v>
       </c>
       <c r="F49" s="3">
-        <v>750600</v>
+        <v>685700</v>
       </c>
       <c r="G49" s="3">
-        <v>753400</v>
+        <v>701100</v>
       </c>
       <c r="H49" s="3">
-        <v>789700</v>
+        <v>703700</v>
       </c>
       <c r="I49" s="3">
-        <v>827700</v>
+        <v>737600</v>
       </c>
       <c r="J49" s="3">
+        <v>773200</v>
+      </c>
+      <c r="K49" s="3">
         <v>835900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>808500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>836200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>820200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>787900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>812900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>113700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>113200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10500</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1100</v>
       </c>
       <c r="U49" s="3">
         <v>1100</v>
       </c>
       <c r="V49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W49" s="3">
         <v>7300</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>948500</v>
+        <v>1092600</v>
       </c>
       <c r="E52" s="3">
-        <v>951900</v>
+        <v>886000</v>
       </c>
       <c r="F52" s="3">
-        <v>899700</v>
+        <v>889100</v>
       </c>
       <c r="G52" s="3">
-        <v>899100</v>
+        <v>840300</v>
       </c>
       <c r="H52" s="3">
-        <v>757800</v>
+        <v>839800</v>
       </c>
       <c r="I52" s="3">
-        <v>509800</v>
+        <v>707800</v>
       </c>
       <c r="J52" s="3">
+        <v>476200</v>
+      </c>
+      <c r="K52" s="3">
         <v>65600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3503400</v>
+        <v>2668900</v>
       </c>
       <c r="E54" s="3">
-        <v>3532700</v>
+        <v>3272500</v>
       </c>
       <c r="F54" s="3">
-        <v>3742900</v>
+        <v>3299800</v>
       </c>
       <c r="G54" s="3">
-        <v>3663300</v>
+        <v>3496100</v>
       </c>
       <c r="H54" s="3">
-        <v>3595200</v>
+        <v>3421800</v>
       </c>
       <c r="I54" s="3">
-        <v>3554500</v>
+        <v>3358200</v>
       </c>
       <c r="J54" s="3">
+        <v>3320200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3640500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3462000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3278300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3083700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2922800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2885000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>376600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>301800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>207300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1257200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>166700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>148400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>875600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>769700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>113600</v>
+        <v>107000</v>
       </c>
       <c r="E57" s="3">
-        <v>118700</v>
+        <v>106100</v>
       </c>
       <c r="F57" s="3">
-        <v>110300</v>
+        <v>110900</v>
       </c>
       <c r="G57" s="3">
-        <v>110300</v>
+        <v>103000</v>
       </c>
       <c r="H57" s="3">
-        <v>100100</v>
+        <v>103100</v>
       </c>
       <c r="I57" s="3">
+        <v>93500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>110000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>95200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>121500</v>
+      </c>
+      <c r="O57" s="3">
+        <v>109700</v>
+      </c>
+      <c r="P57" s="3">
         <v>109300</v>
       </c>
-      <c r="J57" s="3">
-        <v>100300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>110000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>95200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>121500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>109700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>109300</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>72000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>40500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,192 +3934,201 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271900</v>
+        <v>263700</v>
       </c>
       <c r="E59" s="3">
-        <v>252100</v>
+        <v>254000</v>
       </c>
       <c r="F59" s="3">
-        <v>403200</v>
+        <v>235500</v>
       </c>
       <c r="G59" s="3">
-        <v>286700</v>
+        <v>376600</v>
       </c>
       <c r="H59" s="3">
-        <v>294400</v>
+        <v>267800</v>
       </c>
       <c r="I59" s="3">
-        <v>265500</v>
+        <v>275000</v>
       </c>
       <c r="J59" s="3">
+        <v>248000</v>
+      </c>
+      <c r="K59" s="3">
         <v>451600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>291400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>273200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>224900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>354400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>179100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>19800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>96400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>93200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>385500</v>
+        <v>370700</v>
       </c>
       <c r="E60" s="3">
+        <v>360100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>346400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>479600</v>
+      </c>
+      <c r="H60" s="3">
         <v>370900</v>
       </c>
-      <c r="F60" s="3">
-        <v>513500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>397000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>394500</v>
-      </c>
       <c r="I60" s="3">
-        <v>374800</v>
+        <v>368500</v>
       </c>
       <c r="J60" s="3">
+        <v>350100</v>
+      </c>
+      <c r="K60" s="3">
         <v>551900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>401400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>368300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>346400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>464000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>410200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>251100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>143500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>133700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>727600</v>
+        <v>672700</v>
       </c>
       <c r="E61" s="3">
-        <v>728500</v>
+        <v>679600</v>
       </c>
       <c r="F61" s="3">
-        <v>738600</v>
+        <v>680400</v>
       </c>
       <c r="G61" s="3">
-        <v>735000</v>
+        <v>689900</v>
       </c>
       <c r="H61" s="3">
-        <v>764200</v>
+        <v>686500</v>
       </c>
       <c r="I61" s="3">
-        <v>794500</v>
+        <v>713800</v>
       </c>
       <c r="J61" s="3">
+        <v>742100</v>
+      </c>
+      <c r="K61" s="3">
         <v>795600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>762900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>782600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>760900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>724700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>741900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>102900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,76 +4147,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67200</v>
+        <v>65500</v>
       </c>
       <c r="E62" s="3">
-        <v>61000</v>
+        <v>62800</v>
       </c>
       <c r="F62" s="3">
-        <v>190700</v>
+        <v>57000</v>
       </c>
       <c r="G62" s="3">
-        <v>190800</v>
+        <v>178200</v>
       </c>
       <c r="H62" s="3">
-        <v>181100</v>
+        <v>178200</v>
       </c>
       <c r="I62" s="3">
-        <v>188800</v>
+        <v>169200</v>
       </c>
       <c r="J62" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K62" s="3">
         <v>194200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>185400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>195900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>193800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>137400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>56200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4000</v>
-      </c>
-      <c r="T62" s="3">
-        <v>700</v>
       </c>
       <c r="U62" s="3">
         <v>700</v>
       </c>
       <c r="V62" s="3">
+        <v>700</v>
+      </c>
+      <c r="W62" s="3">
         <v>4700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1180300</v>
+        <v>1129500</v>
       </c>
       <c r="E66" s="3">
-        <v>1160300</v>
+        <v>1102500</v>
       </c>
       <c r="F66" s="3">
-        <v>1442800</v>
+        <v>1083800</v>
       </c>
       <c r="G66" s="3">
-        <v>1353800</v>
+        <v>1347700</v>
       </c>
       <c r="H66" s="3">
-        <v>1339700</v>
+        <v>1264600</v>
       </c>
       <c r="I66" s="3">
-        <v>1358000</v>
+        <v>1251400</v>
       </c>
       <c r="J66" s="3">
+        <v>1268500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1541700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1349600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1346900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1301100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1326200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1208200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>161000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>98500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>255100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>148300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>135700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,13 +4813,16 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>689300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
@@ -4657,11 +4830,11 @@
       <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="3">
-        <v>1332100</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1244300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
@@ -4678,8 +4851,8 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -4694,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
         <v>54900</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>10</v>
@@ -4705,14 +4878,17 @@
       <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X72" s="3">
         <v>51100</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2323100</v>
+        <v>1539400</v>
       </c>
       <c r="E76" s="3">
-        <v>2372300</v>
+        <v>2170000</v>
       </c>
       <c r="F76" s="3">
-        <v>2300000</v>
+        <v>2216000</v>
       </c>
       <c r="G76" s="3">
-        <v>2309400</v>
+        <v>2148400</v>
       </c>
       <c r="H76" s="3">
-        <v>2255500</v>
+        <v>2157200</v>
       </c>
       <c r="I76" s="3">
-        <v>2196500</v>
+        <v>2106800</v>
       </c>
       <c r="J76" s="3">
+        <v>2051700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2098800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2112400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1931400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1782600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1596500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1676800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>215700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>203300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>173100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1002100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>135100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>119900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>727300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>634000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63600</v>
+        <v>-625200</v>
       </c>
       <c r="E81" s="3">
-        <v>73200</v>
+        <v>59400</v>
       </c>
       <c r="F81" s="3">
-        <v>72800</v>
+        <v>68400</v>
       </c>
       <c r="G81" s="3">
-        <v>102800</v>
+        <v>68000</v>
       </c>
       <c r="H81" s="3">
-        <v>72100</v>
+        <v>96000</v>
       </c>
       <c r="I81" s="3">
-        <v>72000</v>
+        <v>67300</v>
       </c>
       <c r="J81" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K81" s="3">
         <v>85000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>162600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>137600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>114200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>428300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>84200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>118400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>95700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>223100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>81200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>80600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11600</v>
+        <v>5200</v>
       </c>
       <c r="E83" s="3">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="F83" s="3">
-        <v>12500</v>
+        <v>11200</v>
       </c>
       <c r="G83" s="3">
-        <v>14700</v>
+        <v>11700</v>
       </c>
       <c r="H83" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="M83" s="3">
         <v>13900</v>
       </c>
-      <c r="I83" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>14600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>14100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>88300</v>
+        <v>98100</v>
       </c>
       <c r="E89" s="3">
-        <v>-26500</v>
+        <v>82500</v>
       </c>
       <c r="F89" s="3">
-        <v>79100</v>
+        <v>-24700</v>
       </c>
       <c r="G89" s="3">
-        <v>163900</v>
+        <v>73900</v>
       </c>
       <c r="H89" s="3">
-        <v>109000</v>
+        <v>153100</v>
       </c>
       <c r="I89" s="3">
-        <v>127400</v>
+        <v>101800</v>
       </c>
       <c r="J89" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K89" s="3">
         <v>85700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>257900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>181100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>221800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>178900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>506200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>142400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>118400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>382600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>45700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>95400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>107200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="M91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-2500</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>209500</v>
+        <v>241100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8400</v>
+        <v>195700</v>
       </c>
       <c r="F94" s="3">
-        <v>-56800</v>
+        <v>-7900</v>
       </c>
       <c r="G94" s="3">
-        <v>-96700</v>
+        <v>-53100</v>
       </c>
       <c r="H94" s="3">
-        <v>-45700</v>
+        <v>-90300</v>
       </c>
       <c r="I94" s="3">
-        <v>81800</v>
+        <v>-42700</v>
       </c>
       <c r="J94" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-57500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-238400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-232700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-146000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-117600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-63700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>33500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-87300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-127000</v>
+        <v>-800</v>
       </c>
       <c r="E100" s="3">
-        <v>-151200</v>
+        <v>-118600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3000</v>
+        <v>-141200</v>
       </c>
       <c r="G100" s="3">
-        <v>-31300</v>
+        <v>-2800</v>
       </c>
       <c r="H100" s="3">
-        <v>-24800</v>
+        <v>-29300</v>
       </c>
       <c r="I100" s="3">
-        <v>-180200</v>
+        <v>-23200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-168300</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-58500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-136900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>713100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>404000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>273800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4600</v>
+        <v>-500</v>
       </c>
       <c r="F101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H101" s="3">
-        <v>-7100</v>
+        <v>-5600</v>
       </c>
       <c r="I101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-8400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>170300</v>
+        <v>336500</v>
       </c>
       <c r="E102" s="3">
-        <v>-190600</v>
+        <v>159000</v>
       </c>
       <c r="F102" s="3">
-        <v>20000</v>
+        <v>-178100</v>
       </c>
       <c r="G102" s="3">
-        <v>29900</v>
+        <v>18600</v>
       </c>
       <c r="H102" s="3">
-        <v>31400</v>
+        <v>27900</v>
       </c>
       <c r="I102" s="3">
-        <v>28100</v>
+        <v>29300</v>
       </c>
       <c r="J102" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K102" s="3">
         <v>29400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>174800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-147100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-303400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-42400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>358400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>38500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>131100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>541400</v>
+        <v>459700</v>
       </c>
       <c r="E8" s="3">
-        <v>554000</v>
+        <v>536500</v>
       </c>
       <c r="F8" s="3">
-        <v>541100</v>
+        <v>549000</v>
       </c>
       <c r="G8" s="3">
-        <v>511400</v>
+        <v>536200</v>
       </c>
       <c r="H8" s="3">
-        <v>559300</v>
+        <v>506800</v>
       </c>
       <c r="I8" s="3">
-        <v>555100</v>
+        <v>554200</v>
       </c>
       <c r="J8" s="3">
+        <v>550100</v>
+      </c>
+      <c r="K8" s="3">
         <v>570000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>567000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>721800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>685500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>647800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>566300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2039700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>529700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>452300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>396600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>379200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>939700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>46300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>265200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>246100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>322900</v>
+        <v>266000</v>
       </c>
       <c r="E9" s="3">
-        <v>321700</v>
+        <v>320000</v>
       </c>
       <c r="F9" s="3">
-        <v>305100</v>
+        <v>318800</v>
       </c>
       <c r="G9" s="3">
-        <v>285600</v>
+        <v>302300</v>
       </c>
       <c r="H9" s="3">
-        <v>301000</v>
+        <v>283000</v>
       </c>
       <c r="I9" s="3">
-        <v>297800</v>
+        <v>298300</v>
       </c>
       <c r="J9" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K9" s="3">
         <v>300100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>296100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>362100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>339300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>322000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>285000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1092700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>295100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>246800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>191100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>196500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>452600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>120400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>110200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>218500</v>
+        <v>193700</v>
       </c>
       <c r="E10" s="3">
-        <v>232200</v>
+        <v>216500</v>
       </c>
       <c r="F10" s="3">
-        <v>236000</v>
+        <v>230100</v>
       </c>
       <c r="G10" s="3">
-        <v>225800</v>
+        <v>233800</v>
       </c>
       <c r="H10" s="3">
-        <v>258200</v>
+        <v>223800</v>
       </c>
       <c r="I10" s="3">
-        <v>257300</v>
+        <v>255900</v>
       </c>
       <c r="J10" s="3">
+        <v>255000</v>
+      </c>
+      <c r="K10" s="3">
         <v>270000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>270900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>359800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>346200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>325900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>281300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>947000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>234700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>205500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>205600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>182700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>487100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>24000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>144800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>135900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46600</v>
+        <v>36500</v>
       </c>
       <c r="E12" s="3">
-        <v>38500</v>
+        <v>46100</v>
       </c>
       <c r="F12" s="3">
+        <v>38100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>41500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>47800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>41100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>41400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>45000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>46500</v>
+      </c>
+      <c r="O12" s="3">
         <v>39300</v>
       </c>
-      <c r="G12" s="3">
-        <v>41900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>48200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>41100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>41400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>45000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>46500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>39300</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>37900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>115700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>647900</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>642100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1163,36 +1183,36 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1203,39 +1223,42 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5500</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -1246,8 +1269,8 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1133300</v>
+        <v>408300</v>
       </c>
       <c r="E17" s="3">
-        <v>486100</v>
+        <v>1123100</v>
       </c>
       <c r="F17" s="3">
-        <v>439900</v>
+        <v>481700</v>
       </c>
       <c r="G17" s="3">
-        <v>440700</v>
+        <v>436000</v>
       </c>
       <c r="H17" s="3">
+        <v>436700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>468200</v>
+      </c>
+      <c r="J17" s="3">
         <v>472500</v>
       </c>
-      <c r="I17" s="3">
-        <v>476800</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>450300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>474200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>529500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>534300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>503100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>508500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1549400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>436200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>323800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>262200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>274100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>687900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>36000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>174200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>163200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-591900</v>
+        <v>51400</v>
       </c>
       <c r="E18" s="3">
-        <v>67900</v>
+        <v>-586600</v>
       </c>
       <c r="F18" s="3">
-        <v>101100</v>
+        <v>67200</v>
       </c>
       <c r="G18" s="3">
-        <v>70800</v>
+        <v>100200</v>
       </c>
       <c r="H18" s="3">
-        <v>86800</v>
+        <v>70100</v>
       </c>
       <c r="I18" s="3">
-        <v>78300</v>
+        <v>86000</v>
       </c>
       <c r="J18" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K18" s="3">
         <v>119800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>192400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>151200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>144700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>490300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>128500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>134500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>105100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>251700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>91000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>82900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,158 +1514,165 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="E20" s="3">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="F20" s="3">
-        <v>12400</v>
+        <v>13700</v>
       </c>
       <c r="G20" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="H20" s="3">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="I20" s="3">
-        <v>15400</v>
+        <v>16500</v>
       </c>
       <c r="J20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>41500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-571700</v>
+        <v>71700</v>
       </c>
       <c r="E21" s="3">
-        <v>92500</v>
+        <v>-566500</v>
       </c>
       <c r="F21" s="3">
-        <v>124700</v>
+        <v>91600</v>
       </c>
       <c r="G21" s="3">
-        <v>95600</v>
+        <v>123600</v>
       </c>
       <c r="H21" s="3">
-        <v>117200</v>
+        <v>94800</v>
       </c>
       <c r="I21" s="3">
-        <v>106600</v>
+        <v>116100</v>
       </c>
       <c r="J21" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K21" s="3">
         <v>149400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>223200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>181300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>174000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>85300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>568500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>116900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>143000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>146000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>123400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>267500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>96900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>87800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2800</v>
       </c>
       <c r="F22" s="3">
         <v>2700</v>
@@ -1641,16 +1681,16 @@
         <v>2700</v>
       </c>
       <c r="H22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3100</v>
       </c>
       <c r="L22" s="3">
         <v>3100</v>
@@ -1659,31 +1699,31 @@
         <v>3100</v>
       </c>
       <c r="N22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>10</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-579600</v>
+        <v>64600</v>
       </c>
       <c r="E23" s="3">
-        <v>78900</v>
+        <v>-574400</v>
       </c>
       <c r="F23" s="3">
-        <v>110800</v>
+        <v>78200</v>
       </c>
       <c r="G23" s="3">
-        <v>81200</v>
+        <v>109800</v>
       </c>
       <c r="H23" s="3">
-        <v>100600</v>
+        <v>80500</v>
       </c>
       <c r="I23" s="3">
-        <v>90700</v>
+        <v>99700</v>
       </c>
       <c r="J23" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K23" s="3">
         <v>132800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>110300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>205900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>164300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>157400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>523200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>102000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>134300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>141300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>112200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>266200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>94800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>85600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43700</v>
+        <v>22000</v>
       </c>
       <c r="E24" s="3">
-        <v>21100</v>
+        <v>43300</v>
       </c>
       <c r="F24" s="3">
-        <v>43000</v>
+        <v>20900</v>
       </c>
       <c r="G24" s="3">
-        <v>13500</v>
+        <v>42600</v>
       </c>
       <c r="H24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>21200</v>
-      </c>
       <c r="J24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K24" s="3">
         <v>65400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>106400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>47300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-623300</v>
+        <v>42600</v>
       </c>
       <c r="E26" s="3">
-        <v>57800</v>
+        <v>-617700</v>
       </c>
       <c r="F26" s="3">
-        <v>67900</v>
+        <v>57300</v>
       </c>
       <c r="G26" s="3">
-        <v>67700</v>
+        <v>67200</v>
       </c>
       <c r="H26" s="3">
-        <v>99800</v>
+        <v>67100</v>
       </c>
       <c r="I26" s="3">
-        <v>69500</v>
+        <v>98900</v>
       </c>
       <c r="J26" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K26" s="3">
         <v>67400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>166900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>113100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>44300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>416800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>105800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>116800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>93500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>218900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>8900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>79000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>82500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-625200</v>
+        <v>42300</v>
       </c>
       <c r="E27" s="3">
-        <v>59400</v>
+        <v>-619600</v>
       </c>
       <c r="F27" s="3">
-        <v>68400</v>
+        <v>58900</v>
       </c>
       <c r="G27" s="3">
-        <v>68000</v>
+        <v>67800</v>
       </c>
       <c r="H27" s="3">
-        <v>96000</v>
+        <v>67400</v>
       </c>
       <c r="I27" s="3">
+        <v>95100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K27" s="3">
         <v>67300</v>
       </c>
-      <c r="J27" s="3">
-        <v>67300</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>85000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>162600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>137600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>114200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>44000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>428300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>84200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>118400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>95700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>223100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>9000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>81200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>80600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>-16000</v>
       </c>
       <c r="E32" s="3">
-        <v>-13800</v>
+        <v>-14800</v>
       </c>
       <c r="F32" s="3">
-        <v>-12400</v>
+        <v>-13700</v>
       </c>
       <c r="G32" s="3">
-        <v>-13100</v>
+        <v>-12300</v>
       </c>
       <c r="H32" s="3">
-        <v>-16600</v>
+        <v>-13000</v>
       </c>
       <c r="I32" s="3">
-        <v>-15400</v>
+        <v>-16500</v>
       </c>
       <c r="J32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-625200</v>
+        <v>42300</v>
       </c>
       <c r="E33" s="3">
-        <v>59400</v>
+        <v>-619600</v>
       </c>
       <c r="F33" s="3">
-        <v>68400</v>
+        <v>58900</v>
       </c>
       <c r="G33" s="3">
-        <v>68000</v>
+        <v>67800</v>
       </c>
       <c r="H33" s="3">
-        <v>96000</v>
+        <v>67400</v>
       </c>
       <c r="I33" s="3">
+        <v>95100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K33" s="3">
         <v>67300</v>
       </c>
-      <c r="J33" s="3">
-        <v>67300</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>85000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>162600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>137600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>428300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>84200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>118400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>95700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>223100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>9000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>81200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>80600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-625200</v>
+        <v>42300</v>
       </c>
       <c r="E35" s="3">
-        <v>59400</v>
+        <v>-619600</v>
       </c>
       <c r="F35" s="3">
-        <v>68400</v>
+        <v>58900</v>
       </c>
       <c r="G35" s="3">
-        <v>68000</v>
+        <v>67800</v>
       </c>
       <c r="H35" s="3">
-        <v>96000</v>
+        <v>67400</v>
       </c>
       <c r="I35" s="3">
+        <v>95100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K35" s="3">
         <v>67300</v>
       </c>
-      <c r="J35" s="3">
-        <v>67300</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>85000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>162600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>137600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>428300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>84200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>118400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>95700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>223100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>9000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>81200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>80600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,221 +2833,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>820900</v>
+        <v>748400</v>
       </c>
       <c r="E41" s="3">
-        <v>483900</v>
+        <v>813500</v>
       </c>
       <c r="F41" s="3">
-        <v>324800</v>
+        <v>479500</v>
       </c>
       <c r="G41" s="3">
-        <v>514300</v>
+        <v>321900</v>
       </c>
       <c r="H41" s="3">
-        <v>495700</v>
+        <v>509700</v>
       </c>
       <c r="I41" s="3">
-        <v>468100</v>
+        <v>491200</v>
       </c>
       <c r="J41" s="3">
+        <v>463900</v>
+      </c>
+      <c r="K41" s="3">
         <v>438800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>441600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>402300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>442100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>270800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>407400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>375400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>46000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>662200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>76700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>65800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>388700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>257600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>421400</v>
+        <v>387000</v>
       </c>
       <c r="E42" s="3">
-        <v>885600</v>
+        <v>417600</v>
       </c>
       <c r="F42" s="3">
-        <v>1085400</v>
+        <v>877600</v>
       </c>
       <c r="G42" s="3">
-        <v>1166100</v>
+        <v>1075600</v>
       </c>
       <c r="H42" s="3">
-        <v>1115000</v>
+        <v>1155600</v>
       </c>
       <c r="I42" s="3">
-        <v>1169700</v>
+        <v>1104900</v>
       </c>
       <c r="J42" s="3">
+        <v>1159100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1370300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1998500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1895900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1662800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1677700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1420400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1342400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>174200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>59700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>83100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>362500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>64400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>59800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>351200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>393800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30200</v>
+        <v>29600</v>
       </c>
       <c r="E43" s="3">
-        <v>32300</v>
+        <v>30000</v>
       </c>
       <c r="F43" s="3">
         <v>32000</v>
       </c>
       <c r="G43" s="3">
-        <v>30700</v>
+        <v>31700</v>
       </c>
       <c r="H43" s="3">
-        <v>29600</v>
+        <v>30400</v>
       </c>
       <c r="I43" s="3">
-        <v>34400</v>
+        <v>29300</v>
       </c>
       <c r="J43" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K43" s="3">
         <v>37800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>43000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>47200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>49100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>32900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>36200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,363 +3127,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114200</v>
+        <v>131300</v>
       </c>
       <c r="E45" s="3">
-        <v>121200</v>
+        <v>113200</v>
       </c>
       <c r="F45" s="3">
-        <v>108400</v>
+        <v>120100</v>
       </c>
       <c r="G45" s="3">
-        <v>103100</v>
+        <v>107500</v>
       </c>
       <c r="H45" s="3">
-        <v>90700</v>
+        <v>102200</v>
       </c>
       <c r="I45" s="3">
-        <v>108800</v>
+        <v>89900</v>
       </c>
       <c r="J45" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K45" s="3">
         <v>81800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>94400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>92200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>97800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>92800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>94500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>61200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>79900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>37400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1386800</v>
+        <v>1296300</v>
       </c>
       <c r="E46" s="3">
-        <v>1523000</v>
+        <v>1374300</v>
       </c>
       <c r="F46" s="3">
-        <v>1550700</v>
+        <v>1509200</v>
       </c>
       <c r="G46" s="3">
-        <v>1814300</v>
+        <v>1536700</v>
       </c>
       <c r="H46" s="3">
-        <v>1731000</v>
+        <v>1797900</v>
       </c>
       <c r="I46" s="3">
-        <v>1781000</v>
+        <v>1715400</v>
       </c>
       <c r="J46" s="3">
+        <v>1764900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1928700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2581500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2431900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2263000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2089300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1967800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1921800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>243700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>169900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>155400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1147800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>154600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>138200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>810200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>720200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120800</v>
+        <v>118800</v>
       </c>
       <c r="E47" s="3">
-        <v>108700</v>
+        <v>119700</v>
       </c>
       <c r="F47" s="3">
-        <v>108100</v>
+        <v>107700</v>
       </c>
       <c r="G47" s="3">
-        <v>65300</v>
+        <v>107100</v>
       </c>
       <c r="H47" s="3">
-        <v>67000</v>
+        <v>64700</v>
       </c>
       <c r="I47" s="3">
-        <v>70300</v>
+        <v>66400</v>
       </c>
       <c r="J47" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K47" s="3">
         <v>72600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>78000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>76400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>74400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>69700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>68100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>31900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>64600</v>
+        <v>60000</v>
       </c>
       <c r="E48" s="3">
-        <v>75500</v>
+        <v>64000</v>
       </c>
       <c r="F48" s="3">
-        <v>66100</v>
+        <v>74800</v>
       </c>
       <c r="G48" s="3">
-        <v>75100</v>
+        <v>65500</v>
       </c>
       <c r="H48" s="3">
-        <v>80200</v>
+        <v>74400</v>
       </c>
       <c r="I48" s="3">
-        <v>61500</v>
+        <v>79400</v>
       </c>
       <c r="J48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K48" s="3">
         <v>69600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>79400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>89800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>81800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>38400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E49" s="3">
         <v>4000</v>
       </c>
-      <c r="E49" s="3">
-        <v>679400</v>
-      </c>
       <c r="F49" s="3">
-        <v>685700</v>
+        <v>673200</v>
       </c>
       <c r="G49" s="3">
-        <v>701100</v>
+        <v>679500</v>
       </c>
       <c r="H49" s="3">
-        <v>703700</v>
+        <v>694800</v>
       </c>
       <c r="I49" s="3">
-        <v>737600</v>
+        <v>697400</v>
       </c>
       <c r="J49" s="3">
+        <v>731000</v>
+      </c>
+      <c r="K49" s="3">
         <v>773200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>835900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>808500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>836200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>820200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>787900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>812900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>113700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>113200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10500</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1100</v>
       </c>
       <c r="V49" s="3">
         <v>1100</v>
       </c>
       <c r="W49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X49" s="3">
         <v>7300</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1092600</v>
+        <v>1148900</v>
       </c>
       <c r="E52" s="3">
-        <v>886000</v>
+        <v>1082700</v>
       </c>
       <c r="F52" s="3">
-        <v>889100</v>
+        <v>878000</v>
       </c>
       <c r="G52" s="3">
-        <v>840300</v>
+        <v>881100</v>
       </c>
       <c r="H52" s="3">
-        <v>839800</v>
+        <v>832800</v>
       </c>
       <c r="I52" s="3">
-        <v>707800</v>
+        <v>832200</v>
       </c>
       <c r="J52" s="3">
+        <v>701400</v>
+      </c>
+      <c r="K52" s="3">
         <v>476200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>36600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2668900</v>
+        <v>2627800</v>
       </c>
       <c r="E54" s="3">
-        <v>3272500</v>
+        <v>2644800</v>
       </c>
       <c r="F54" s="3">
-        <v>3299800</v>
+        <v>3242900</v>
       </c>
       <c r="G54" s="3">
-        <v>3496100</v>
+        <v>3270000</v>
       </c>
       <c r="H54" s="3">
-        <v>3421800</v>
+        <v>3464600</v>
       </c>
       <c r="I54" s="3">
-        <v>3358200</v>
+        <v>3390900</v>
       </c>
       <c r="J54" s="3">
+        <v>3327900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3320200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3640500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3462000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3278300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3083700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2922800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2885000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>376600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>301800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>207300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1257200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>166700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>148400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>875600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>769700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>107000</v>
+        <v>93700</v>
       </c>
       <c r="E57" s="3">
-        <v>106100</v>
+        <v>106000</v>
       </c>
       <c r="F57" s="3">
-        <v>110900</v>
+        <v>105200</v>
       </c>
       <c r="G57" s="3">
-        <v>103000</v>
+        <v>109900</v>
       </c>
       <c r="H57" s="3">
-        <v>103100</v>
+        <v>102100</v>
       </c>
       <c r="I57" s="3">
-        <v>93500</v>
+        <v>102100</v>
       </c>
       <c r="J57" s="3">
+        <v>92600</v>
+      </c>
+      <c r="K57" s="3">
         <v>102100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>110000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>95200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>121500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>109700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>109300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>72000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>47100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>40500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,201 +4071,210 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>263700</v>
+        <v>351200</v>
       </c>
       <c r="E59" s="3">
-        <v>254000</v>
+        <v>261300</v>
       </c>
       <c r="F59" s="3">
-        <v>235500</v>
+        <v>251700</v>
       </c>
       <c r="G59" s="3">
-        <v>376600</v>
+        <v>233400</v>
       </c>
       <c r="H59" s="3">
-        <v>267800</v>
+        <v>373200</v>
       </c>
       <c r="I59" s="3">
-        <v>275000</v>
+        <v>265400</v>
       </c>
       <c r="J59" s="3">
+        <v>272500</v>
+      </c>
+      <c r="K59" s="3">
         <v>248000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>291400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>273200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>224900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>354400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>179100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>96400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>93200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>370700</v>
+        <v>445000</v>
       </c>
       <c r="E60" s="3">
-        <v>360100</v>
+        <v>367400</v>
       </c>
       <c r="F60" s="3">
+        <v>356800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>343300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>475300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>367500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>365100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>350100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>551900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>401400</v>
+      </c>
+      <c r="N60" s="3">
+        <v>368300</v>
+      </c>
+      <c r="O60" s="3">
         <v>346400</v>
       </c>
-      <c r="G60" s="3">
-        <v>479600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>370900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>368500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>350100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>551900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>401400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>368300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>346400</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>464000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>410200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>251100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>30900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>143500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>133700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>672700</v>
+        <v>646200</v>
       </c>
       <c r="E61" s="3">
-        <v>679600</v>
+        <v>666700</v>
       </c>
       <c r="F61" s="3">
-        <v>680400</v>
+        <v>673500</v>
       </c>
       <c r="G61" s="3">
-        <v>689900</v>
+        <v>674300</v>
       </c>
       <c r="H61" s="3">
-        <v>686500</v>
+        <v>683700</v>
       </c>
       <c r="I61" s="3">
-        <v>713800</v>
+        <v>680300</v>
       </c>
       <c r="J61" s="3">
+        <v>707300</v>
+      </c>
+      <c r="K61" s="3">
         <v>742100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>795600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>762900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>782600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>760900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>724700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>741900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>102900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4150,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65500</v>
+        <v>49400</v>
       </c>
       <c r="E62" s="3">
-        <v>62800</v>
+        <v>64900</v>
       </c>
       <c r="F62" s="3">
-        <v>57000</v>
+        <v>62200</v>
       </c>
       <c r="G62" s="3">
-        <v>178200</v>
+        <v>56500</v>
       </c>
       <c r="H62" s="3">
-        <v>178200</v>
+        <v>176600</v>
       </c>
       <c r="I62" s="3">
-        <v>169200</v>
+        <v>176600</v>
       </c>
       <c r="J62" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K62" s="3">
         <v>176400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>194200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>185400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>195900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>193800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>137400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>56200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>700</v>
       </c>
       <c r="V62" s="3">
         <v>700</v>
       </c>
       <c r="W62" s="3">
+        <v>700</v>
+      </c>
+      <c r="X62" s="3">
         <v>4700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1129500</v>
+        <v>1140600</v>
       </c>
       <c r="E66" s="3">
-        <v>1102500</v>
+        <v>1119300</v>
       </c>
       <c r="F66" s="3">
-        <v>1083800</v>
+        <v>1092500</v>
       </c>
       <c r="G66" s="3">
-        <v>1347700</v>
+        <v>1074100</v>
       </c>
       <c r="H66" s="3">
-        <v>1264600</v>
+        <v>1335600</v>
       </c>
       <c r="I66" s="3">
-        <v>1251400</v>
+        <v>1253200</v>
       </c>
       <c r="J66" s="3">
+        <v>1240100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1268500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1541700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1349600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1346900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1301100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1326200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1208200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>161000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>98500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>255100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>148300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>135700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,16 +4987,19 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>689300</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E72" s="3">
+        <v>683100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -4833,11 +5007,11 @@
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="3">
-        <v>1244300</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1233100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -4854,8 +5028,8 @@
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -4870,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
         <v>54900</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>10</v>
@@ -4881,14 +5055,17 @@
       <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y72" s="3">
         <v>51100</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1539400</v>
+        <v>1487200</v>
       </c>
       <c r="E76" s="3">
-        <v>2170000</v>
+        <v>1525500</v>
       </c>
       <c r="F76" s="3">
-        <v>2216000</v>
+        <v>2150400</v>
       </c>
       <c r="G76" s="3">
-        <v>2148400</v>
+        <v>2196000</v>
       </c>
       <c r="H76" s="3">
-        <v>2157200</v>
+        <v>2129000</v>
       </c>
       <c r="I76" s="3">
-        <v>2106800</v>
+        <v>2137700</v>
       </c>
       <c r="J76" s="3">
+        <v>2087800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2051700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2098800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2112400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1931400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1782600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1596500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1676800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>215700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>203300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>173100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1002100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>135100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>119900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>727300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>634000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-625200</v>
+        <v>42300</v>
       </c>
       <c r="E81" s="3">
-        <v>59400</v>
+        <v>-619600</v>
       </c>
       <c r="F81" s="3">
-        <v>68400</v>
+        <v>58900</v>
       </c>
       <c r="G81" s="3">
-        <v>68000</v>
+        <v>67800</v>
       </c>
       <c r="H81" s="3">
-        <v>96000</v>
+        <v>67400</v>
       </c>
       <c r="I81" s="3">
+        <v>95100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K81" s="3">
         <v>67300</v>
       </c>
-      <c r="J81" s="3">
-        <v>67300</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>85000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>162600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>137600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>428300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>84200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>118400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>95700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>223100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>9000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>81200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>80600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5200</v>
       </c>
-      <c r="E83" s="3">
-        <v>10800</v>
-      </c>
       <c r="F83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="O83" s="3">
+        <v>13600</v>
+      </c>
+      <c r="P83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>36700</v>
+      </c>
+      <c r="R83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="S83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="T83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="U83" s="3">
         <v>11200</v>
       </c>
-      <c r="G83" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>13700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>14600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>14100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>13600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>13200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>36700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>6900</v>
-      </c>
-      <c r="S83" s="3">
-        <v>4700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>11200</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98100</v>
+        <v>6300</v>
       </c>
       <c r="E89" s="3">
-        <v>82500</v>
+        <v>97200</v>
       </c>
       <c r="F89" s="3">
-        <v>-24700</v>
+        <v>81800</v>
       </c>
       <c r="G89" s="3">
-        <v>73900</v>
+        <v>-24500</v>
       </c>
       <c r="H89" s="3">
-        <v>153100</v>
+        <v>73200</v>
       </c>
       <c r="I89" s="3">
-        <v>101800</v>
+        <v>151700</v>
       </c>
       <c r="J89" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K89" s="3">
         <v>119000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>257900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>181100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>221800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>178900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>506200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>142400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>118400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>382600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>45700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>95400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>107200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-4600</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-4500</v>
       </c>
       <c r="G91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>241100</v>
+        <v>-37700</v>
       </c>
       <c r="E94" s="3">
-        <v>195700</v>
+        <v>239000</v>
       </c>
       <c r="F94" s="3">
-        <v>-7900</v>
+        <v>193900</v>
       </c>
       <c r="G94" s="3">
-        <v>-53100</v>
+        <v>-7800</v>
       </c>
       <c r="H94" s="3">
-        <v>-90300</v>
+        <v>-52600</v>
       </c>
       <c r="I94" s="3">
-        <v>-42700</v>
+        <v>-89500</v>
       </c>
       <c r="J94" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K94" s="3">
         <v>76400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-238400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-232700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-146000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-117600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-63700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>33500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-87300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-800</v>
+        <v>-17500</v>
       </c>
       <c r="E100" s="3">
-        <v>-118600</v>
+        <v>-700</v>
       </c>
       <c r="F100" s="3">
-        <v>-141200</v>
+        <v>-117500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2800</v>
+        <v>-139900</v>
       </c>
       <c r="H100" s="3">
-        <v>-29300</v>
+        <v>-2700</v>
       </c>
       <c r="I100" s="3">
-        <v>-23200</v>
+        <v>-29000</v>
       </c>
       <c r="J100" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-168300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-58500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-136900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>713100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>404000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>273800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-4300</v>
-      </c>
       <c r="G101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I101" s="3">
-        <v>-6700</v>
+        <v>-5500</v>
       </c>
       <c r="J101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>336500</v>
+        <v>-51200</v>
       </c>
       <c r="E102" s="3">
-        <v>159000</v>
+        <v>333500</v>
       </c>
       <c r="F102" s="3">
-        <v>-178100</v>
+        <v>157600</v>
       </c>
       <c r="G102" s="3">
-        <v>18600</v>
+        <v>-176500</v>
       </c>
       <c r="H102" s="3">
-        <v>27900</v>
+        <v>18500</v>
       </c>
       <c r="I102" s="3">
-        <v>29300</v>
+        <v>27700</v>
       </c>
       <c r="J102" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K102" s="3">
         <v>26300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>174800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-147100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-303400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-53600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-42400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>358400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>38500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>131100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>459700</v>
+        <v>433000</v>
       </c>
       <c r="E8" s="3">
-        <v>536500</v>
+        <v>438200</v>
       </c>
       <c r="F8" s="3">
-        <v>549000</v>
+        <v>511400</v>
       </c>
       <c r="G8" s="3">
-        <v>536200</v>
+        <v>523300</v>
       </c>
       <c r="H8" s="3">
-        <v>506800</v>
+        <v>511100</v>
       </c>
       <c r="I8" s="3">
-        <v>554200</v>
+        <v>483100</v>
       </c>
       <c r="J8" s="3">
+        <v>528300</v>
+      </c>
+      <c r="K8" s="3">
         <v>550100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>570000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>567000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>721800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>685500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>647800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>566300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2039700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>529700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>452300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>396600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>379200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>939700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>46300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>265200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>246100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>266000</v>
+        <v>250300</v>
       </c>
       <c r="E9" s="3">
-        <v>320000</v>
+        <v>253500</v>
       </c>
       <c r="F9" s="3">
-        <v>318800</v>
+        <v>305100</v>
       </c>
       <c r="G9" s="3">
-        <v>302300</v>
+        <v>303900</v>
       </c>
       <c r="H9" s="3">
-        <v>283000</v>
+        <v>288200</v>
       </c>
       <c r="I9" s="3">
-        <v>298300</v>
+        <v>269800</v>
       </c>
       <c r="J9" s="3">
+        <v>284400</v>
+      </c>
+      <c r="K9" s="3">
         <v>295100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>296100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>362100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>339300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>322000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>285000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1092700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>295100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>246800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>191100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>196500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>452600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>22400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>120400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>110200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>193700</v>
+        <v>182700</v>
       </c>
       <c r="E10" s="3">
-        <v>216500</v>
+        <v>184700</v>
       </c>
       <c r="F10" s="3">
-        <v>230100</v>
+        <v>206400</v>
       </c>
       <c r="G10" s="3">
-        <v>233800</v>
+        <v>219400</v>
       </c>
       <c r="H10" s="3">
-        <v>223800</v>
+        <v>222900</v>
       </c>
       <c r="I10" s="3">
-        <v>255900</v>
+        <v>213300</v>
       </c>
       <c r="J10" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K10" s="3">
         <v>255000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>270000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>270900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>359800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>346200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>325900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>281300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>947000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>234700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>205500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>205600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>182700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>487100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>24000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>144800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>135900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36500</v>
+        <v>33200</v>
       </c>
       <c r="E12" s="3">
-        <v>46100</v>
+        <v>34800</v>
       </c>
       <c r="F12" s="3">
-        <v>38100</v>
+        <v>44000</v>
       </c>
       <c r="G12" s="3">
-        <v>39000</v>
+        <v>36300</v>
       </c>
       <c r="H12" s="3">
-        <v>41500</v>
+        <v>37100</v>
       </c>
       <c r="I12" s="3">
-        <v>47800</v>
+        <v>39600</v>
       </c>
       <c r="J12" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K12" s="3">
         <v>43700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>41100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>41400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>45000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>46500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>39300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>37900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>115700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>18400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>642100</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>612100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1186,62 +1206,65 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>600</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>900</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>900</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>6600</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="W14" s="3">
-        <v>700</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5500</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,17 +1274,17 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1272,8 +1295,8 @@
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>408300</v>
+        <v>384800</v>
       </c>
       <c r="E17" s="3">
-        <v>1123100</v>
+        <v>389200</v>
       </c>
       <c r="F17" s="3">
-        <v>481700</v>
+        <v>1070600</v>
       </c>
       <c r="G17" s="3">
-        <v>436000</v>
+        <v>459200</v>
       </c>
       <c r="H17" s="3">
-        <v>436700</v>
+        <v>415600</v>
       </c>
       <c r="I17" s="3">
-        <v>468200</v>
+        <v>416300</v>
       </c>
       <c r="J17" s="3">
+        <v>446300</v>
+      </c>
+      <c r="K17" s="3">
         <v>472500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>450300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>474200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>529500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>534300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>503100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>508500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1549400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>436200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>323800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>262200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>274100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>687900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>36000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>174200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>163200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>51400</v>
+        <v>48200</v>
       </c>
       <c r="E18" s="3">
-        <v>-586600</v>
+        <v>49000</v>
       </c>
       <c r="F18" s="3">
-        <v>67200</v>
+        <v>-559100</v>
       </c>
       <c r="G18" s="3">
-        <v>100200</v>
+        <v>64100</v>
       </c>
       <c r="H18" s="3">
-        <v>70100</v>
+        <v>95500</v>
       </c>
       <c r="I18" s="3">
-        <v>86000</v>
+        <v>66800</v>
       </c>
       <c r="J18" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K18" s="3">
         <v>77600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>192400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>151200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>144700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>490300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>128500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>134500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>105100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>251700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>91000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>82900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,185 +1548,192 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
-        <v>14800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>13700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>16500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>16000</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>41500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>71700</v>
+        <v>74500</v>
       </c>
       <c r="E21" s="3">
-        <v>-566500</v>
+        <v>68300</v>
       </c>
       <c r="F21" s="3">
-        <v>91600</v>
+        <v>-540000</v>
       </c>
       <c r="G21" s="3">
-        <v>123600</v>
+        <v>87300</v>
       </c>
       <c r="H21" s="3">
-        <v>94800</v>
+        <v>117800</v>
       </c>
       <c r="I21" s="3">
-        <v>116100</v>
+        <v>90300</v>
       </c>
       <c r="J21" s="3">
+        <v>110700</v>
+      </c>
+      <c r="K21" s="3">
         <v>105700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>149400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>223200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>181300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>174000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>85300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>568500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>116900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>143000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>146000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>123400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>267500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>11400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>96900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>87800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>3900</v>
       </c>
       <c r="E22" s="3">
         <v>2700</v>
       </c>
       <c r="F22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3100</v>
       </c>
       <c r="M22" s="3">
         <v>3100</v>
@@ -1702,31 +1742,31 @@
         <v>3100</v>
       </c>
       <c r="O22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>10</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>10</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64600</v>
+        <v>66500</v>
       </c>
       <c r="E23" s="3">
-        <v>-574400</v>
+        <v>61500</v>
       </c>
       <c r="F23" s="3">
-        <v>78200</v>
+        <v>-547500</v>
       </c>
       <c r="G23" s="3">
-        <v>109800</v>
+        <v>74500</v>
       </c>
       <c r="H23" s="3">
-        <v>80500</v>
+        <v>104700</v>
       </c>
       <c r="I23" s="3">
-        <v>99700</v>
+        <v>76700</v>
       </c>
       <c r="J23" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K23" s="3">
         <v>89900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>132800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>110300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>205900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>164300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>157400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>523200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>102000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>134300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>141300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>112200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>266200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>94800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>85600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22000</v>
+        <v>20300</v>
       </c>
       <c r="E24" s="3">
-        <v>43300</v>
+        <v>21000</v>
       </c>
       <c r="F24" s="3">
-        <v>20900</v>
+        <v>41300</v>
       </c>
       <c r="G24" s="3">
-        <v>42600</v>
+        <v>19900</v>
       </c>
       <c r="H24" s="3">
-        <v>13300</v>
+        <v>40600</v>
       </c>
       <c r="I24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>106400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>47300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42600</v>
+        <v>46200</v>
       </c>
       <c r="E26" s="3">
-        <v>-617700</v>
+        <v>40600</v>
       </c>
       <c r="F26" s="3">
-        <v>57300</v>
+        <v>-588800</v>
       </c>
       <c r="G26" s="3">
-        <v>67200</v>
+        <v>54600</v>
       </c>
       <c r="H26" s="3">
-        <v>67100</v>
+        <v>64100</v>
       </c>
       <c r="I26" s="3">
-        <v>98900</v>
+        <v>64000</v>
       </c>
       <c r="J26" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K26" s="3">
         <v>68900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>84600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>166900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>113100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>44300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>416800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>105800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>116800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>93500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>218900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>79000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>82500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42300</v>
+        <v>48100</v>
       </c>
       <c r="E27" s="3">
-        <v>-619600</v>
+        <v>40400</v>
       </c>
       <c r="F27" s="3">
-        <v>58900</v>
+        <v>-590600</v>
       </c>
       <c r="G27" s="3">
-        <v>67800</v>
+        <v>56100</v>
       </c>
       <c r="H27" s="3">
-        <v>67400</v>
+        <v>64600</v>
       </c>
       <c r="I27" s="3">
-        <v>95100</v>
+        <v>64300</v>
       </c>
       <c r="J27" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K27" s="3">
         <v>66700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>162600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>137600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>44000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>428300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>84200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>107600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>118400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>95700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>223100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>9000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>81200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>80600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-41500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42300</v>
+        <v>48100</v>
       </c>
       <c r="E33" s="3">
-        <v>-619600</v>
+        <v>40400</v>
       </c>
       <c r="F33" s="3">
-        <v>58900</v>
+        <v>-590600</v>
       </c>
       <c r="G33" s="3">
-        <v>67800</v>
+        <v>56100</v>
       </c>
       <c r="H33" s="3">
-        <v>67400</v>
+        <v>64600</v>
       </c>
       <c r="I33" s="3">
-        <v>95100</v>
+        <v>64300</v>
       </c>
       <c r="J33" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K33" s="3">
         <v>66700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>85000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>162600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>137600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>44000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>428300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>84200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>118400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>95700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>223100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>9000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>81200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>80600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42300</v>
+        <v>48100</v>
       </c>
       <c r="E35" s="3">
-        <v>-619600</v>
+        <v>40400</v>
       </c>
       <c r="F35" s="3">
-        <v>58900</v>
+        <v>-590600</v>
       </c>
       <c r="G35" s="3">
-        <v>67800</v>
+        <v>56100</v>
       </c>
       <c r="H35" s="3">
-        <v>67400</v>
+        <v>64600</v>
       </c>
       <c r="I35" s="3">
-        <v>95100</v>
+        <v>64300</v>
       </c>
       <c r="J35" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K35" s="3">
         <v>66700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>85000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>162600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>137600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>44000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>428300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>84200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>118400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>95700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>223100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>9000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>81200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>80600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,230 +2920,240 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>748400</v>
+        <v>607500</v>
       </c>
       <c r="E41" s="3">
-        <v>813500</v>
+        <v>713400</v>
       </c>
       <c r="F41" s="3">
-        <v>479500</v>
+        <v>775400</v>
       </c>
       <c r="G41" s="3">
-        <v>321900</v>
+        <v>457100</v>
       </c>
       <c r="H41" s="3">
-        <v>509700</v>
+        <v>306900</v>
       </c>
       <c r="I41" s="3">
-        <v>491200</v>
+        <v>485900</v>
       </c>
       <c r="J41" s="3">
+        <v>468300</v>
+      </c>
+      <c r="K41" s="3">
         <v>463900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>438800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>441600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>402300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>442100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>270800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>407400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>375400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>46000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>662200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>76700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>65800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>388700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>257600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>387000</v>
+        <v>918700</v>
       </c>
       <c r="E42" s="3">
-        <v>417600</v>
+        <v>368900</v>
       </c>
       <c r="F42" s="3">
-        <v>877600</v>
+        <v>398100</v>
       </c>
       <c r="G42" s="3">
-        <v>1075600</v>
+        <v>836600</v>
       </c>
       <c r="H42" s="3">
-        <v>1155600</v>
+        <v>1025300</v>
       </c>
       <c r="I42" s="3">
-        <v>1104900</v>
+        <v>1101600</v>
       </c>
       <c r="J42" s="3">
+        <v>1053200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1159100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1370300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1998500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1895900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1662800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1677700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1420400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1342400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>174200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>59700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>83100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>362500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>64400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>59800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>351200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>393800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="E43" s="3">
-        <v>30000</v>
+        <v>28200</v>
       </c>
       <c r="F43" s="3">
-        <v>32000</v>
+        <v>28600</v>
       </c>
       <c r="G43" s="3">
-        <v>31700</v>
+        <v>30500</v>
       </c>
       <c r="H43" s="3">
-        <v>30400</v>
+        <v>30200</v>
       </c>
       <c r="I43" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="J43" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K43" s="3">
         <v>34100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>43000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>109500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>49100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>32900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>36200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,378 +3226,396 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131300</v>
+        <v>129000</v>
       </c>
       <c r="E45" s="3">
-        <v>113200</v>
+        <v>125200</v>
       </c>
       <c r="F45" s="3">
-        <v>120100</v>
+        <v>107900</v>
       </c>
       <c r="G45" s="3">
-        <v>107500</v>
+        <v>114500</v>
       </c>
       <c r="H45" s="3">
-        <v>102200</v>
+        <v>102400</v>
       </c>
       <c r="I45" s="3">
-        <v>89900</v>
+        <v>97400</v>
       </c>
       <c r="J45" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K45" s="3">
         <v>107800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>94400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>92200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>97800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>92800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>94500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>61200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>79900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>37400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>32700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1296300</v>
+        <v>1685000</v>
       </c>
       <c r="E46" s="3">
-        <v>1374300</v>
+        <v>1235600</v>
       </c>
       <c r="F46" s="3">
-        <v>1509200</v>
+        <v>1310000</v>
       </c>
       <c r="G46" s="3">
-        <v>1536700</v>
+        <v>1438600</v>
       </c>
       <c r="H46" s="3">
-        <v>1797900</v>
+        <v>1464800</v>
       </c>
       <c r="I46" s="3">
-        <v>1715400</v>
+        <v>1713800</v>
       </c>
       <c r="J46" s="3">
+        <v>1635200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1764900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1928700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2581500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2431900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2263000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2089300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1967800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1921800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>243700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>169900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>155400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1147800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>154600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>138200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>810200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>720200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118800</v>
+        <v>123300</v>
       </c>
       <c r="E47" s="3">
-        <v>119700</v>
+        <v>113200</v>
       </c>
       <c r="F47" s="3">
-        <v>107700</v>
+        <v>114100</v>
       </c>
       <c r="G47" s="3">
-        <v>107100</v>
+        <v>102600</v>
       </c>
       <c r="H47" s="3">
-        <v>64700</v>
+        <v>102100</v>
       </c>
       <c r="I47" s="3">
-        <v>66400</v>
+        <v>61700</v>
       </c>
       <c r="J47" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K47" s="3">
         <v>69600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>72600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>78000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>76400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>77900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>74400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>69700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>68100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>42800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>31900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>60000</v>
+        <v>51700</v>
       </c>
       <c r="E48" s="3">
-        <v>64000</v>
+        <v>57200</v>
       </c>
       <c r="F48" s="3">
-        <v>74800</v>
+        <v>61100</v>
       </c>
       <c r="G48" s="3">
-        <v>65500</v>
+        <v>71300</v>
       </c>
       <c r="H48" s="3">
-        <v>74400</v>
+        <v>62500</v>
       </c>
       <c r="I48" s="3">
+        <v>71000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="L48" s="3">
+        <v>69600</v>
+      </c>
+      <c r="M48" s="3">
         <v>79400</v>
       </c>
-      <c r="J48" s="3">
-        <v>61000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>69600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>79400</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>89800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>81800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>59000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>38400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F49" s="3">
         <v>3800</v>
       </c>
-      <c r="E49" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>673200</v>
-      </c>
       <c r="G49" s="3">
-        <v>679500</v>
+        <v>641700</v>
       </c>
       <c r="H49" s="3">
-        <v>694800</v>
+        <v>647700</v>
       </c>
       <c r="I49" s="3">
-        <v>697400</v>
+        <v>662300</v>
       </c>
       <c r="J49" s="3">
+        <v>664800</v>
+      </c>
+      <c r="K49" s="3">
         <v>731000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>773200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>835900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>808500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>836200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>820200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>787900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>812900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>113700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>113200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10500</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1100</v>
       </c>
       <c r="W49" s="3">
         <v>1100</v>
       </c>
       <c r="X49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y49" s="3">
         <v>7300</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1148900</v>
+        <v>422800</v>
       </c>
       <c r="E52" s="3">
-        <v>1082700</v>
+        <v>1095200</v>
       </c>
       <c r="F52" s="3">
-        <v>878000</v>
+        <v>1032100</v>
       </c>
       <c r="G52" s="3">
-        <v>881100</v>
+        <v>837000</v>
       </c>
       <c r="H52" s="3">
-        <v>832800</v>
+        <v>839900</v>
       </c>
       <c r="I52" s="3">
-        <v>832200</v>
+        <v>793800</v>
       </c>
       <c r="J52" s="3">
+        <v>793300</v>
+      </c>
+      <c r="K52" s="3">
         <v>701400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>476200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>36600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2627800</v>
+        <v>2286300</v>
       </c>
       <c r="E54" s="3">
-        <v>2644800</v>
+        <v>2504900</v>
       </c>
       <c r="F54" s="3">
-        <v>3242900</v>
+        <v>2521100</v>
       </c>
       <c r="G54" s="3">
-        <v>3270000</v>
+        <v>3091300</v>
       </c>
       <c r="H54" s="3">
-        <v>3464600</v>
+        <v>3117100</v>
       </c>
       <c r="I54" s="3">
-        <v>3390900</v>
+        <v>3302500</v>
       </c>
       <c r="J54" s="3">
+        <v>3232300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3327900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3320200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3640500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3462000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3278300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3083700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2922800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2885000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>376600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>301800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>207300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1257200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>166700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>148400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>875600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>769700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>93700</v>
+        <v>87200</v>
       </c>
       <c r="E57" s="3">
-        <v>106000</v>
+        <v>89300</v>
       </c>
       <c r="F57" s="3">
-        <v>105200</v>
+        <v>101100</v>
       </c>
       <c r="G57" s="3">
-        <v>109900</v>
+        <v>100200</v>
       </c>
       <c r="H57" s="3">
+        <v>104700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>97300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>97400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>92600</v>
+      </c>
+      <c r="L57" s="3">
         <v>102100</v>
       </c>
-      <c r="I57" s="3">
-        <v>102100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>92600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>102100</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>110000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>95200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>121500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>109700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>109300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>72000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>47100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,210 +4208,219 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>351200</v>
+        <v>210500</v>
       </c>
       <c r="E59" s="3">
-        <v>261300</v>
+        <v>334800</v>
       </c>
       <c r="F59" s="3">
-        <v>251700</v>
+        <v>249100</v>
       </c>
       <c r="G59" s="3">
-        <v>233400</v>
+        <v>239900</v>
       </c>
       <c r="H59" s="3">
-        <v>373200</v>
+        <v>222500</v>
       </c>
       <c r="I59" s="3">
-        <v>265400</v>
+        <v>355800</v>
       </c>
       <c r="J59" s="3">
+        <v>253000</v>
+      </c>
+      <c r="K59" s="3">
         <v>272500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>248000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>291400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>273200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>224900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>354400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>179100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>19800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>96400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>93200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>445000</v>
+        <v>297700</v>
       </c>
       <c r="E60" s="3">
-        <v>367400</v>
+        <v>424100</v>
       </c>
       <c r="F60" s="3">
-        <v>356800</v>
+        <v>350200</v>
       </c>
       <c r="G60" s="3">
-        <v>343300</v>
+        <v>340200</v>
       </c>
       <c r="H60" s="3">
-        <v>475300</v>
+        <v>327200</v>
       </c>
       <c r="I60" s="3">
-        <v>367500</v>
+        <v>453100</v>
       </c>
       <c r="J60" s="3">
+        <v>350300</v>
+      </c>
+      <c r="K60" s="3">
         <v>365100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>350100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>551900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>401400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>368300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>346400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>464000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>410200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>251100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>30900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>27900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>143500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>133700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>646200</v>
+        <v>502000</v>
       </c>
       <c r="E61" s="3">
-        <v>666700</v>
+        <v>615900</v>
       </c>
       <c r="F61" s="3">
-        <v>673500</v>
+        <v>635500</v>
       </c>
       <c r="G61" s="3">
-        <v>674300</v>
+        <v>642000</v>
       </c>
       <c r="H61" s="3">
-        <v>683700</v>
+        <v>642800</v>
       </c>
       <c r="I61" s="3">
-        <v>680300</v>
+        <v>651700</v>
       </c>
       <c r="J61" s="3">
+        <v>648500</v>
+      </c>
+      <c r="K61" s="3">
         <v>707300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>742100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>795600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>762900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>782600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>760900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>724700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>741900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>102900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>43000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4296,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49400</v>
+        <v>32200</v>
       </c>
       <c r="E62" s="3">
-        <v>64900</v>
+        <v>47100</v>
       </c>
       <c r="F62" s="3">
-        <v>62200</v>
+        <v>61900</v>
       </c>
       <c r="G62" s="3">
-        <v>56500</v>
+        <v>59300</v>
       </c>
       <c r="H62" s="3">
-        <v>176600</v>
+        <v>53800</v>
       </c>
       <c r="I62" s="3">
-        <v>176600</v>
+        <v>168300</v>
       </c>
       <c r="J62" s="3">
+        <v>168400</v>
+      </c>
+      <c r="K62" s="3">
         <v>167700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>194200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>185400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>195900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>193800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>137400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>56200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>700</v>
       </c>
       <c r="W62" s="3">
         <v>700</v>
       </c>
       <c r="X62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y62" s="3">
         <v>4700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1140600</v>
+        <v>832000</v>
       </c>
       <c r="E66" s="3">
-        <v>1119300</v>
+        <v>1087200</v>
       </c>
       <c r="F66" s="3">
-        <v>1092500</v>
+        <v>1066900</v>
       </c>
       <c r="G66" s="3">
-        <v>1074100</v>
+        <v>1041400</v>
       </c>
       <c r="H66" s="3">
-        <v>1335600</v>
+        <v>1023800</v>
       </c>
       <c r="I66" s="3">
-        <v>1253200</v>
+        <v>1273100</v>
       </c>
       <c r="J66" s="3">
+        <v>1194600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1240100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1268500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1541700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1349600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1346900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1301100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1326200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1208200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>161000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>98500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>255100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>31600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>28600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>148300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>135700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,19 +5161,22 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="3">
-        <v>683100</v>
-      </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F72" s="3">
+        <v>651100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -5010,11 +5184,11 @@
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="3">
-        <v>1233100</v>
-      </c>
-      <c r="J72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1175400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -5031,8 +5205,8 @@
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -5047,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
         <v>54900</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>10</v>
@@ -5058,14 +5232,17 @@
       <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z72" s="3">
         <v>51100</v>
       </c>
-      <c r="Z72" s="3" t="s">
+      <c r="AA72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1487200</v>
+        <v>1454300</v>
       </c>
       <c r="E76" s="3">
-        <v>1525500</v>
+        <v>1417600</v>
       </c>
       <c r="F76" s="3">
-        <v>2150400</v>
+        <v>1454200</v>
       </c>
       <c r="G76" s="3">
-        <v>2196000</v>
+        <v>2049800</v>
       </c>
       <c r="H76" s="3">
-        <v>2129000</v>
+        <v>2093200</v>
       </c>
       <c r="I76" s="3">
-        <v>2137700</v>
+        <v>2029400</v>
       </c>
       <c r="J76" s="3">
+        <v>2037700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2087800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2051700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2098800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2112400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1931400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1782600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1596500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1676800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>215700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>203300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>173100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1002100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>135100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>119900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>727300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>634000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42300</v>
+        <v>48100</v>
       </c>
       <c r="E81" s="3">
-        <v>-619600</v>
+        <v>40400</v>
       </c>
       <c r="F81" s="3">
-        <v>58900</v>
+        <v>-590600</v>
       </c>
       <c r="G81" s="3">
-        <v>67800</v>
+        <v>56100</v>
       </c>
       <c r="H81" s="3">
-        <v>67400</v>
+        <v>64600</v>
       </c>
       <c r="I81" s="3">
-        <v>95100</v>
+        <v>64300</v>
       </c>
       <c r="J81" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K81" s="3">
         <v>66700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>85000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>162600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>137600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>44000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>428300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>84200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>118400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>95700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>223100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>9000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>81200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>80600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E83" s="3">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="F83" s="3">
-        <v>10700</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I83" s="3">
         <v>11100</v>
       </c>
-      <c r="H83" s="3">
-        <v>11600</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="L83" s="3">
         <v>13600</v>
       </c>
-      <c r="J83" s="3">
-        <v>12900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="P83" s="3">
         <v>13600</v>
       </c>
-      <c r="L83" s="3">
-        <v>14600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>14100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>13600</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6300</v>
+        <v>27900</v>
       </c>
       <c r="E89" s="3">
-        <v>97200</v>
+        <v>6000</v>
       </c>
       <c r="F89" s="3">
-        <v>81800</v>
+        <v>92600</v>
       </c>
       <c r="G89" s="3">
-        <v>-24500</v>
+        <v>77900</v>
       </c>
       <c r="H89" s="3">
-        <v>73200</v>
+        <v>-23400</v>
       </c>
       <c r="I89" s="3">
-        <v>151700</v>
+        <v>69800</v>
       </c>
       <c r="J89" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K89" s="3">
         <v>100900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>257900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>181100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>221800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>178900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>506200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>142400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>118400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>382600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>45700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>16000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>95400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>107200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37700</v>
+        <v>114600</v>
       </c>
       <c r="E94" s="3">
-        <v>239000</v>
+        <v>-35900</v>
       </c>
       <c r="F94" s="3">
-        <v>193900</v>
+        <v>227800</v>
       </c>
       <c r="G94" s="3">
-        <v>-7800</v>
+        <v>184800</v>
       </c>
       <c r="H94" s="3">
-        <v>-52600</v>
+        <v>-7400</v>
       </c>
       <c r="I94" s="3">
-        <v>-89500</v>
+        <v>-50200</v>
       </c>
       <c r="J94" s="3">
+        <v>-85300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-42300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>76400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-238400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-232700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-146000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-117600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-63700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>33500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-87300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17500</v>
+        <v>-259900</v>
       </c>
       <c r="E100" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
-        <v>-117500</v>
-      </c>
       <c r="G100" s="3">
-        <v>-139900</v>
+        <v>-112000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2700</v>
+        <v>-133400</v>
       </c>
       <c r="I100" s="3">
-        <v>-29000</v>
+        <v>-2600</v>
       </c>
       <c r="J100" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-168300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-58500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-136900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>713100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>404000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>273800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2300</v>
+        <v>13100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1900</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H101" s="3">
-        <v>600</v>
+        <v>-4000</v>
       </c>
       <c r="I101" s="3">
-        <v>-5500</v>
+        <v>500</v>
       </c>
       <c r="J101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-51200</v>
+        <v>-104300</v>
       </c>
       <c r="E102" s="3">
-        <v>333500</v>
+        <v>-48800</v>
       </c>
       <c r="F102" s="3">
-        <v>157600</v>
+        <v>317900</v>
       </c>
       <c r="G102" s="3">
-        <v>-176500</v>
+        <v>150200</v>
       </c>
       <c r="H102" s="3">
-        <v>18500</v>
+        <v>-168200</v>
       </c>
       <c r="I102" s="3">
-        <v>27700</v>
+        <v>17600</v>
       </c>
       <c r="J102" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K102" s="3">
         <v>29000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>174800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-147100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-303400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-53600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-42400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>358400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>38500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>131100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>433000</v>
+        <v>464300</v>
       </c>
       <c r="E8" s="3">
-        <v>438200</v>
+        <v>446700</v>
       </c>
       <c r="F8" s="3">
-        <v>511400</v>
+        <v>452100</v>
       </c>
       <c r="G8" s="3">
-        <v>523300</v>
+        <v>527700</v>
       </c>
       <c r="H8" s="3">
-        <v>511100</v>
+        <v>539900</v>
       </c>
       <c r="I8" s="3">
-        <v>483100</v>
+        <v>527300</v>
       </c>
       <c r="J8" s="3">
+        <v>498400</v>
+      </c>
+      <c r="K8" s="3">
         <v>528300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>550100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>570000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>567000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>721800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>685500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>647800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>566300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2039700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>529700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>452300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>396600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>379200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>939700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>46300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>265200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>246100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>250300</v>
+        <v>270900</v>
       </c>
       <c r="E9" s="3">
-        <v>253500</v>
+        <v>258200</v>
       </c>
       <c r="F9" s="3">
-        <v>305100</v>
+        <v>261600</v>
       </c>
       <c r="G9" s="3">
-        <v>303900</v>
+        <v>314700</v>
       </c>
       <c r="H9" s="3">
-        <v>288200</v>
+        <v>313600</v>
       </c>
       <c r="I9" s="3">
-        <v>269800</v>
+        <v>297300</v>
       </c>
       <c r="J9" s="3">
+        <v>278400</v>
+      </c>
+      <c r="K9" s="3">
         <v>284400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>295100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>296100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>362100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>339300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>322000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>285000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1092700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>295100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>246800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>191100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>196500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>452600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>22400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>120400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>110200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>188500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>190500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>212900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>226300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>230000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>243900</v>
+      </c>
+      <c r="L10" s="3">
+        <v>255000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>270000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>270900</v>
+      </c>
+      <c r="O10" s="3">
+        <v>359800</v>
+      </c>
+      <c r="P10" s="3">
+        <v>346200</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>325900</v>
+      </c>
+      <c r="R10" s="3">
+        <v>281300</v>
+      </c>
+      <c r="S10" s="3">
+        <v>947000</v>
+      </c>
+      <c r="T10" s="3">
+        <v>234700</v>
+      </c>
+      <c r="U10" s="3">
+        <v>205500</v>
+      </c>
+      <c r="V10" s="3">
+        <v>205600</v>
+      </c>
+      <c r="W10" s="3">
         <v>182700</v>
       </c>
-      <c r="E10" s="3">
-        <v>184700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>206400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>219400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>222900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>213300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>243900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>255000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>270000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>270900</v>
-      </c>
-      <c r="N10" s="3">
-        <v>359800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>346200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>325900</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>281300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>947000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>234700</v>
-      </c>
-      <c r="T10" s="3">
-        <v>205500</v>
-      </c>
-      <c r="U10" s="3">
-        <v>205600</v>
-      </c>
-      <c r="V10" s="3">
-        <v>182700</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>487100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>24000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>144800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>135900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>33200</v>
+        <v>35200</v>
       </c>
       <c r="E12" s="3">
-        <v>34800</v>
+        <v>34200</v>
       </c>
       <c r="F12" s="3">
-        <v>44000</v>
+        <v>35900</v>
       </c>
       <c r="G12" s="3">
-        <v>36300</v>
+        <v>45400</v>
       </c>
       <c r="H12" s="3">
-        <v>37100</v>
+        <v>37500</v>
       </c>
       <c r="I12" s="3">
-        <v>39600</v>
+        <v>38300</v>
       </c>
       <c r="J12" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K12" s="3">
         <v>45600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>41100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>41400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>45000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>46500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>39300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>37900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>115700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>16000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>18400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>33000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,11 +1217,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>612100</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>631500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1209,36 +1229,36 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1249,22 +1269,25 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>4500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>700</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5500</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,17 +1300,17 @@
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
         <v>2300</v>
       </c>
-      <c r="H15" s="3">
-        <v>2400</v>
-      </c>
       <c r="I15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J15" s="3">
         <v>2600</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>384800</v>
+        <v>389600</v>
       </c>
       <c r="E17" s="3">
-        <v>389200</v>
+        <v>397000</v>
       </c>
       <c r="F17" s="3">
-        <v>1070600</v>
+        <v>401600</v>
       </c>
       <c r="G17" s="3">
-        <v>459200</v>
+        <v>1104600</v>
       </c>
       <c r="H17" s="3">
-        <v>415600</v>
+        <v>473800</v>
       </c>
       <c r="I17" s="3">
-        <v>416300</v>
+        <v>428800</v>
       </c>
       <c r="J17" s="3">
+        <v>429500</v>
+      </c>
+      <c r="K17" s="3">
         <v>446300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>472500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>450300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>474200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>529500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>534300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>503100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>508500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1549400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>436200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>323800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>262200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>274100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>687900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>36000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>174200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>163200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48200</v>
+        <v>74700</v>
       </c>
       <c r="E18" s="3">
-        <v>49000</v>
+        <v>49700</v>
       </c>
       <c r="F18" s="3">
-        <v>-559100</v>
+        <v>50600</v>
       </c>
       <c r="G18" s="3">
-        <v>64100</v>
+        <v>-576900</v>
       </c>
       <c r="H18" s="3">
-        <v>95500</v>
+        <v>66100</v>
       </c>
       <c r="I18" s="3">
-        <v>66800</v>
+        <v>98600</v>
       </c>
       <c r="J18" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K18" s="3">
         <v>82000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>192400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>151200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>144700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>57800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>490300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>128500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>134500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>105100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>251700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>91000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>82900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,194 +1582,201 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22300</v>
+        <v>18600</v>
       </c>
       <c r="E20" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="L20" s="3">
         <v>15200</v>
       </c>
-      <c r="F20" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>13000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>12400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>15700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>41500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74500</v>
+        <v>97400</v>
       </c>
       <c r="E21" s="3">
-        <v>68300</v>
+        <v>76900</v>
       </c>
       <c r="F21" s="3">
-        <v>-540000</v>
+        <v>70500</v>
       </c>
       <c r="G21" s="3">
-        <v>87300</v>
+        <v>-557200</v>
       </c>
       <c r="H21" s="3">
-        <v>117800</v>
+        <v>90100</v>
       </c>
       <c r="I21" s="3">
-        <v>90300</v>
+        <v>121600</v>
       </c>
       <c r="J21" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K21" s="3">
         <v>110700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>149400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>128000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>223200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>181300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>174000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>85300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>568500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>116900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>143000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>146000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>123400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>267500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>96900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>87800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>2600</v>
       </c>
       <c r="H22" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="I22" s="3">
         <v>2600</v>
       </c>
       <c r="J22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3100</v>
       </c>
       <c r="N22" s="3">
         <v>3100</v>
@@ -1745,31 +1785,31 @@
         <v>3100</v>
       </c>
       <c r="P22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1800</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>10</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>10</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>66500</v>
+        <v>89700</v>
       </c>
       <c r="E23" s="3">
-        <v>61500</v>
+        <v>68600</v>
       </c>
       <c r="F23" s="3">
-        <v>-547500</v>
+        <v>63500</v>
       </c>
       <c r="G23" s="3">
-        <v>74500</v>
+        <v>-564900</v>
       </c>
       <c r="H23" s="3">
-        <v>104700</v>
+        <v>76900</v>
       </c>
       <c r="I23" s="3">
-        <v>76700</v>
+        <v>108000</v>
       </c>
       <c r="J23" s="3">
+        <v>79100</v>
+      </c>
+      <c r="K23" s="3">
         <v>95100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>132800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>110300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>205900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>164300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>157400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>523200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>102000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>134300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>141300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>112200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>266200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>94800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>85600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20300</v>
+        <v>22400</v>
       </c>
       <c r="E24" s="3">
         <v>21000</v>
       </c>
       <c r="F24" s="3">
-        <v>41300</v>
+        <v>21700</v>
       </c>
       <c r="G24" s="3">
-        <v>19900</v>
+        <v>42600</v>
       </c>
       <c r="H24" s="3">
-        <v>40600</v>
+        <v>20600</v>
       </c>
       <c r="I24" s="3">
-        <v>12700</v>
+        <v>41900</v>
       </c>
       <c r="J24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>106400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>47300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>46200</v>
+        <v>67300</v>
       </c>
       <c r="E26" s="3">
-        <v>40600</v>
+        <v>47700</v>
       </c>
       <c r="F26" s="3">
-        <v>-588800</v>
+        <v>41800</v>
       </c>
       <c r="G26" s="3">
-        <v>54600</v>
+        <v>-607500</v>
       </c>
       <c r="H26" s="3">
-        <v>64100</v>
+        <v>56300</v>
       </c>
       <c r="I26" s="3">
-        <v>64000</v>
+        <v>66100</v>
       </c>
       <c r="J26" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K26" s="3">
         <v>94300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>67400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>84600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>166900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>113100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>44300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>416800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>80700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>105800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>116800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>93500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>218900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>8900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>79000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>82500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>48100</v>
+        <v>64700</v>
       </c>
       <c r="E27" s="3">
-        <v>40400</v>
+        <v>49600</v>
       </c>
       <c r="F27" s="3">
-        <v>-590600</v>
+        <v>41600</v>
       </c>
       <c r="G27" s="3">
-        <v>56100</v>
+        <v>-609300</v>
       </c>
       <c r="H27" s="3">
-        <v>64600</v>
+        <v>57900</v>
       </c>
       <c r="I27" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="J27" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K27" s="3">
         <v>90700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>67300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>162600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>137600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>114200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>44000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>428300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>84200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>107600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>118400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>95700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>223100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>9000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>81200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>80600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22300</v>
+        <v>-18600</v>
       </c>
       <c r="E32" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="L32" s="3">
         <v>-15200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-41500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>48100</v>
+        <v>64700</v>
       </c>
       <c r="E33" s="3">
-        <v>40400</v>
+        <v>49600</v>
       </c>
       <c r="F33" s="3">
-        <v>-590600</v>
+        <v>41600</v>
       </c>
       <c r="G33" s="3">
-        <v>56100</v>
+        <v>-609300</v>
       </c>
       <c r="H33" s="3">
-        <v>64600</v>
+        <v>57900</v>
       </c>
       <c r="I33" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="J33" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K33" s="3">
         <v>90700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>67300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>85000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>162600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>137600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>44000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>428300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>84200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>107600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>118400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>95700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>223100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>9000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>81200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>80600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>48100</v>
+        <v>64700</v>
       </c>
       <c r="E35" s="3">
-        <v>40400</v>
+        <v>49600</v>
       </c>
       <c r="F35" s="3">
-        <v>-590600</v>
+        <v>41600</v>
       </c>
       <c r="G35" s="3">
-        <v>56100</v>
+        <v>-609300</v>
       </c>
       <c r="H35" s="3">
-        <v>64600</v>
+        <v>57900</v>
       </c>
       <c r="I35" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="J35" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K35" s="3">
         <v>90700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>67300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>85000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>162600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>137600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>44000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>428300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>84200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>107600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>118400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>95700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>223100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>9000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>81200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>80600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,239 +3007,249 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>607500</v>
+        <v>493400</v>
       </c>
       <c r="E41" s="3">
-        <v>713400</v>
+        <v>626800</v>
       </c>
       <c r="F41" s="3">
-        <v>775400</v>
+        <v>736100</v>
       </c>
       <c r="G41" s="3">
-        <v>457100</v>
+        <v>800000</v>
       </c>
       <c r="H41" s="3">
-        <v>306900</v>
+        <v>471600</v>
       </c>
       <c r="I41" s="3">
-        <v>485900</v>
+        <v>316600</v>
       </c>
       <c r="J41" s="3">
+        <v>501300</v>
+      </c>
+      <c r="K41" s="3">
         <v>468300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>463900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>438800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>441600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>402300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>442100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>407400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>375400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>46000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>662200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>76700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>65800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>388700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>257600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>918700</v>
+        <v>847400</v>
       </c>
       <c r="E42" s="3">
-        <v>368900</v>
+        <v>947900</v>
       </c>
       <c r="F42" s="3">
-        <v>398100</v>
+        <v>380600</v>
       </c>
       <c r="G42" s="3">
-        <v>836600</v>
+        <v>410800</v>
       </c>
       <c r="H42" s="3">
-        <v>1025300</v>
+        <v>863200</v>
       </c>
       <c r="I42" s="3">
-        <v>1101600</v>
+        <v>1057900</v>
       </c>
       <c r="J42" s="3">
+        <v>1136500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1053200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1159100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1370300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1998500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1895900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1662800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1677700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1420400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1342400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>174200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>59700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>83100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>362500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>64400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>59800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>351200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>393800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>29800</v>
+        <v>27900</v>
       </c>
       <c r="E43" s="3">
-        <v>28200</v>
+        <v>30700</v>
       </c>
       <c r="F43" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="G43" s="3">
-        <v>30500</v>
+        <v>29500</v>
       </c>
       <c r="H43" s="3">
-        <v>30200</v>
+        <v>31400</v>
       </c>
       <c r="I43" s="3">
-        <v>29000</v>
+        <v>31200</v>
       </c>
       <c r="J43" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K43" s="3">
         <v>28000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>47000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>58100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>13400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>49100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>32900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>36200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,316 +3325,331 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129000</v>
+        <v>140400</v>
       </c>
       <c r="E45" s="3">
-        <v>125200</v>
+        <v>133100</v>
       </c>
       <c r="F45" s="3">
-        <v>107900</v>
+        <v>129100</v>
       </c>
       <c r="G45" s="3">
-        <v>114500</v>
+        <v>111300</v>
       </c>
       <c r="H45" s="3">
-        <v>102400</v>
+        <v>118100</v>
       </c>
       <c r="I45" s="3">
-        <v>97400</v>
+        <v>105700</v>
       </c>
       <c r="J45" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K45" s="3">
         <v>85700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>81800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>94400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>92200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>97800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>92800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>94500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>79900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>37400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>32700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1685000</v>
+        <v>1509100</v>
       </c>
       <c r="E46" s="3">
-        <v>1235600</v>
+        <v>1738500</v>
       </c>
       <c r="F46" s="3">
-        <v>1310000</v>
+        <v>1274900</v>
       </c>
       <c r="G46" s="3">
-        <v>1438600</v>
+        <v>1351600</v>
       </c>
       <c r="H46" s="3">
-        <v>1464800</v>
+        <v>1484300</v>
       </c>
       <c r="I46" s="3">
-        <v>1713800</v>
+        <v>1511400</v>
       </c>
       <c r="J46" s="3">
+        <v>1768200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1635200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1764900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1928700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2581500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2431900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2263000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2089300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1967800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1921800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>243700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>169900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>155400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1147800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>154600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>138200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>810200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>720200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>123300</v>
+        <v>124000</v>
       </c>
       <c r="E47" s="3">
-        <v>113200</v>
+        <v>127200</v>
       </c>
       <c r="F47" s="3">
-        <v>114100</v>
+        <v>116800</v>
       </c>
       <c r="G47" s="3">
-        <v>102600</v>
+        <v>117800</v>
       </c>
       <c r="H47" s="3">
-        <v>102100</v>
+        <v>105900</v>
       </c>
       <c r="I47" s="3">
-        <v>61700</v>
+        <v>105400</v>
       </c>
       <c r="J47" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K47" s="3">
         <v>63300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>69600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>72600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>78000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>76400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>74400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>69700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>68100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>42800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>35900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>31900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51700</v>
+        <v>47300</v>
       </c>
       <c r="E48" s="3">
-        <v>57200</v>
+        <v>53400</v>
       </c>
       <c r="F48" s="3">
-        <v>61100</v>
+        <v>59000</v>
       </c>
       <c r="G48" s="3">
-        <v>71300</v>
+        <v>63000</v>
       </c>
       <c r="H48" s="3">
-        <v>62500</v>
+        <v>73600</v>
       </c>
       <c r="I48" s="3">
-        <v>71000</v>
+        <v>64500</v>
       </c>
       <c r="J48" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K48" s="3">
         <v>75700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>69600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>89800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>81800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>38400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,73 +3660,76 @@
         <v>3600</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G49" s="3">
-        <v>641700</v>
+        <v>3900</v>
       </c>
       <c r="H49" s="3">
-        <v>647700</v>
+        <v>662100</v>
       </c>
       <c r="I49" s="3">
-        <v>662300</v>
+        <v>668300</v>
       </c>
       <c r="J49" s="3">
+        <v>683300</v>
+      </c>
+      <c r="K49" s="3">
         <v>664800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>731000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>773200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>835900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>808500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>836200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>820200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>787900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>812900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>113700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>113200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10500</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1100</v>
       </c>
       <c r="X49" s="3">
         <v>1100</v>
       </c>
       <c r="Y49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z49" s="3">
         <v>7300</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>422800</v>
+        <v>540200</v>
       </c>
       <c r="E52" s="3">
-        <v>1095200</v>
+        <v>436200</v>
       </c>
       <c r="F52" s="3">
-        <v>1032100</v>
+        <v>1129900</v>
       </c>
       <c r="G52" s="3">
-        <v>837000</v>
+        <v>1064900</v>
       </c>
       <c r="H52" s="3">
-        <v>839900</v>
+        <v>863500</v>
       </c>
       <c r="I52" s="3">
-        <v>793800</v>
+        <v>866600</v>
       </c>
       <c r="J52" s="3">
+        <v>819000</v>
+      </c>
+      <c r="K52" s="3">
         <v>793300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>701400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>476200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>36600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2286300</v>
+        <v>2224000</v>
       </c>
       <c r="E54" s="3">
-        <v>2504900</v>
+        <v>2358900</v>
       </c>
       <c r="F54" s="3">
-        <v>2521100</v>
+        <v>2584400</v>
       </c>
       <c r="G54" s="3">
-        <v>3091300</v>
+        <v>2601100</v>
       </c>
       <c r="H54" s="3">
-        <v>3117100</v>
+        <v>3189400</v>
       </c>
       <c r="I54" s="3">
-        <v>3302500</v>
+        <v>3216000</v>
       </c>
       <c r="J54" s="3">
+        <v>3407400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3232300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3327900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3320200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3640500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3462000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3278300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3083700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2922800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2885000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>376600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>301800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>207300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1257200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>166700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>148400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>875600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>769700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,108 +4187,112 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87200</v>
+        <v>89500</v>
       </c>
       <c r="E57" s="3">
-        <v>89300</v>
+        <v>90000</v>
       </c>
       <c r="F57" s="3">
-        <v>101100</v>
+        <v>92200</v>
       </c>
       <c r="G57" s="3">
-        <v>100200</v>
+        <v>104300</v>
       </c>
       <c r="H57" s="3">
-        <v>104700</v>
+        <v>103400</v>
       </c>
       <c r="I57" s="3">
-        <v>97300</v>
+        <v>108100</v>
       </c>
       <c r="J57" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K57" s="3">
         <v>97400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>92600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>102100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>110000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>95200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>121500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>109700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>109300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>72000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>47100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>40500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>391600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4211,219 +4345,228 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>210500</v>
+        <v>193400</v>
       </c>
       <c r="E59" s="3">
-        <v>334800</v>
+        <v>217200</v>
       </c>
       <c r="F59" s="3">
-        <v>249100</v>
+        <v>345400</v>
       </c>
       <c r="G59" s="3">
-        <v>239900</v>
+        <v>257000</v>
       </c>
       <c r="H59" s="3">
-        <v>222500</v>
+        <v>247500</v>
       </c>
       <c r="I59" s="3">
-        <v>355800</v>
+        <v>229500</v>
       </c>
       <c r="J59" s="3">
+        <v>367100</v>
+      </c>
+      <c r="K59" s="3">
         <v>253000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>272500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>248000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>451600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>291400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>273200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>224900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>354400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>179100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>19800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>96400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>93200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>297700</v>
+        <v>674500</v>
       </c>
       <c r="E60" s="3">
-        <v>424100</v>
+        <v>307200</v>
       </c>
       <c r="F60" s="3">
-        <v>350200</v>
+        <v>437600</v>
       </c>
       <c r="G60" s="3">
-        <v>340200</v>
+        <v>361300</v>
       </c>
       <c r="H60" s="3">
-        <v>327200</v>
+        <v>351000</v>
       </c>
       <c r="I60" s="3">
-        <v>453100</v>
+        <v>337600</v>
       </c>
       <c r="J60" s="3">
+        <v>467500</v>
+      </c>
+      <c r="K60" s="3">
         <v>350300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>365100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>350100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>551900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>401400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>368300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>346400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>464000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>410200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>51200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>251100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>30900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>27900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>143500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>133700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>502000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>615900</v>
+        <v>518000</v>
       </c>
       <c r="F61" s="3">
         <v>635500</v>
       </c>
       <c r="G61" s="3">
-        <v>642000</v>
+        <v>655700</v>
       </c>
       <c r="H61" s="3">
-        <v>642800</v>
+        <v>662400</v>
       </c>
       <c r="I61" s="3">
-        <v>651700</v>
+        <v>663200</v>
       </c>
       <c r="J61" s="3">
+        <v>672400</v>
+      </c>
+      <c r="K61" s="3">
         <v>648500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>707300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>742100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>795600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>762900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>782600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>760900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>724700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>741900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>102900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>43000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4442,85 +4585,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32200</v>
+        <v>28000</v>
       </c>
       <c r="E62" s="3">
-        <v>47100</v>
+        <v>33200</v>
       </c>
       <c r="F62" s="3">
-        <v>61900</v>
+        <v>48600</v>
       </c>
       <c r="G62" s="3">
-        <v>59300</v>
+        <v>63900</v>
       </c>
       <c r="H62" s="3">
-        <v>53800</v>
+        <v>61200</v>
       </c>
       <c r="I62" s="3">
-        <v>168300</v>
+        <v>55500</v>
       </c>
       <c r="J62" s="3">
+        <v>173700</v>
+      </c>
+      <c r="K62" s="3">
         <v>168400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>167700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>176400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>194200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>185400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>195900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>193800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>137400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>56200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4000</v>
-      </c>
-      <c r="W62" s="3">
-        <v>700</v>
       </c>
       <c r="X62" s="3">
         <v>700</v>
       </c>
       <c r="Y62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z62" s="3">
         <v>4700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>832000</v>
+        <v>702500</v>
       </c>
       <c r="E66" s="3">
-        <v>1087200</v>
+        <v>858400</v>
       </c>
       <c r="F66" s="3">
-        <v>1066900</v>
+        <v>1121700</v>
       </c>
       <c r="G66" s="3">
-        <v>1041400</v>
+        <v>1100800</v>
       </c>
       <c r="H66" s="3">
-        <v>1023800</v>
+        <v>1074500</v>
       </c>
       <c r="I66" s="3">
-        <v>1273100</v>
+        <v>1056300</v>
       </c>
       <c r="J66" s="3">
+        <v>1313500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1194600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1240100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1268500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1541700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1349600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1346900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1301100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1326200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1208200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>161000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>98500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>255100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>31600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>28600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>148300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>135700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5175,11 +5349,11 @@
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3">
-        <v>651100</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G72" s="3">
+        <v>671800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -5187,11 +5361,11 @@
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>1175400</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
@@ -5208,8 +5382,8 @@
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -5224,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
         <v>54900</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>10</v>
@@ -5235,14 +5409,17 @@
       <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="3">
         <v>51100</v>
       </c>
-      <c r="AA72" s="3" t="s">
+      <c r="AB72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1454300</v>
+        <v>1521500</v>
       </c>
       <c r="E76" s="3">
-        <v>1417600</v>
+        <v>1500500</v>
       </c>
       <c r="F76" s="3">
-        <v>1454200</v>
+        <v>1462700</v>
       </c>
       <c r="G76" s="3">
-        <v>2049800</v>
+        <v>1500300</v>
       </c>
       <c r="H76" s="3">
-        <v>2093200</v>
+        <v>2114900</v>
       </c>
       <c r="I76" s="3">
-        <v>2029400</v>
+        <v>2159700</v>
       </c>
       <c r="J76" s="3">
+        <v>2093900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2037700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2087800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2051700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2098800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2112400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1931400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1782600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1596500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1676800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>215700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>203300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>173100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1002100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>135100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>119900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>727300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>634000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>48100</v>
+        <v>64700</v>
       </c>
       <c r="E81" s="3">
-        <v>40400</v>
+        <v>49600</v>
       </c>
       <c r="F81" s="3">
-        <v>-590600</v>
+        <v>41600</v>
       </c>
       <c r="G81" s="3">
-        <v>56100</v>
+        <v>-609300</v>
       </c>
       <c r="H81" s="3">
-        <v>64600</v>
+        <v>57900</v>
       </c>
       <c r="I81" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="J81" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K81" s="3">
         <v>90700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>67300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>85000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>162600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>137600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>44000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>428300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>84200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>107600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>118400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>95700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>223100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>9000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>81200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>80600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,76 +6022,79 @@
         <v>4100</v>
       </c>
       <c r="E83" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="G83" s="3">
-        <v>10200</v>
+        <v>5100</v>
       </c>
       <c r="H83" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I83" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="J83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27900</v>
+        <v>63800</v>
       </c>
       <c r="E89" s="3">
-        <v>6000</v>
+        <v>28800</v>
       </c>
       <c r="F89" s="3">
-        <v>92600</v>
+        <v>6200</v>
       </c>
       <c r="G89" s="3">
-        <v>77900</v>
+        <v>95600</v>
       </c>
       <c r="H89" s="3">
-        <v>-23400</v>
+        <v>80400</v>
       </c>
       <c r="I89" s="3">
-        <v>69800</v>
+        <v>-24100</v>
       </c>
       <c r="J89" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K89" s="3">
         <v>144600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>85700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>257900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>181100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>221800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>178900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>506200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>142400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>118400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>382600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>45700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>16000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>95400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>107200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3000</v>
+        <v>-3900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4300</v>
+        <v>-2800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2800</v>
+        <v>-4400</v>
       </c>
       <c r="I91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="J91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>114600</v>
+        <v>-3500</v>
       </c>
       <c r="E94" s="3">
-        <v>-35900</v>
+        <v>118200</v>
       </c>
       <c r="F94" s="3">
-        <v>227800</v>
+        <v>-37100</v>
       </c>
       <c r="G94" s="3">
-        <v>184800</v>
+        <v>235000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7400</v>
+        <v>190700</v>
       </c>
       <c r="I94" s="3">
-        <v>-50200</v>
+        <v>-7700</v>
       </c>
       <c r="J94" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-85300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>76400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-238400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-232700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-146000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-117600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-63700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>33500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-87300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-259900</v>
+        <v>-192400</v>
       </c>
       <c r="E100" s="3">
-        <v>-16700</v>
+        <v>-268100</v>
       </c>
       <c r="F100" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
-        <v>-112000</v>
-      </c>
       <c r="H100" s="3">
-        <v>-133400</v>
+        <v>-115600</v>
       </c>
       <c r="I100" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="P100" s="3">
         <v>-2600</v>
       </c>
-      <c r="J100" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-168300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-58500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-136900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>713100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>404000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>273800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13100</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-4000</v>
-      </c>
       <c r="I101" s="3">
-        <v>500</v>
+        <v>-4200</v>
       </c>
       <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-104300</v>
+        <v>-133000</v>
       </c>
       <c r="E102" s="3">
-        <v>-48800</v>
+        <v>-107600</v>
       </c>
       <c r="F102" s="3">
-        <v>317900</v>
+        <v>-50300</v>
       </c>
       <c r="G102" s="3">
-        <v>150200</v>
+        <v>328000</v>
       </c>
       <c r="H102" s="3">
-        <v>-168200</v>
+        <v>155000</v>
       </c>
       <c r="I102" s="3">
-        <v>17600</v>
+        <v>-173600</v>
       </c>
       <c r="J102" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K102" s="3">
         <v>26400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>174800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-147100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-303400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-53600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-42400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>358400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>38500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>131100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>464300</v>
+        <v>456700</v>
       </c>
       <c r="E8" s="3">
-        <v>446700</v>
+        <v>459600</v>
       </c>
       <c r="F8" s="3">
-        <v>452100</v>
+        <v>442100</v>
       </c>
       <c r="G8" s="3">
-        <v>527700</v>
+        <v>447500</v>
       </c>
       <c r="H8" s="3">
-        <v>539900</v>
+        <v>522300</v>
       </c>
       <c r="I8" s="3">
-        <v>527300</v>
+        <v>534400</v>
       </c>
       <c r="J8" s="3">
+        <v>521900</v>
+      </c>
+      <c r="K8" s="3">
         <v>498400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>528300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>550100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>570000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>567000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>721800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>685500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>647800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>566300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2039700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>529700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>452300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>396600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>379200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>939700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>46300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>265200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>246100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>270900</v>
+        <v>272400</v>
       </c>
       <c r="E9" s="3">
-        <v>258200</v>
+        <v>268100</v>
       </c>
       <c r="F9" s="3">
-        <v>261600</v>
+        <v>255600</v>
       </c>
       <c r="G9" s="3">
-        <v>314700</v>
+        <v>258900</v>
       </c>
       <c r="H9" s="3">
-        <v>313600</v>
+        <v>311500</v>
       </c>
       <c r="I9" s="3">
-        <v>297300</v>
+        <v>310400</v>
       </c>
       <c r="J9" s="3">
+        <v>294300</v>
+      </c>
+      <c r="K9" s="3">
         <v>278400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>284400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>295100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>296100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>362100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>339300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>322000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>285000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1092700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>295100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>246800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>191100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>196500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>452600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>22400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>120400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>110200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>193400</v>
+        <v>184300</v>
       </c>
       <c r="E10" s="3">
-        <v>188500</v>
+        <v>191500</v>
       </c>
       <c r="F10" s="3">
-        <v>190500</v>
+        <v>186600</v>
       </c>
       <c r="G10" s="3">
-        <v>212900</v>
+        <v>188600</v>
       </c>
       <c r="H10" s="3">
-        <v>226300</v>
+        <v>210800</v>
       </c>
       <c r="I10" s="3">
-        <v>230000</v>
+        <v>224000</v>
       </c>
       <c r="J10" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K10" s="3">
         <v>220100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>243900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>255000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>270000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>270900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>359800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>346200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>325900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>281300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>947000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>234700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>205500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>205600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>182700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>487100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>24000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>144800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>135900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>35200</v>
+        <v>38800</v>
       </c>
       <c r="E12" s="3">
-        <v>34200</v>
+        <v>34800</v>
       </c>
       <c r="F12" s="3">
-        <v>35900</v>
+        <v>33900</v>
       </c>
       <c r="G12" s="3">
-        <v>45400</v>
+        <v>35600</v>
       </c>
       <c r="H12" s="3">
-        <v>37500</v>
+        <v>44900</v>
       </c>
       <c r="I12" s="3">
-        <v>38300</v>
+        <v>37100</v>
       </c>
       <c r="J12" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K12" s="3">
         <v>40800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>43700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>41100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>41400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>45000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>46500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>39300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>37900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>115700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>35700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>16000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>18400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>33000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,13 +1222,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1220,11 +1239,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>631500</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>625000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1232,36 +1251,36 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1272,22 +1291,25 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>4500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>700</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5500</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,17 +1325,17 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
         <v>2300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2600</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -1324,8 +1346,8 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>389600</v>
+        <v>398500</v>
       </c>
       <c r="E17" s="3">
-        <v>397000</v>
+        <v>385600</v>
       </c>
       <c r="F17" s="3">
-        <v>401600</v>
+        <v>392900</v>
       </c>
       <c r="G17" s="3">
-        <v>1104600</v>
+        <v>397500</v>
       </c>
       <c r="H17" s="3">
-        <v>473800</v>
+        <v>1093300</v>
       </c>
       <c r="I17" s="3">
-        <v>428800</v>
+        <v>468900</v>
       </c>
       <c r="J17" s="3">
+        <v>424400</v>
+      </c>
+      <c r="K17" s="3">
         <v>429500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>446300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>472500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>450300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>474200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>529500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>534300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>503100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>508500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1549400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>436200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>323800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>262200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>274100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>687900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>36000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>174200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>163200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>74700</v>
+        <v>58200</v>
       </c>
       <c r="E18" s="3">
-        <v>49700</v>
+        <v>73900</v>
       </c>
       <c r="F18" s="3">
-        <v>50600</v>
+        <v>49200</v>
       </c>
       <c r="G18" s="3">
-        <v>-576900</v>
+        <v>50000</v>
       </c>
       <c r="H18" s="3">
-        <v>66100</v>
+        <v>-571000</v>
       </c>
       <c r="I18" s="3">
-        <v>98600</v>
+        <v>65500</v>
       </c>
       <c r="J18" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K18" s="3">
         <v>69000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>192400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>151200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>144700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>490300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>128500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>134500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>105100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>251700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>91000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>82900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,203 +1615,210 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18600</v>
+        <v>12500</v>
       </c>
       <c r="E20" s="3">
-        <v>23000</v>
+        <v>18400</v>
       </c>
       <c r="F20" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L20" s="3">
         <v>15700</v>
       </c>
-      <c r="G20" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>12800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>15700</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>41500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>97400</v>
+        <v>74300</v>
       </c>
       <c r="E21" s="3">
-        <v>76900</v>
+        <v>96400</v>
       </c>
       <c r="F21" s="3">
-        <v>70500</v>
+        <v>76100</v>
       </c>
       <c r="G21" s="3">
-        <v>-557200</v>
+        <v>69800</v>
       </c>
       <c r="H21" s="3">
-        <v>90100</v>
+        <v>-551500</v>
       </c>
       <c r="I21" s="3">
-        <v>121600</v>
+        <v>89200</v>
       </c>
       <c r="J21" s="3">
+        <v>120300</v>
+      </c>
+      <c r="K21" s="3">
         <v>93200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>149400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>223200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>181300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>174000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>85300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>568500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>116900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>143000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>146000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>123400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>267500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>11400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>96900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>87800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
-        <v>4100</v>
-      </c>
       <c r="F22" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="G22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2600</v>
       </c>
       <c r="J22" s="3">
         <v>2600</v>
       </c>
       <c r="K22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3100</v>
       </c>
       <c r="O22" s="3">
         <v>3100</v>
@@ -1788,31 +1827,31 @@
         <v>3100</v>
       </c>
       <c r="Q22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1800</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>10</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>10</v>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>89700</v>
+        <v>69100</v>
       </c>
       <c r="E23" s="3">
-        <v>68600</v>
+        <v>88800</v>
       </c>
       <c r="F23" s="3">
-        <v>63500</v>
+        <v>67900</v>
       </c>
       <c r="G23" s="3">
-        <v>-564900</v>
+        <v>62900</v>
       </c>
       <c r="H23" s="3">
-        <v>76900</v>
+        <v>-559100</v>
       </c>
       <c r="I23" s="3">
-        <v>108000</v>
+        <v>76100</v>
       </c>
       <c r="J23" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K23" s="3">
         <v>79100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>132800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>110300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>205900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>164300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>157400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>69200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>523200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>102000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>134300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>141300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>112200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>266200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>11000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>94800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>85600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22400</v>
+        <v>15600</v>
       </c>
       <c r="E24" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>42100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>800</v>
+      </c>
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
-        <v>21700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>42600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>20600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>41900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>44300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>106400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>47300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>67300</v>
+        <v>53600</v>
       </c>
       <c r="E26" s="3">
-        <v>47700</v>
+        <v>66600</v>
       </c>
       <c r="F26" s="3">
-        <v>41800</v>
+        <v>47200</v>
       </c>
       <c r="G26" s="3">
-        <v>-607500</v>
+        <v>41400</v>
       </c>
       <c r="H26" s="3">
-        <v>56300</v>
+        <v>-601300</v>
       </c>
       <c r="I26" s="3">
-        <v>66100</v>
+        <v>55800</v>
       </c>
       <c r="J26" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K26" s="3">
         <v>66000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>94300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>68900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>67400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>84600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>166900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>136200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>113100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>44300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>416800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>80700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>105800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>116800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>93500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>218900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>8900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>79000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>82500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64700</v>
+        <v>56600</v>
       </c>
       <c r="E27" s="3">
-        <v>49600</v>
+        <v>64100</v>
       </c>
       <c r="F27" s="3">
-        <v>41600</v>
+        <v>49100</v>
       </c>
       <c r="G27" s="3">
-        <v>-609300</v>
+        <v>41200</v>
       </c>
       <c r="H27" s="3">
-        <v>57900</v>
+        <v>-603100</v>
       </c>
       <c r="I27" s="3">
+        <v>57300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>66300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>90700</v>
+      </c>
+      <c r="M27" s="3">
         <v>66700</v>
       </c>
-      <c r="J27" s="3">
-        <v>66300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>90700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>66700</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>67300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>85000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>162600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>137600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>114200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>44000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>428300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>84200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>107600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>118400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>95700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>223100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>9000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>81200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>80600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18600</v>
+        <v>-12500</v>
       </c>
       <c r="E32" s="3">
-        <v>-23000</v>
+        <v>-18400</v>
       </c>
       <c r="F32" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="L32" s="3">
         <v>-15700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-41500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>64700</v>
+        <v>56600</v>
       </c>
       <c r="E33" s="3">
-        <v>49600</v>
+        <v>64100</v>
       </c>
       <c r="F33" s="3">
-        <v>41600</v>
+        <v>49100</v>
       </c>
       <c r="G33" s="3">
-        <v>-609300</v>
+        <v>41200</v>
       </c>
       <c r="H33" s="3">
-        <v>57900</v>
+        <v>-603100</v>
       </c>
       <c r="I33" s="3">
+        <v>57300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>66300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>90700</v>
+      </c>
+      <c r="M33" s="3">
         <v>66700</v>
       </c>
-      <c r="J33" s="3">
-        <v>66300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>90700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>66700</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>67300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>85000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>162600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>137600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>44000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>428300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>84200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>107600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>118400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>95700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>223100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>9000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>81200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>80600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>64700</v>
+        <v>56600</v>
       </c>
       <c r="E35" s="3">
-        <v>49600</v>
+        <v>64100</v>
       </c>
       <c r="F35" s="3">
-        <v>41600</v>
+        <v>49100</v>
       </c>
       <c r="G35" s="3">
-        <v>-609300</v>
+        <v>41200</v>
       </c>
       <c r="H35" s="3">
-        <v>57900</v>
+        <v>-603100</v>
       </c>
       <c r="I35" s="3">
+        <v>57300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>66300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>90700</v>
+      </c>
+      <c r="M35" s="3">
         <v>66700</v>
       </c>
-      <c r="J35" s="3">
-        <v>66300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>90700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>66700</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>67300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>85000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>162600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>137600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>44000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>428300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>84200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>107600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>118400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>95700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>223100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>9000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>81200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>80600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,248 +3093,258 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>493400</v>
+        <v>713300</v>
       </c>
       <c r="E41" s="3">
-        <v>626800</v>
+        <v>488400</v>
       </c>
       <c r="F41" s="3">
-        <v>736100</v>
+        <v>620400</v>
       </c>
       <c r="G41" s="3">
-        <v>800000</v>
+        <v>728500</v>
       </c>
       <c r="H41" s="3">
-        <v>471600</v>
+        <v>791900</v>
       </c>
       <c r="I41" s="3">
-        <v>316600</v>
+        <v>466800</v>
       </c>
       <c r="J41" s="3">
+        <v>313400</v>
+      </c>
+      <c r="K41" s="3">
         <v>501300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>468300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>463900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>438800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>441600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>402300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>442100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>407400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>375400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>46000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>662200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>76700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>65800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>388700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>257600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>847400</v>
+        <v>796100</v>
       </c>
       <c r="E42" s="3">
-        <v>947900</v>
+        <v>838700</v>
       </c>
       <c r="F42" s="3">
-        <v>380600</v>
+        <v>938200</v>
       </c>
       <c r="G42" s="3">
-        <v>410800</v>
+        <v>376700</v>
       </c>
       <c r="H42" s="3">
-        <v>863200</v>
+        <v>406500</v>
       </c>
       <c r="I42" s="3">
-        <v>1057900</v>
+        <v>854300</v>
       </c>
       <c r="J42" s="3">
+        <v>1047100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1136500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1053200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1159100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1370300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1998500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1895900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1662800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1677700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1420400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1342400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>174200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>59700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>83100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>362500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>64400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>59800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>351200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>393800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27900</v>
+        <v>26800</v>
       </c>
       <c r="E43" s="3">
-        <v>30700</v>
+        <v>27600</v>
       </c>
       <c r="F43" s="3">
-        <v>29100</v>
+        <v>30400</v>
       </c>
       <c r="G43" s="3">
-        <v>29500</v>
+        <v>28800</v>
       </c>
       <c r="H43" s="3">
-        <v>31400</v>
+        <v>29200</v>
       </c>
       <c r="I43" s="3">
-        <v>31200</v>
+        <v>31100</v>
       </c>
       <c r="J43" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K43" s="3">
         <v>29900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>47000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>58100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>43000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>13400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>49100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>32900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>36200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,408 +3423,426 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140400</v>
+        <v>130400</v>
       </c>
       <c r="E45" s="3">
-        <v>133100</v>
+        <v>139000</v>
       </c>
       <c r="F45" s="3">
-        <v>129100</v>
+        <v>131700</v>
       </c>
       <c r="G45" s="3">
-        <v>111300</v>
+        <v>127800</v>
       </c>
       <c r="H45" s="3">
-        <v>118100</v>
+        <v>110200</v>
       </c>
       <c r="I45" s="3">
-        <v>105700</v>
+        <v>116900</v>
       </c>
       <c r="J45" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K45" s="3">
         <v>100500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>81800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>94400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>92200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>97800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>92800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>94500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>61200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>79900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>37400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>32700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1509100</v>
+        <v>1666600</v>
       </c>
       <c r="E46" s="3">
-        <v>1738500</v>
+        <v>1493700</v>
       </c>
       <c r="F46" s="3">
-        <v>1274900</v>
+        <v>1720700</v>
       </c>
       <c r="G46" s="3">
-        <v>1351600</v>
+        <v>1261800</v>
       </c>
       <c r="H46" s="3">
-        <v>1484300</v>
+        <v>1337800</v>
       </c>
       <c r="I46" s="3">
-        <v>1511400</v>
+        <v>1469100</v>
       </c>
       <c r="J46" s="3">
+        <v>1495900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1768200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1635200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1764900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1928700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2581500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2431900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2263000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2089300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1967800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1921800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>243700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>169900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>155400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1147800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>154600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>138200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>810200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>720200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124000</v>
+        <v>127100</v>
       </c>
       <c r="E47" s="3">
-        <v>127200</v>
+        <v>122700</v>
       </c>
       <c r="F47" s="3">
-        <v>116800</v>
+        <v>125900</v>
       </c>
       <c r="G47" s="3">
-        <v>117800</v>
+        <v>115600</v>
       </c>
       <c r="H47" s="3">
-        <v>105900</v>
+        <v>116600</v>
       </c>
       <c r="I47" s="3">
-        <v>105400</v>
+        <v>104800</v>
       </c>
       <c r="J47" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K47" s="3">
         <v>63600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>69600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>72600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>78000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>76400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>74400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>69700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>68100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>42800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>35900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>31900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47300</v>
+        <v>41000</v>
       </c>
       <c r="E48" s="3">
-        <v>53400</v>
+        <v>46800</v>
       </c>
       <c r="F48" s="3">
+        <v>52800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>58400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>72800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K48" s="3">
+        <v>73200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>75700</v>
+      </c>
+      <c r="M48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="N48" s="3">
+        <v>69600</v>
+      </c>
+      <c r="O48" s="3">
+        <v>79400</v>
+      </c>
+      <c r="P48" s="3">
+        <v>82700</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>89800</v>
+      </c>
+      <c r="R48" s="3">
+        <v>87800</v>
+      </c>
+      <c r="S48" s="3">
+        <v>81800</v>
+      </c>
+      <c r="T48" s="3">
         <v>59000</v>
       </c>
-      <c r="G48" s="3">
-        <v>63000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>73600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>64500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>73200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>75700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>61000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>69600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>79400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>82700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>89800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>87800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>81800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>59000</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>38400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>19200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E49" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="F49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G49" s="3">
         <v>3700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3900</v>
       </c>
-      <c r="H49" s="3">
-        <v>662100</v>
-      </c>
       <c r="I49" s="3">
-        <v>668300</v>
+        <v>655300</v>
       </c>
       <c r="J49" s="3">
+        <v>661500</v>
+      </c>
+      <c r="K49" s="3">
         <v>683300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>664800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>731000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>773200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>835900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>808500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>836200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>820200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>787900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>812900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>113700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>113200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10500</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1100</v>
       </c>
       <c r="Y49" s="3">
         <v>1100</v>
       </c>
       <c r="Z49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA49" s="3">
         <v>7300</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>540200</v>
+        <v>412300</v>
       </c>
       <c r="E52" s="3">
-        <v>436200</v>
+        <v>534700</v>
       </c>
       <c r="F52" s="3">
-        <v>1129900</v>
+        <v>431800</v>
       </c>
       <c r="G52" s="3">
-        <v>1064900</v>
+        <v>1118400</v>
       </c>
       <c r="H52" s="3">
-        <v>863500</v>
+        <v>1054000</v>
       </c>
       <c r="I52" s="3">
-        <v>866600</v>
+        <v>854700</v>
       </c>
       <c r="J52" s="3">
+        <v>857700</v>
+      </c>
+      <c r="K52" s="3">
         <v>819000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>793300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>701400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>476200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>62500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>36600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2224000</v>
+        <v>2250200</v>
       </c>
       <c r="E54" s="3">
-        <v>2358900</v>
+        <v>2201300</v>
       </c>
       <c r="F54" s="3">
-        <v>2584400</v>
+        <v>2334800</v>
       </c>
       <c r="G54" s="3">
-        <v>2601100</v>
+        <v>2557900</v>
       </c>
       <c r="H54" s="3">
-        <v>3189400</v>
+        <v>2574500</v>
       </c>
       <c r="I54" s="3">
-        <v>3216000</v>
+        <v>3156800</v>
       </c>
       <c r="J54" s="3">
+        <v>3183100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3407400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3232300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3327900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3320200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3640500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3462000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3278300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3083700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2922800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2885000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>376600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>301800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>207300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1257200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>166700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>148400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>875600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>769700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,96 +4317,100 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>89500</v>
+        <v>87700</v>
       </c>
       <c r="E57" s="3">
-        <v>90000</v>
+        <v>88600</v>
       </c>
       <c r="F57" s="3">
-        <v>92200</v>
+        <v>89100</v>
       </c>
       <c r="G57" s="3">
-        <v>104300</v>
+        <v>91200</v>
       </c>
       <c r="H57" s="3">
-        <v>103400</v>
+        <v>103200</v>
       </c>
       <c r="I57" s="3">
-        <v>108100</v>
+        <v>102400</v>
       </c>
       <c r="J57" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K57" s="3">
         <v>100400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>97400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>92600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>102100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>110000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>95200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>121500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>109700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>109300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>72000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>47100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>40500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>391600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
+        <v>376200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>387600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -4294,8 +4427,8 @@
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4348,168 +4481,177 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>193400</v>
+        <v>209700</v>
       </c>
       <c r="E59" s="3">
-        <v>217200</v>
+        <v>191500</v>
       </c>
       <c r="F59" s="3">
-        <v>345400</v>
+        <v>215000</v>
       </c>
       <c r="G59" s="3">
-        <v>257000</v>
+        <v>341900</v>
       </c>
       <c r="H59" s="3">
-        <v>247500</v>
+        <v>254400</v>
       </c>
       <c r="I59" s="3">
-        <v>229500</v>
+        <v>245000</v>
       </c>
       <c r="J59" s="3">
+        <v>227200</v>
+      </c>
+      <c r="K59" s="3">
         <v>367100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>253000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>272500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>248000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>451600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>291400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>273200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>224900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>354400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>36600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>179100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>96400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>93200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>674500</v>
+        <v>673500</v>
       </c>
       <c r="E60" s="3">
-        <v>307200</v>
+        <v>667600</v>
       </c>
       <c r="F60" s="3">
-        <v>437600</v>
+        <v>304000</v>
       </c>
       <c r="G60" s="3">
-        <v>361300</v>
+        <v>433100</v>
       </c>
       <c r="H60" s="3">
-        <v>351000</v>
+        <v>357600</v>
       </c>
       <c r="I60" s="3">
-        <v>337600</v>
+        <v>347400</v>
       </c>
       <c r="J60" s="3">
+        <v>334200</v>
+      </c>
+      <c r="K60" s="3">
         <v>467500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>350300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>365100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>350100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>551900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>401400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>368300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>346400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>464000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>410200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>51200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>49100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>251100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>30900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>27900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>143500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>133700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,59 +4659,59 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>518000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>635500</v>
+        <v>512700</v>
       </c>
       <c r="G61" s="3">
-        <v>655700</v>
+        <v>629000</v>
       </c>
       <c r="H61" s="3">
-        <v>662400</v>
+        <v>649000</v>
       </c>
       <c r="I61" s="3">
-        <v>663200</v>
+        <v>655600</v>
       </c>
       <c r="J61" s="3">
+        <v>656400</v>
+      </c>
+      <c r="K61" s="3">
         <v>672400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>648500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>707300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>742100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>795600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>762900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>782600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>760900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>724700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>741900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>102900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>43000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4588,88 +4730,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28000</v>
+        <v>22800</v>
       </c>
       <c r="E62" s="3">
-        <v>33200</v>
+        <v>27700</v>
       </c>
       <c r="F62" s="3">
-        <v>48600</v>
+        <v>32900</v>
       </c>
       <c r="G62" s="3">
-        <v>63900</v>
+        <v>48100</v>
       </c>
       <c r="H62" s="3">
-        <v>61200</v>
+        <v>63200</v>
       </c>
       <c r="I62" s="3">
-        <v>55500</v>
+        <v>60500</v>
       </c>
       <c r="J62" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K62" s="3">
         <v>173700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>168400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>167700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>176400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>194200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>185400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>195900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>193800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>137400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4000</v>
-      </c>
-      <c r="X62" s="3">
-        <v>700</v>
       </c>
       <c r="Y62" s="3">
         <v>700</v>
       </c>
       <c r="Z62" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA62" s="3">
         <v>4700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>702500</v>
+        <v>718200</v>
       </c>
       <c r="E66" s="3">
-        <v>858400</v>
+        <v>695300</v>
       </c>
       <c r="F66" s="3">
-        <v>1121700</v>
+        <v>849600</v>
       </c>
       <c r="G66" s="3">
-        <v>1100800</v>
+        <v>1110300</v>
       </c>
       <c r="H66" s="3">
-        <v>1074500</v>
+        <v>1089500</v>
       </c>
       <c r="I66" s="3">
-        <v>1056300</v>
+        <v>1063500</v>
       </c>
       <c r="J66" s="3">
+        <v>1045500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1313500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1194600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1240100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1268500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1541700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1349600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1346900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1301100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1326200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1208200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>161000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>98500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>255100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>28600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>148300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>135700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,13 +5508,16 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>756400</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
@@ -5352,11 +5525,11 @@
       <c r="F72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="3">
-        <v>671800</v>
-      </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H72" s="3">
+        <v>664900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
@@ -5364,11 +5537,11 @@
       <c r="J72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="3">
         <v>1175400</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>10</v>
@@ -5385,8 +5558,8 @@
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -5401,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
         <v>54900</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>10</v>
@@ -5412,14 +5585,17 @@
       <c r="Z72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB72" s="3">
         <v>51100</v>
       </c>
-      <c r="AB72" s="3" t="s">
+      <c r="AC72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1521500</v>
+        <v>1532000</v>
       </c>
       <c r="E76" s="3">
-        <v>1500500</v>
+        <v>1506000</v>
       </c>
       <c r="F76" s="3">
-        <v>1462700</v>
+        <v>1485200</v>
       </c>
       <c r="G76" s="3">
-        <v>1500300</v>
+        <v>1447700</v>
       </c>
       <c r="H76" s="3">
-        <v>2114900</v>
+        <v>1485000</v>
       </c>
       <c r="I76" s="3">
-        <v>2159700</v>
+        <v>2093300</v>
       </c>
       <c r="J76" s="3">
+        <v>2137600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2093900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2037700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2087800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2051700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2098800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2112400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1931400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1782600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1596500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1676800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>215700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>203300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>173100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1002100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>135100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>119900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>727300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>634000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>64700</v>
+        <v>56600</v>
       </c>
       <c r="E81" s="3">
-        <v>49600</v>
+        <v>64100</v>
       </c>
       <c r="F81" s="3">
-        <v>41600</v>
+        <v>49100</v>
       </c>
       <c r="G81" s="3">
-        <v>-609300</v>
+        <v>41200</v>
       </c>
       <c r="H81" s="3">
-        <v>57900</v>
+        <v>-603100</v>
       </c>
       <c r="I81" s="3">
+        <v>57300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>66300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>90700</v>
+      </c>
+      <c r="M81" s="3">
         <v>66700</v>
       </c>
-      <c r="J81" s="3">
-        <v>66300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>90700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>66700</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>67300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>85000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>162600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>137600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>44000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>428300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>84200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>107600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>118400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>95700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>223100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>9000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>81200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>80600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F83" s="3">
         <v>4200</v>
       </c>
       <c r="G83" s="3">
-        <v>5100</v>
+        <v>4200</v>
       </c>
       <c r="H83" s="3">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="I83" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="J83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63800</v>
+        <v>76600</v>
       </c>
       <c r="E89" s="3">
-        <v>28800</v>
+        <v>63200</v>
       </c>
       <c r="F89" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G89" s="3">
         <v>6200</v>
       </c>
-      <c r="G89" s="3">
-        <v>95600</v>
-      </c>
       <c r="H89" s="3">
-        <v>80400</v>
+        <v>94600</v>
       </c>
       <c r="I89" s="3">
-        <v>-24100</v>
+        <v>79600</v>
       </c>
       <c r="J89" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K89" s="3">
         <v>72000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>144600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>257900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>181100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>221800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>178900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>506200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>50300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>142400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>118400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>382600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>45700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>16000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>95400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>107200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3900</v>
+        <v>-10100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3100</v>
+        <v>-27100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-21700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2800</v>
+        <v>-21600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4400</v>
+        <v>-19200</v>
       </c>
       <c r="I91" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3500</v>
+        <v>167000</v>
       </c>
       <c r="E94" s="3">
-        <v>118200</v>
+        <v>-3400</v>
       </c>
       <c r="F94" s="3">
-        <v>-37100</v>
+        <v>117000</v>
       </c>
       <c r="G94" s="3">
-        <v>235000</v>
+        <v>-36700</v>
       </c>
       <c r="H94" s="3">
-        <v>190700</v>
+        <v>232600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7700</v>
+        <v>188700</v>
       </c>
       <c r="J94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-51700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>76400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-238400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-232700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-146000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-117600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-63700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>33500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-87300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-192400</v>
+        <v>-15000</v>
       </c>
       <c r="E100" s="3">
-        <v>-268100</v>
+        <v>-190500</v>
       </c>
       <c r="F100" s="3">
-        <v>-17200</v>
+        <v>-265400</v>
       </c>
       <c r="G100" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
-        <v>-115600</v>
-      </c>
       <c r="I100" s="3">
-        <v>-137600</v>
+        <v>-114400</v>
       </c>
       <c r="J100" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-168300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-58500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-136900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>713100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>404000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>273800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>13500</v>
-      </c>
       <c r="F101" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-133000</v>
+        <v>224200</v>
       </c>
       <c r="E102" s="3">
-        <v>-107600</v>
+        <v>-131600</v>
       </c>
       <c r="F102" s="3">
-        <v>-50300</v>
+        <v>-106500</v>
       </c>
       <c r="G102" s="3">
-        <v>328000</v>
+        <v>-49800</v>
       </c>
       <c r="H102" s="3">
-        <v>155000</v>
+        <v>324600</v>
       </c>
       <c r="I102" s="3">
-        <v>-173600</v>
+        <v>153400</v>
       </c>
       <c r="J102" s="3">
+        <v>-171800</v>
+      </c>
+      <c r="K102" s="3">
         <v>18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>174800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-147100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>32000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-303400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-53600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-42400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>358400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>38500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>131100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>MOMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,397 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>456700</v>
+        <v>432300</v>
       </c>
       <c r="E8" s="3">
-        <v>459600</v>
+        <v>388400</v>
       </c>
       <c r="F8" s="3">
-        <v>442100</v>
+        <v>442600</v>
       </c>
       <c r="G8" s="3">
-        <v>447500</v>
+        <v>445400</v>
       </c>
       <c r="H8" s="3">
-        <v>522300</v>
+        <v>428600</v>
       </c>
       <c r="I8" s="3">
+        <v>433700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>506200</v>
+      </c>
+      <c r="K8" s="3">
         <v>534400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>521900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>498400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>528300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>550100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>570000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>567000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>721800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>685500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>647800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>566300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2039700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>529700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>452300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>396600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>379200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>939700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>46300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>265200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>246100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>157000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>272400</v>
+        <v>250700</v>
       </c>
       <c r="E9" s="3">
-        <v>268100</v>
+        <v>229300</v>
       </c>
       <c r="F9" s="3">
-        <v>255600</v>
+        <v>264000</v>
       </c>
       <c r="G9" s="3">
-        <v>258900</v>
+        <v>259900</v>
       </c>
       <c r="H9" s="3">
-        <v>311500</v>
+        <v>247700</v>
       </c>
       <c r="I9" s="3">
+        <v>251000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>301900</v>
+      </c>
+      <c r="K9" s="3">
         <v>310400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>294300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>278400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>284400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>295100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>296100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>362100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>339300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>322000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>285000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1092700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>295100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>246800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>191100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>196500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>452600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>22400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>120400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>110200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>68800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>184300</v>
+        <v>181600</v>
       </c>
       <c r="E10" s="3">
-        <v>191500</v>
+        <v>159100</v>
       </c>
       <c r="F10" s="3">
-        <v>186600</v>
+        <v>178700</v>
       </c>
       <c r="G10" s="3">
-        <v>188600</v>
+        <v>185600</v>
       </c>
       <c r="H10" s="3">
-        <v>210800</v>
+        <v>180800</v>
       </c>
       <c r="I10" s="3">
+        <v>182800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K10" s="3">
         <v>224000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>227600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>220100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>243900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>255000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>270000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>270900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>359800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>346200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>325900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>281300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>947000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>234700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>205500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>205600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>182700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>487100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>24000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>144800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>135900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>88200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>38800</v>
+        <v>29600</v>
       </c>
       <c r="E12" s="3">
-        <v>34800</v>
+        <v>32600</v>
       </c>
       <c r="F12" s="3">
-        <v>33900</v>
+        <v>37600</v>
       </c>
       <c r="G12" s="3">
-        <v>35600</v>
+        <v>33800</v>
       </c>
       <c r="H12" s="3">
-        <v>44900</v>
+        <v>32800</v>
       </c>
       <c r="I12" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K12" s="3">
         <v>37100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>37900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>40800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>45600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>43700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>41100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>41400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>45000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>46500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>39300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>37900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>115700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>35700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>23000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>16000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>18400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>33000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>8600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>7700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,68 +1259,74 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>625000</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>605800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>6600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1294,22 +1334,28 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>4500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>700</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>5500</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1328,20 +1374,20 @@
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2600</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
@@ -1349,11 +1395,11 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>398500</v>
+        <v>343400</v>
       </c>
       <c r="E17" s="3">
-        <v>385600</v>
+        <v>328300</v>
       </c>
       <c r="F17" s="3">
-        <v>392900</v>
+        <v>386300</v>
       </c>
       <c r="G17" s="3">
-        <v>397500</v>
+        <v>373800</v>
       </c>
       <c r="H17" s="3">
-        <v>1093300</v>
+        <v>380900</v>
       </c>
       <c r="I17" s="3">
+        <v>385200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1059600</v>
+      </c>
+      <c r="K17" s="3">
         <v>468900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>424400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>429500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>446300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>472500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>450300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>474200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>529500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>534300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>503100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>508500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1549400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>436200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>323800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>262200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>274100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>687900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>36000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>174200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>163200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>58200</v>
+        <v>88900</v>
       </c>
       <c r="E18" s="3">
-        <v>73900</v>
+        <v>60100</v>
       </c>
       <c r="F18" s="3">
-        <v>49200</v>
+        <v>56400</v>
       </c>
       <c r="G18" s="3">
-        <v>50000</v>
+        <v>71700</v>
       </c>
       <c r="H18" s="3">
-        <v>-571000</v>
+        <v>47700</v>
       </c>
       <c r="I18" s="3">
+        <v>48500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-553400</v>
+      </c>
+      <c r="K18" s="3">
         <v>65500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>97600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>69000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>82000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>77600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>119800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>92800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>192400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>151200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>144700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>57800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>490300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>93500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>128500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>134500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>105100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>251700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>10300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>91000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>82900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1682,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="E20" s="3">
-        <v>18400</v>
+        <v>13700</v>
       </c>
       <c r="F20" s="3">
-        <v>22700</v>
+        <v>12100</v>
       </c>
       <c r="G20" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>20600</v>
+      </c>
+      <c r="R20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="T20" s="3">
         <v>15600</v>
       </c>
-      <c r="H20" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>11900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>12800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>15700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>16000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>20600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>16700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>16200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>15600</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>14300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>41500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>7500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>6900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>7100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>14500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>3800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>2800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74300</v>
+        <v>108200</v>
       </c>
       <c r="E21" s="3">
-        <v>96400</v>
+        <v>77200</v>
       </c>
       <c r="F21" s="3">
-        <v>76100</v>
+        <v>72000</v>
       </c>
       <c r="G21" s="3">
-        <v>69800</v>
+        <v>93400</v>
       </c>
       <c r="H21" s="3">
-        <v>-551500</v>
+        <v>73800</v>
       </c>
       <c r="I21" s="3">
+        <v>67600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-534500</v>
+      </c>
+      <c r="K21" s="3">
         <v>89200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>120300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>93200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>110700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>105700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>149400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>128000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>223200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>181300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>174000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>85300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>568500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>116900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>143000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>146000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>123400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>267500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>11400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>96900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>87800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,73 +1871,73 @@
         <v>1600</v>
       </c>
       <c r="E22" s="3">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="H22" s="3">
-        <v>2600</v>
+        <v>3900</v>
       </c>
       <c r="I22" s="3">
         <v>2700</v>
       </c>
       <c r="J22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3100</v>
       </c>
       <c r="Q22" s="3">
         <v>3100</v>
       </c>
       <c r="R22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>8600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1800</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>10</v>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>10</v>
@@ -1865,174 +1945,192 @@
       <c r="AC22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69100</v>
+        <v>103700</v>
       </c>
       <c r="E23" s="3">
-        <v>88800</v>
+        <v>72400</v>
       </c>
       <c r="F23" s="3">
-        <v>67900</v>
+        <v>67000</v>
       </c>
       <c r="G23" s="3">
-        <v>62900</v>
+        <v>86100</v>
       </c>
       <c r="H23" s="3">
-        <v>-559100</v>
+        <v>65800</v>
       </c>
       <c r="I23" s="3">
+        <v>60900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-542000</v>
+      </c>
+      <c r="K23" s="3">
         <v>76100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>106900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>79100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>95100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>89900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>132800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>110300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>205900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>164300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>157400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>69200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>523200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>102000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>134300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>141300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>112200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>266200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>11000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>94800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>85600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15600</v>
+        <v>22900</v>
       </c>
       <c r="E24" s="3">
-        <v>22200</v>
+        <v>16900</v>
       </c>
       <c r="F24" s="3">
+        <v>15100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I24" s="3">
         <v>20800</v>
       </c>
-      <c r="G24" s="3">
-        <v>21400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>42100</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K24" s="3">
         <v>20300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>41400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>65400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>25700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>39100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>28100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>44300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>24900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>106400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>21300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>28500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>24500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>18700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>47300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>2100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>15800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>3200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>53600</v>
+        <v>80900</v>
       </c>
       <c r="E26" s="3">
-        <v>66600</v>
+        <v>55500</v>
       </c>
       <c r="F26" s="3">
-        <v>47200</v>
+        <v>51900</v>
       </c>
       <c r="G26" s="3">
-        <v>41400</v>
+        <v>64600</v>
       </c>
       <c r="H26" s="3">
-        <v>-601300</v>
+        <v>45700</v>
       </c>
       <c r="I26" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-582800</v>
+      </c>
+      <c r="K26" s="3">
         <v>55800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>65500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>66000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>94300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>68900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>67400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>84600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>166900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>136200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>113100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>44300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>416800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>80700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>105800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>116800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>93500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>218900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>8900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>79000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>82500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>38100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56600</v>
+        <v>78300</v>
       </c>
       <c r="E27" s="3">
-        <v>64100</v>
+        <v>53800</v>
       </c>
       <c r="F27" s="3">
-        <v>49100</v>
+        <v>54800</v>
       </c>
       <c r="G27" s="3">
-        <v>41200</v>
+        <v>62100</v>
       </c>
       <c r="H27" s="3">
-        <v>-603100</v>
+        <v>47600</v>
       </c>
       <c r="I27" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-584600</v>
+      </c>
+      <c r="K27" s="3">
         <v>57300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>66000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>66300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>90700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>66700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>67300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>85000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>162600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>137600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>114200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>44000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>428300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>84200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>107600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>118400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>95700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>223100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>9000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>81200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>80600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12500</v>
+        <v>-16500</v>
       </c>
       <c r="E32" s="3">
-        <v>-18400</v>
+        <v>-13700</v>
       </c>
       <c r="F32" s="3">
-        <v>-22700</v>
+        <v>-12100</v>
       </c>
       <c r="G32" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="T32" s="3">
         <v>-15600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-14300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-41500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-7500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-6900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-14500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56600</v>
+        <v>78300</v>
       </c>
       <c r="E33" s="3">
-        <v>64100</v>
+        <v>53800</v>
       </c>
       <c r="F33" s="3">
-        <v>49100</v>
+        <v>54800</v>
       </c>
       <c r="G33" s="3">
-        <v>41200</v>
+        <v>62100</v>
       </c>
       <c r="H33" s="3">
-        <v>-603100</v>
+        <v>47600</v>
       </c>
       <c r="I33" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-584600</v>
+      </c>
+      <c r="K33" s="3">
         <v>57300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>66000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>66300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>90700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>66700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>67300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>85000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>162600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>137600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>114200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>44000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>428300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>84200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>107600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>118400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>95700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>223100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>9000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>81200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>80600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56600</v>
+        <v>78300</v>
       </c>
       <c r="E35" s="3">
-        <v>64100</v>
+        <v>53800</v>
       </c>
       <c r="F35" s="3">
-        <v>49100</v>
+        <v>54800</v>
       </c>
       <c r="G35" s="3">
-        <v>41200</v>
+        <v>62100</v>
       </c>
       <c r="H35" s="3">
-        <v>-603100</v>
+        <v>47600</v>
       </c>
       <c r="I35" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-584600</v>
+      </c>
+      <c r="K35" s="3">
         <v>57300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>66000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>66300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>90700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>66700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>67300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>85000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>162600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>137600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>114200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>44000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>428300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>84200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>107600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>118400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>95700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>223100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>9000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>81200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>80600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,257 +3266,277 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>713300</v>
+        <v>635900</v>
       </c>
       <c r="E41" s="3">
-        <v>488400</v>
+        <v>739900</v>
       </c>
       <c r="F41" s="3">
-        <v>620400</v>
+        <v>691400</v>
       </c>
       <c r="G41" s="3">
-        <v>728500</v>
+        <v>473400</v>
       </c>
       <c r="H41" s="3">
-        <v>791900</v>
+        <v>601300</v>
       </c>
       <c r="I41" s="3">
+        <v>706200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>767500</v>
+      </c>
+      <c r="K41" s="3">
         <v>466800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>313400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>501300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>468300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>463900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>438800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>441600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>402300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>442100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>270800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>407400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>375400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>41400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>43900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>46000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>662200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>76700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>65800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>388700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>257600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>796100</v>
+        <v>489900</v>
       </c>
       <c r="E42" s="3">
-        <v>838700</v>
+        <v>758100</v>
       </c>
       <c r="F42" s="3">
-        <v>938200</v>
+        <v>771600</v>
       </c>
       <c r="G42" s="3">
-        <v>376700</v>
+        <v>812900</v>
       </c>
       <c r="H42" s="3">
-        <v>406500</v>
+        <v>909300</v>
       </c>
       <c r="I42" s="3">
+        <v>365100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>394100</v>
+      </c>
+      <c r="K42" s="3">
         <v>854300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1047100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1136500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1053200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1159100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1370300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1998500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1895900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1662800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1677700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1420400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1342400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>174200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>59700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>83100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>362500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>64400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>59800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>351200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>393800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>314600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G43" s="3">
         <v>26800</v>
       </c>
-      <c r="E43" s="3">
-        <v>27600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>30400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>28800</v>
-      </c>
       <c r="H43" s="3">
-        <v>29200</v>
+        <v>29500</v>
       </c>
       <c r="I43" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K43" s="3">
         <v>31100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>30900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>29900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>28000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>34100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>37800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>47000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>41500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>58100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>43000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>47200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>109500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>13400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>5600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>49100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>4800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>5600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>32900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>36200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,423 +3618,459 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130400</v>
+        <v>408300</v>
       </c>
       <c r="E45" s="3">
-        <v>139000</v>
+        <v>188300</v>
       </c>
       <c r="F45" s="3">
-        <v>131700</v>
+        <v>126400</v>
       </c>
       <c r="G45" s="3">
-        <v>127800</v>
+        <v>134700</v>
       </c>
       <c r="H45" s="3">
-        <v>110200</v>
+        <v>127700</v>
       </c>
       <c r="I45" s="3">
+        <v>123900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>106800</v>
+      </c>
+      <c r="K45" s="3">
         <v>116900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>104600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>85700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>107800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>81800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>94400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>92200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>97800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>92800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>94500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>14700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>61200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>20800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>79900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>8700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>6900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>37400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>32700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1666600</v>
+        <v>1562100</v>
       </c>
       <c r="E46" s="3">
-        <v>1493700</v>
+        <v>1711500</v>
       </c>
       <c r="F46" s="3">
-        <v>1720700</v>
+        <v>1615400</v>
       </c>
       <c r="G46" s="3">
-        <v>1261800</v>
+        <v>1447700</v>
       </c>
       <c r="H46" s="3">
-        <v>1337800</v>
+        <v>1667800</v>
       </c>
       <c r="I46" s="3">
+        <v>1223000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1296600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1469100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1495900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1768200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1635200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1764900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1928700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2581500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2431900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2263000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2089300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1967800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1921800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>243700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>169900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>155400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1147800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>154600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>138200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>810200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>720200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>614500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>127100</v>
+        <v>120400</v>
       </c>
       <c r="E47" s="3">
-        <v>122700</v>
+        <v>121200</v>
       </c>
       <c r="F47" s="3">
-        <v>125900</v>
+        <v>123200</v>
       </c>
       <c r="G47" s="3">
-        <v>115600</v>
+        <v>119000</v>
       </c>
       <c r="H47" s="3">
-        <v>116600</v>
+        <v>122100</v>
       </c>
       <c r="I47" s="3">
+        <v>112100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>113000</v>
+      </c>
+      <c r="K47" s="3">
         <v>104800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>104300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>63600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>63300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>69600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>72600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>78000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>76400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>77900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>74400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>69700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>68100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>9800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>8900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>7200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>42800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>5600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>5100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>35900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>31900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41000</v>
+        <v>30200</v>
       </c>
       <c r="E48" s="3">
-        <v>46800</v>
+        <v>35100</v>
       </c>
       <c r="F48" s="3">
-        <v>52800</v>
+        <v>39800</v>
       </c>
       <c r="G48" s="3">
-        <v>58400</v>
+        <v>45400</v>
       </c>
       <c r="H48" s="3">
-        <v>62300</v>
+        <v>51200</v>
       </c>
       <c r="I48" s="3">
+        <v>56600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>60400</v>
+      </c>
+      <c r="K48" s="3">
         <v>72800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>63800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>73200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>75700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>61000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>69600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>79400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>82700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>89800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>87800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>81800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>59000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>7100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>38400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>19200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>13900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G49" s="3">
         <v>3200</v>
       </c>
-      <c r="E49" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3700</v>
-      </c>
       <c r="H49" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="I49" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K49" s="3">
         <v>655300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>661500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>683300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>664800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>731000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>773200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>835900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>808500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>836200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>820200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>787900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>812900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>113700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>113200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>10500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>7300</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AD49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AE49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>412300</v>
+        <v>457100</v>
       </c>
       <c r="E52" s="3">
-        <v>534700</v>
+        <v>360900</v>
       </c>
       <c r="F52" s="3">
-        <v>431800</v>
+        <v>399600</v>
       </c>
       <c r="G52" s="3">
-        <v>1118400</v>
+        <v>518300</v>
       </c>
       <c r="H52" s="3">
-        <v>1054000</v>
+        <v>418500</v>
       </c>
       <c r="I52" s="3">
+        <v>1084000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1021600</v>
+      </c>
+      <c r="K52" s="3">
         <v>854700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>857700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>819000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>793300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>701400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>476200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>65600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>62500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>11400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>12000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>15500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>23300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>36600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>17700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>3000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>3700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2250200</v>
+        <v>2172600</v>
       </c>
       <c r="E54" s="3">
-        <v>2201300</v>
+        <v>2231600</v>
       </c>
       <c r="F54" s="3">
-        <v>2334800</v>
+        <v>2181000</v>
       </c>
       <c r="G54" s="3">
-        <v>2557900</v>
+        <v>2133600</v>
       </c>
       <c r="H54" s="3">
-        <v>2574500</v>
+        <v>2263000</v>
       </c>
       <c r="I54" s="3">
+        <v>2479300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2495400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3156800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3183100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3407400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3232300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3327900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3320200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3640500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3462000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3278300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3083700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2922800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2885000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>376600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>301800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>207300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1257200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>166700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>148400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>875600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>769700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>664500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,105 +4578,113 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>87700</v>
+        <v>88000</v>
       </c>
       <c r="E57" s="3">
-        <v>88600</v>
+        <v>86500</v>
       </c>
       <c r="F57" s="3">
-        <v>89100</v>
+        <v>85000</v>
       </c>
       <c r="G57" s="3">
-        <v>91200</v>
+        <v>85800</v>
       </c>
       <c r="H57" s="3">
-        <v>103200</v>
+        <v>86300</v>
       </c>
       <c r="I57" s="3">
+        <v>88400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100100</v>
+      </c>
+      <c r="K57" s="3">
         <v>102400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>107000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>97400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>92600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>102100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>100300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>110000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>95200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>121500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>109700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>109300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>15200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>12400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>11800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>72000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>11100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>8400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>47100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>40500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>376200</v>
+        <v>334200</v>
       </c>
       <c r="E58" s="3">
-        <v>387600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
+        <v>363300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>364600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>375700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -4430,11 +4698,11 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4484,174 +4752,192 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209700</v>
+        <v>178000</v>
       </c>
       <c r="E59" s="3">
-        <v>191500</v>
+        <v>313100</v>
       </c>
       <c r="F59" s="3">
-        <v>215000</v>
+        <v>203200</v>
       </c>
       <c r="G59" s="3">
-        <v>341900</v>
+        <v>185600</v>
       </c>
       <c r="H59" s="3">
-        <v>254400</v>
+        <v>208400</v>
       </c>
       <c r="I59" s="3">
+        <v>331400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K59" s="3">
         <v>245000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>227200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>367100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>253000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>272500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>248000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>451600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>291400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>273200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>224900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>354400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>35900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>36600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>21400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>179100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>19800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>19500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>96400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>93200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>81600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>673500</v>
+        <v>600200</v>
       </c>
       <c r="E60" s="3">
-        <v>667600</v>
+        <v>763000</v>
       </c>
       <c r="F60" s="3">
-        <v>304000</v>
+        <v>652800</v>
       </c>
       <c r="G60" s="3">
-        <v>433100</v>
+        <v>647100</v>
       </c>
       <c r="H60" s="3">
-        <v>357600</v>
+        <v>294700</v>
       </c>
       <c r="I60" s="3">
+        <v>419800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>346600</v>
+      </c>
+      <c r="K60" s="3">
         <v>347400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>334200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>467500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>350300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>365100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>350100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>551900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>401400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>368300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>346400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>464000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>410200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>51200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>49100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>33300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>251100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>30900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>27900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>143500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>133700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>112300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4662,62 +4948,62 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>512700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>496900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>609700</v>
+      </c>
+      <c r="J61" s="3">
         <v>629000</v>
       </c>
-      <c r="H61" s="3">
-        <v>649000</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>655600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>656400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>672400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>648500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>707300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>742100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>795600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>762900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>782600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>760900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>724700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>741900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>102900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>43000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4733,91 +5019,103 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22800</v>
+        <v>32900</v>
       </c>
       <c r="E62" s="3">
         <v>27700</v>
       </c>
       <c r="F62" s="3">
-        <v>32900</v>
+        <v>22100</v>
       </c>
       <c r="G62" s="3">
-        <v>48100</v>
+        <v>26800</v>
       </c>
       <c r="H62" s="3">
-        <v>63200</v>
+        <v>31900</v>
       </c>
       <c r="I62" s="3">
+        <v>46600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K62" s="3">
         <v>60500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>55000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>173700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>168400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>167700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>176400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>194200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>185400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>195900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>193800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>137400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>56200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>6900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>6400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>4000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>4700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>2000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>718200</v>
+        <v>633100</v>
       </c>
       <c r="E66" s="3">
-        <v>695300</v>
+        <v>790700</v>
       </c>
       <c r="F66" s="3">
-        <v>849600</v>
+        <v>696100</v>
       </c>
       <c r="G66" s="3">
-        <v>1110300</v>
+        <v>673900</v>
       </c>
       <c r="H66" s="3">
-        <v>1089500</v>
+        <v>823500</v>
       </c>
       <c r="I66" s="3">
+        <v>1076100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1056000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1063500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1045500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1313500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1194600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1240100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1268500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1541700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1349600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1346900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1301100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1326200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1208200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>161000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>98500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>34100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>255100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>31600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>28600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>148300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>135700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,43 +5853,49 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>756400</v>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
+      <c r="F72" s="3">
+        <v>733100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="3">
-        <v>664900</v>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
+      <c r="J72" s="3">
+        <v>644500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="3">
-        <v>1175400</v>
+      <c r="L72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
+      <c r="N72" s="3">
+        <v>1175400</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
@@ -5561,11 +5909,11 @@
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
@@ -5577,25 +5925,31 @@
         <v>0</v>
       </c>
       <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
         <v>54900</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB72" s="3">
-        <v>51100</v>
+      <c r="AB72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>51100</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1532000</v>
+        <v>1539400</v>
       </c>
       <c r="E76" s="3">
-        <v>1506000</v>
+        <v>1440900</v>
       </c>
       <c r="F76" s="3">
-        <v>1485200</v>
+        <v>1484900</v>
       </c>
       <c r="G76" s="3">
-        <v>1447700</v>
+        <v>1459700</v>
       </c>
       <c r="H76" s="3">
-        <v>1485000</v>
+        <v>1439500</v>
       </c>
       <c r="I76" s="3">
+        <v>1403200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1439300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2093300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2137600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2093900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2037700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2087800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2051700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2098800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2112400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1931400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1782600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1596500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1676800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>215700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>203300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>173100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1002100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>135100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>119900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>727300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>634000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>550800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56600</v>
+        <v>78300</v>
       </c>
       <c r="E81" s="3">
-        <v>64100</v>
+        <v>53800</v>
       </c>
       <c r="F81" s="3">
-        <v>49100</v>
+        <v>54800</v>
       </c>
       <c r="G81" s="3">
-        <v>41200</v>
+        <v>62100</v>
       </c>
       <c r="H81" s="3">
-        <v>-603100</v>
+        <v>47600</v>
       </c>
       <c r="I81" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-584600</v>
+      </c>
+      <c r="K81" s="3">
         <v>57300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>66000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>66300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>90700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>66700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>67300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>85000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>162600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>137600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>114200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>44000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>428300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>84200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>107600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>118400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>95700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>223100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>9000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>81200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>80600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="E83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H83" s="3">
         <v>4000</v>
       </c>
-      <c r="F83" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5000</v>
-      </c>
       <c r="I83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K83" s="3">
         <v>10400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>12900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>14100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>13900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>13600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>13200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>36700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>11400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>6900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>4700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>11200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>1200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>400</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>2200</v>
       </c>
       <c r="AC83" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>76600</v>
+        <v>114000</v>
       </c>
       <c r="E89" s="3">
-        <v>63200</v>
+        <v>62100</v>
       </c>
       <c r="F89" s="3">
-        <v>28500</v>
+        <v>74200</v>
       </c>
       <c r="G89" s="3">
-        <v>6200</v>
+        <v>61200</v>
       </c>
       <c r="H89" s="3">
-        <v>94600</v>
+        <v>27600</v>
       </c>
       <c r="I89" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>91700</v>
+      </c>
+      <c r="K89" s="3">
         <v>79600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>144600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>100900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>119000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>85700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>257900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>181100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>221800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>178900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>506200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>50300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>142400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>118400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>382600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>45700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>16000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>95400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>107200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-27100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-21700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-21600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-19200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-30900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-36900</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-600</v>
       </c>
       <c r="W91" s="3">
         <v>-1500</v>
       </c>
       <c r="X91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-7200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>167000</v>
+        <v>171200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3400</v>
+        <v>54200</v>
       </c>
       <c r="F94" s="3">
-        <v>117000</v>
+        <v>161900</v>
       </c>
       <c r="G94" s="3">
-        <v>-36700</v>
+        <v>-3300</v>
       </c>
       <c r="H94" s="3">
-        <v>232600</v>
+        <v>113400</v>
       </c>
       <c r="I94" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K94" s="3">
         <v>188700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-51700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-85300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-42300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>76400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-57500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-238400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-232700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-146000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1526400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-117600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-22200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-63700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>5400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>33500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-87300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,82 +8004,88 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15000</v>
+        <v>-420800</v>
       </c>
       <c r="E100" s="3">
-        <v>-190500</v>
+        <v>-66600</v>
       </c>
       <c r="F100" s="3">
-        <v>-265400</v>
+        <v>-14600</v>
       </c>
       <c r="G100" s="3">
-        <v>-17100</v>
+        <v>-184600</v>
       </c>
       <c r="H100" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-114400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-136200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-27600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-23000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-168300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-58500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-136900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>713100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>404000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>273800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7601,170 +8093,188 @@
       <c r="AC100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
+        <v>20100</v>
       </c>
       <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
-        <v>13300</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-5300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>1900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>2200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>2100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-8400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>224200</v>
+        <v>-115500</v>
       </c>
       <c r="E102" s="3">
-        <v>-131600</v>
+        <v>48400</v>
       </c>
       <c r="F102" s="3">
-        <v>-106500</v>
+        <v>217300</v>
       </c>
       <c r="G102" s="3">
-        <v>-49800</v>
+        <v>-127600</v>
       </c>
       <c r="H102" s="3">
-        <v>324600</v>
+        <v>-103300</v>
       </c>
       <c r="I102" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>314700</v>
+      </c>
+      <c r="K102" s="3">
         <v>153400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-171800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>18200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>26400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>29000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>26300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>29400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>174800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-147100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>32000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-303400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-53600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>39200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-42400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>358400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>38500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>8100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>131100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>11600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>46600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOMO_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>432300</v>
+        <v>433300</v>
       </c>
       <c r="E8" s="3">
-        <v>388400</v>
+        <v>389200</v>
       </c>
       <c r="F8" s="3">
-        <v>442600</v>
+        <v>443600</v>
       </c>
       <c r="G8" s="3">
-        <v>445400</v>
+        <v>446400</v>
       </c>
       <c r="H8" s="3">
-        <v>428600</v>
+        <v>429500</v>
       </c>
       <c r="I8" s="3">
-        <v>433700</v>
+        <v>434700</v>
       </c>
       <c r="J8" s="3">
-        <v>506200</v>
+        <v>507300</v>
       </c>
       <c r="K8" s="3">
         <v>534400</v>
@@ -882,25 +882,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>250700</v>
+        <v>251200</v>
       </c>
       <c r="E9" s="3">
-        <v>229300</v>
+        <v>229800</v>
       </c>
       <c r="F9" s="3">
-        <v>264000</v>
+        <v>264600</v>
       </c>
       <c r="G9" s="3">
-        <v>259900</v>
+        <v>260400</v>
       </c>
       <c r="H9" s="3">
-        <v>247700</v>
+        <v>248200</v>
       </c>
       <c r="I9" s="3">
-        <v>251000</v>
+        <v>251500</v>
       </c>
       <c r="J9" s="3">
-        <v>301900</v>
+        <v>302600</v>
       </c>
       <c r="K9" s="3">
         <v>310400</v>
@@ -971,25 +971,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>181600</v>
+        <v>182000</v>
       </c>
       <c r="E10" s="3">
-        <v>159100</v>
+        <v>159400</v>
       </c>
       <c r="F10" s="3">
-        <v>178700</v>
+        <v>179000</v>
       </c>
       <c r="G10" s="3">
-        <v>185600</v>
+        <v>186000</v>
       </c>
       <c r="H10" s="3">
-        <v>180800</v>
+        <v>181200</v>
       </c>
       <c r="I10" s="3">
-        <v>182800</v>
+        <v>183200</v>
       </c>
       <c r="J10" s="3">
-        <v>204300</v>
+        <v>204700</v>
       </c>
       <c r="K10" s="3">
         <v>224000</v>
@@ -1096,7 +1096,7 @@
         <v>29600</v>
       </c>
       <c r="E12" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="F12" s="3">
         <v>37600</v>
@@ -1105,13 +1105,13 @@
         <v>33800</v>
       </c>
       <c r="H12" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="I12" s="3">
         <v>34500</v>
       </c>
       <c r="J12" s="3">
-        <v>43500</v>
+        <v>43600</v>
       </c>
       <c r="K12" s="3">
         <v>37100</v>
@@ -1289,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>605800</v>
+        <v>607100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1479,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>343400</v>
+        <v>344200</v>
       </c>
       <c r="E17" s="3">
-        <v>328300</v>
+        <v>329000</v>
       </c>
       <c r="F17" s="3">
-        <v>386300</v>
+        <v>387100</v>
       </c>
       <c r="G17" s="3">
-        <v>373800</v>
+        <v>374600</v>
       </c>
       <c r="H17" s="3">
-        <v>380900</v>
+        <v>381700</v>
       </c>
       <c r="I17" s="3">
-        <v>385200</v>
+        <v>386100</v>
       </c>
       <c r="J17" s="3">
-        <v>1059600</v>
+        <v>1062000</v>
       </c>
       <c r="K17" s="3">
         <v>468900</v>
@@ -1568,25 +1568,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88900</v>
+        <v>89100</v>
       </c>
       <c r="E18" s="3">
-        <v>60100</v>
+        <v>60200</v>
       </c>
       <c r="F18" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="G18" s="3">
-        <v>71700</v>
+        <v>71800</v>
       </c>
       <c r="H18" s="3">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="I18" s="3">
-        <v>48500</v>
+        <v>48600</v>
       </c>
       <c r="J18" s="3">
-        <v>-553400</v>
+        <v>-554600</v>
       </c>
       <c r="K18" s="3">
         <v>65500</v>
@@ -1690,19 +1690,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="E20" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="F20" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="G20" s="3">
         <v>17900</v>
       </c>
       <c r="H20" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="I20" s="3">
         <v>15100</v>
@@ -1779,25 +1779,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>108200</v>
+        <v>108400</v>
       </c>
       <c r="E21" s="3">
-        <v>77200</v>
+        <v>77300</v>
       </c>
       <c r="F21" s="3">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="G21" s="3">
-        <v>93400</v>
+        <v>93600</v>
       </c>
       <c r="H21" s="3">
-        <v>73800</v>
+        <v>73900</v>
       </c>
       <c r="I21" s="3">
-        <v>67600</v>
+        <v>67800</v>
       </c>
       <c r="J21" s="3">
-        <v>-534500</v>
+        <v>-535700</v>
       </c>
       <c r="K21" s="3">
         <v>89200</v>
@@ -1868,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1877,7 +1877,7 @@
         <v>1500</v>
       </c>
       <c r="G22" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H22" s="3">
         <v>3900</v>
@@ -1957,25 +1957,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103700</v>
+        <v>104000</v>
       </c>
       <c r="E23" s="3">
-        <v>72400</v>
+        <v>72600</v>
       </c>
       <c r="F23" s="3">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="G23" s="3">
-        <v>86100</v>
+        <v>86300</v>
       </c>
       <c r="H23" s="3">
-        <v>65800</v>
+        <v>66000</v>
       </c>
       <c r="I23" s="3">
-        <v>60900</v>
+        <v>61100</v>
       </c>
       <c r="J23" s="3">
-        <v>-542000</v>
+        <v>-543100</v>
       </c>
       <c r="K23" s="3">
         <v>76100</v>
@@ -2058,7 +2058,7 @@
         <v>21500</v>
       </c>
       <c r="H24" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="I24" s="3">
         <v>20800</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>80900</v>
+        <v>81100</v>
       </c>
       <c r="E26" s="3">
-        <v>55500</v>
+        <v>55600</v>
       </c>
       <c r="F26" s="3">
-        <v>51900</v>
+        <v>52100</v>
       </c>
       <c r="G26" s="3">
-        <v>64600</v>
+        <v>64700</v>
       </c>
       <c r="H26" s="3">
-        <v>45700</v>
+        <v>45800</v>
       </c>
       <c r="I26" s="3">
-        <v>40100</v>
+        <v>40200</v>
       </c>
       <c r="J26" s="3">
-        <v>-582800</v>
+        <v>-584100</v>
       </c>
       <c r="K26" s="3">
         <v>55800</v>
@@ -2313,25 +2313,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78300</v>
+        <v>78500</v>
       </c>
       <c r="E27" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="F27" s="3">
-        <v>54800</v>
+        <v>55000</v>
       </c>
       <c r="G27" s="3">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="H27" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="I27" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="J27" s="3">
-        <v>-584600</v>
+        <v>-585800</v>
       </c>
       <c r="K27" s="3">
         <v>57300</v>
@@ -2758,19 +2758,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="E32" s="3">
-        <v>-13700</v>
+        <v>-13800</v>
       </c>
       <c r="F32" s="3">
-        <v>-12100</v>
+        <v>-12200</v>
       </c>
       <c r="G32" s="3">
         <v>-17900</v>
       </c>
       <c r="H32" s="3">
-        <v>-22000</v>
+        <v>-22100</v>
       </c>
       <c r="I32" s="3">
         <v>-15100</v>
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78300</v>
+        <v>78500</v>
       </c>
       <c r="E33" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="F33" s="3">
-        <v>54800</v>
+        <v>55000</v>
       </c>
       <c r="G33" s="3">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="H33" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="I33" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="J33" s="3">
-        <v>-584600</v>
+        <v>-585800</v>
       </c>
       <c r="K33" s="3">
         <v>57300</v>
@@ -3025,25 +3025,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78300</v>
+        <v>78500</v>
       </c>
       <c r="E35" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="F35" s="3">
-        <v>54800</v>
+        <v>55000</v>
       </c>
       <c r="G35" s="3">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="H35" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="I35" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="J35" s="3">
-        <v>-584600</v>
+        <v>-585800</v>
       </c>
       <c r="K35" s="3">
         <v>57300</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>635900</v>
+        <v>637300</v>
       </c>
       <c r="E41" s="3">
-        <v>739900</v>
+        <v>741500</v>
       </c>
       <c r="F41" s="3">
-        <v>691400</v>
+        <v>692900</v>
       </c>
       <c r="G41" s="3">
-        <v>473400</v>
+        <v>474400</v>
       </c>
       <c r="H41" s="3">
-        <v>601300</v>
+        <v>602700</v>
       </c>
       <c r="I41" s="3">
-        <v>706200</v>
+        <v>707700</v>
       </c>
       <c r="J41" s="3">
-        <v>767500</v>
+        <v>769200</v>
       </c>
       <c r="K41" s="3">
         <v>466800</v>
@@ -3363,25 +3363,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>489900</v>
+        <v>491000</v>
       </c>
       <c r="E42" s="3">
-        <v>758100</v>
+        <v>759800</v>
       </c>
       <c r="F42" s="3">
-        <v>771600</v>
+        <v>773300</v>
       </c>
       <c r="G42" s="3">
-        <v>812900</v>
+        <v>814700</v>
       </c>
       <c r="H42" s="3">
-        <v>909300</v>
+        <v>911300</v>
       </c>
       <c r="I42" s="3">
-        <v>365100</v>
+        <v>365900</v>
       </c>
       <c r="J42" s="3">
-        <v>394100</v>
+        <v>394900</v>
       </c>
       <c r="K42" s="3">
         <v>854300</v>
@@ -3452,13 +3452,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="E43" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="F43" s="3">
-        <v>26000</v>
+        <v>26100</v>
       </c>
       <c r="G43" s="3">
         <v>26800</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>408300</v>
+        <v>409200</v>
       </c>
       <c r="E45" s="3">
-        <v>188300</v>
+        <v>188700</v>
       </c>
       <c r="F45" s="3">
-        <v>126400</v>
+        <v>126700</v>
       </c>
       <c r="G45" s="3">
-        <v>134700</v>
+        <v>135000</v>
       </c>
       <c r="H45" s="3">
-        <v>127700</v>
+        <v>127900</v>
       </c>
       <c r="I45" s="3">
-        <v>123900</v>
+        <v>124200</v>
       </c>
       <c r="J45" s="3">
-        <v>106800</v>
+        <v>107000</v>
       </c>
       <c r="K45" s="3">
         <v>116900</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1562100</v>
+        <v>1565500</v>
       </c>
       <c r="E46" s="3">
-        <v>1711500</v>
+        <v>1715200</v>
       </c>
       <c r="F46" s="3">
-        <v>1615400</v>
+        <v>1618900</v>
       </c>
       <c r="G46" s="3">
-        <v>1447700</v>
+        <v>1450900</v>
       </c>
       <c r="H46" s="3">
-        <v>1667800</v>
+        <v>1671500</v>
       </c>
       <c r="I46" s="3">
-        <v>1223000</v>
+        <v>1225700</v>
       </c>
       <c r="J46" s="3">
-        <v>1296600</v>
+        <v>1299500</v>
       </c>
       <c r="K46" s="3">
         <v>1469100</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120400</v>
+        <v>120700</v>
       </c>
       <c r="E47" s="3">
-        <v>121200</v>
+        <v>121500</v>
       </c>
       <c r="F47" s="3">
-        <v>123200</v>
+        <v>123400</v>
       </c>
       <c r="G47" s="3">
-        <v>119000</v>
+        <v>119200</v>
       </c>
       <c r="H47" s="3">
-        <v>122100</v>
+        <v>122300</v>
       </c>
       <c r="I47" s="3">
-        <v>112100</v>
+        <v>112300</v>
       </c>
       <c r="J47" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="K47" s="3">
         <v>104800</v>
@@ -3897,25 +3897,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="E48" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="F48" s="3">
         <v>39800</v>
       </c>
       <c r="G48" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="H48" s="3">
-        <v>51200</v>
+        <v>51300</v>
       </c>
       <c r="I48" s="3">
-        <v>56600</v>
+        <v>56800</v>
       </c>
       <c r="J48" s="3">
-        <v>60400</v>
+        <v>60600</v>
       </c>
       <c r="K48" s="3">
         <v>72800</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>457100</v>
+        <v>458100</v>
       </c>
       <c r="E52" s="3">
-        <v>360900</v>
+        <v>361600</v>
       </c>
       <c r="F52" s="3">
-        <v>399600</v>
+        <v>400500</v>
       </c>
       <c r="G52" s="3">
-        <v>518300</v>
+        <v>519400</v>
       </c>
       <c r="H52" s="3">
-        <v>418500</v>
+        <v>419400</v>
       </c>
       <c r="I52" s="3">
-        <v>1084000</v>
+        <v>1086300</v>
       </c>
       <c r="J52" s="3">
-        <v>1021600</v>
+        <v>1023800</v>
       </c>
       <c r="K52" s="3">
         <v>854700</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2172600</v>
+        <v>2177300</v>
       </c>
       <c r="E54" s="3">
-        <v>2231600</v>
+        <v>2236400</v>
       </c>
       <c r="F54" s="3">
-        <v>2181000</v>
+        <v>2185700</v>
       </c>
       <c r="G54" s="3">
-        <v>2133600</v>
+        <v>2138200</v>
       </c>
       <c r="H54" s="3">
-        <v>2263000</v>
+        <v>2267900</v>
       </c>
       <c r="I54" s="3">
-        <v>2479300</v>
+        <v>2484700</v>
       </c>
       <c r="J54" s="3">
-        <v>2495400</v>
+        <v>2500800</v>
       </c>
       <c r="K54" s="3">
         <v>3156800</v>
@@ -4586,25 +4586,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>88000</v>
+        <v>88200</v>
       </c>
       <c r="E57" s="3">
+        <v>86700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>86000</v>
+      </c>
+      <c r="H57" s="3">
         <v>86500</v>
       </c>
-      <c r="F57" s="3">
-        <v>85000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>85800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>86300</v>
-      </c>
       <c r="I57" s="3">
-        <v>88400</v>
+        <v>88600</v>
       </c>
       <c r="J57" s="3">
-        <v>100100</v>
+        <v>100300</v>
       </c>
       <c r="K57" s="3">
         <v>102400</v>
@@ -4675,16 +4675,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>334200</v>
+        <v>335000</v>
       </c>
       <c r="E58" s="3">
-        <v>363300</v>
+        <v>364100</v>
       </c>
       <c r="F58" s="3">
-        <v>364600</v>
+        <v>365400</v>
       </c>
       <c r="G58" s="3">
-        <v>375700</v>
+        <v>376500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>178000</v>
+        <v>178300</v>
       </c>
       <c r="E59" s="3">
-        <v>313100</v>
+        <v>313800</v>
       </c>
       <c r="F59" s="3">
-        <v>203200</v>
+        <v>203700</v>
       </c>
       <c r="G59" s="3">
-        <v>185600</v>
+        <v>186000</v>
       </c>
       <c r="H59" s="3">
-        <v>208400</v>
+        <v>208800</v>
       </c>
       <c r="I59" s="3">
-        <v>331400</v>
+        <v>332100</v>
       </c>
       <c r="J59" s="3">
-        <v>246600</v>
+        <v>247100</v>
       </c>
       <c r="K59" s="3">
         <v>245000</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600200</v>
+        <v>601500</v>
       </c>
       <c r="E60" s="3">
-        <v>763000</v>
+        <v>764600</v>
       </c>
       <c r="F60" s="3">
-        <v>652800</v>
+        <v>654300</v>
       </c>
       <c r="G60" s="3">
-        <v>647100</v>
+        <v>648500</v>
       </c>
       <c r="H60" s="3">
-        <v>294700</v>
+        <v>295300</v>
       </c>
       <c r="I60" s="3">
-        <v>419800</v>
+        <v>420700</v>
       </c>
       <c r="J60" s="3">
-        <v>346600</v>
+        <v>347400</v>
       </c>
       <c r="K60" s="3">
         <v>347400</v>
@@ -4954,13 +4954,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>496900</v>
+        <v>498000</v>
       </c>
       <c r="I61" s="3">
-        <v>609700</v>
+        <v>611000</v>
       </c>
       <c r="J61" s="3">
-        <v>629000</v>
+        <v>630400</v>
       </c>
       <c r="K61" s="3">
         <v>655600</v>
@@ -5031,25 +5031,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32900</v>
+        <v>33000</v>
       </c>
       <c r="E62" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="F62" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="G62" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="H62" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="I62" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="J62" s="3">
-        <v>61300</v>
+        <v>61400</v>
       </c>
       <c r="K62" s="3">
         <v>60500</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>633100</v>
+        <v>634500</v>
       </c>
       <c r="E66" s="3">
-        <v>790700</v>
+        <v>792400</v>
       </c>
       <c r="F66" s="3">
-        <v>696100</v>
+        <v>697600</v>
       </c>
       <c r="G66" s="3">
-        <v>673900</v>
+        <v>675400</v>
       </c>
       <c r="H66" s="3">
-        <v>823500</v>
+        <v>825300</v>
       </c>
       <c r="I66" s="3">
-        <v>1076100</v>
+        <v>1078500</v>
       </c>
       <c r="J66" s="3">
-        <v>1056000</v>
+        <v>1058300</v>
       </c>
       <c r="K66" s="3">
         <v>1063500</v>
@@ -5871,7 +5871,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="3">
-        <v>733100</v>
+        <v>734700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -5883,7 +5883,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="3">
-        <v>644500</v>
+        <v>645900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1539400</v>
+        <v>1542800</v>
       </c>
       <c r="E76" s="3">
-        <v>1440900</v>
+        <v>1444000</v>
       </c>
       <c r="F76" s="3">
-        <v>1484900</v>
+        <v>1488100</v>
       </c>
       <c r="G76" s="3">
-        <v>1459700</v>
+        <v>1462800</v>
       </c>
       <c r="H76" s="3">
-        <v>1439500</v>
+        <v>1442600</v>
       </c>
       <c r="I76" s="3">
-        <v>1403200</v>
+        <v>1406200</v>
       </c>
       <c r="J76" s="3">
-        <v>1439300</v>
+        <v>1442500</v>
       </c>
       <c r="K76" s="3">
         <v>2093300</v>
@@ -6493,25 +6493,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78300</v>
+        <v>78500</v>
       </c>
       <c r="E81" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="F81" s="3">
-        <v>54800</v>
+        <v>55000</v>
       </c>
       <c r="G81" s="3">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="H81" s="3">
-        <v>47600</v>
+        <v>47700</v>
       </c>
       <c r="I81" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="J81" s="3">
-        <v>-584600</v>
+        <v>-585800</v>
       </c>
       <c r="K81" s="3">
         <v>57300</v>
@@ -6627,7 +6627,7 @@
         <v>3900</v>
       </c>
       <c r="H83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I83" s="3">
         <v>4000</v>
@@ -7149,25 +7149,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>114000</v>
+        <v>114300</v>
       </c>
       <c r="E89" s="3">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="F89" s="3">
-        <v>74200</v>
+        <v>74400</v>
       </c>
       <c r="G89" s="3">
-        <v>61200</v>
+        <v>61400</v>
       </c>
       <c r="H89" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="I89" s="3">
         <v>6000</v>
       </c>
       <c r="J89" s="3">
-        <v>91700</v>
+        <v>91900</v>
       </c>
       <c r="K89" s="3">
         <v>79600</v>
@@ -7538,25 +7538,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>171200</v>
+        <v>171500</v>
       </c>
       <c r="E94" s="3">
-        <v>54200</v>
+        <v>54300</v>
       </c>
       <c r="F94" s="3">
-        <v>161900</v>
+        <v>162200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H94" s="3">
-        <v>113400</v>
+        <v>113700</v>
       </c>
       <c r="I94" s="3">
         <v>-35600</v>
       </c>
       <c r="J94" s="3">
-        <v>225500</v>
+        <v>225900</v>
       </c>
       <c r="K94" s="3">
         <v>188700</v>
@@ -8016,22 +8016,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-420800</v>
+        <v>-421700</v>
       </c>
       <c r="E100" s="3">
-        <v>-66600</v>
+        <v>-66800</v>
       </c>
       <c r="F100" s="3">
         <v>-14600</v>
       </c>
       <c r="G100" s="3">
-        <v>-184600</v>
+        <v>-185000</v>
       </c>
       <c r="H100" s="3">
-        <v>-257200</v>
+        <v>-257800</v>
       </c>
       <c r="I100" s="3">
-        <v>-16500</v>
+        <v>-16600</v>
       </c>
       <c r="J100" s="3">
         <v>-700</v>
@@ -8117,7 +8117,7 @@
         <v>-900</v>
       </c>
       <c r="H101" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="I101" s="3">
         <v>-2200</v>
@@ -8194,25 +8194,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-115500</v>
+        <v>-115700</v>
       </c>
       <c r="E102" s="3">
-        <v>48400</v>
+        <v>48500</v>
       </c>
       <c r="F102" s="3">
-        <v>217300</v>
+        <v>217800</v>
       </c>
       <c r="G102" s="3">
-        <v>-127600</v>
+        <v>-127800</v>
       </c>
       <c r="H102" s="3">
-        <v>-103300</v>
+        <v>-103500</v>
       </c>
       <c r="I102" s="3">
-        <v>-48300</v>
+        <v>-48400</v>
       </c>
       <c r="J102" s="3">
-        <v>314700</v>
+        <v>315300</v>
       </c>
       <c r="K102" s="3">
         <v>153400</v>
